--- a/22年力扣每日一题做题情况.xlsx
+++ b/22年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20382"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A22AC31-5EEB-4592-948D-A98C666F0FE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D35EBF-32B3-4176-94A3-56BDFB0C10FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="1381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="1385">
   <si>
     <t>贪心</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5554,6 +5554,22 @@
   </si>
   <si>
     <t>位运算/找规律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃离大迷宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后没看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有限步数bfs/离散化bfs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5904,7 +5920,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17337,7 +17353,7 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17574,6 +17590,21 @@
       <c r="A12" s="27">
         <v>44572</v>
       </c>
+      <c r="B12">
+        <v>1036</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1384</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="27">
@@ -17723,7 +17754,7 @@
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -17732,7 +17763,7 @@
       </c>
       <c r="B37">
         <f>COUNTIF(E2:E32,"CV后没看懂")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">

--- a/22年力扣每日一题做题情况.xlsx
+++ b/22年力扣每日一题做题情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20382"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D35EBF-32B3-4176-94A3-56BDFB0C10FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5F56E7-0026-49FD-A5B2-B1CB5FC7B0B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="22年1月" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="1385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="1397">
   <si>
     <t>贪心</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5570,6 +5570,54 @@
   </si>
   <si>
     <t>有限步数bfs/离散化bfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递增的三元子序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双向遍历/贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三元组时，可通过把中间值作为锚点，分别计算其左边和右边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少是其他数字两倍的最大数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找和最小的K对数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学+优先级队列 /二分查找</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5911,13 +5959,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -17353,20 +17401,20 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -17392,7 +17440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
@@ -17409,7 +17457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>44563</v>
       </c>
@@ -17429,7 +17477,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>44564</v>
       </c>
@@ -17449,7 +17497,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>44565</v>
       </c>
@@ -17469,7 +17517,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>44566</v>
       </c>
@@ -17486,7 +17534,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>44567</v>
       </c>
@@ -17506,7 +17554,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>44568</v>
       </c>
@@ -17526,7 +17574,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>44569</v>
       </c>
@@ -17549,7 +17597,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>44570</v>
       </c>
@@ -17566,7 +17614,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>44571</v>
       </c>
@@ -17586,7 +17634,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>44572</v>
       </c>
@@ -17606,126 +17654,171 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>44573</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>334</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>44574</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>747</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>44575</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>373</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>44576</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>44577</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>44578</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>44579</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>44580</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>44581</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>44582</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>44583</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>44584</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>44585</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>44586</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>44587</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>44588</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>44589</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>44590</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>44591</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>44592</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -17738,16 +17831,16 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B36">
         <f>COUNTIF(E2:E32,"CV后看懂")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -17757,7 +17850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
@@ -17766,18 +17859,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
         <v>1368</v>
       </c>
@@ -17786,127 +17879,127 @@
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="29"/>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="29"/>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="29"/>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
       <c r="E49" s="29"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="29"/>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -17940,18 +18033,18 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -17977,7 +18070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>44470</v>
       </c>
@@ -17997,7 +18090,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>44471</v>
       </c>
@@ -18017,7 +18110,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>44472</v>
       </c>
@@ -18040,7 +18133,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>44473</v>
       </c>
@@ -18060,7 +18153,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>44474</v>
       </c>
@@ -18077,7 +18170,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>44475</v>
       </c>
@@ -18094,7 +18187,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>44476</v>
       </c>
@@ -18111,7 +18204,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>44477</v>
       </c>
@@ -18134,7 +18227,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>44478</v>
       </c>
@@ -18157,7 +18250,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>44479</v>
       </c>
@@ -18177,7 +18270,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>44480</v>
       </c>
@@ -18197,7 +18290,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>44481</v>
       </c>
@@ -18220,7 +18313,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>44482</v>
       </c>
@@ -18240,7 +18333,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>44483</v>
       </c>
@@ -18260,7 +18353,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>44484</v>
       </c>
@@ -18280,7 +18373,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>44485</v>
       </c>
@@ -18303,7 +18396,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>44486</v>
       </c>
@@ -18326,7 +18419,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>44487</v>
       </c>
@@ -18349,7 +18442,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>44488</v>
       </c>
@@ -18372,7 +18465,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>44489</v>
       </c>
@@ -18392,7 +18485,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>44490</v>
       </c>
@@ -18412,7 +18505,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>44491</v>
       </c>
@@ -18435,7 +18528,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>44492</v>
       </c>
@@ -18455,7 +18548,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>44493</v>
       </c>
@@ -18478,7 +18571,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>44494</v>
       </c>
@@ -18498,7 +18591,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>44495</v>
       </c>
@@ -18515,7 +18608,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>44496</v>
       </c>
@@ -18535,7 +18628,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>44497</v>
       </c>
@@ -18555,7 +18648,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>44498</v>
       </c>
@@ -18575,7 +18668,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>44499</v>
       </c>
@@ -18598,7 +18691,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>44500</v>
       </c>
@@ -18618,10 +18711,10 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>5</v>
       </c>
@@ -18637,7 +18730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>11</v>
       </c>
@@ -18653,7 +18746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>28</v>
       </c>
@@ -18669,7 +18762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>26</v>
       </c>
@@ -18678,24 +18771,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>1098</v>
       </c>
@@ -18704,103 +18797,103 @@
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="24"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="24"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
     </row>
   </sheetData>
@@ -18833,17 +18926,17 @@
       <selection activeCell="A43" sqref="A43:D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -18869,7 +18962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>44501</v>
       </c>
@@ -18889,7 +18982,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>44502</v>
       </c>
@@ -18912,7 +19005,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>44503</v>
       </c>
@@ -18935,7 +19028,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>44504</v>
       </c>
@@ -18958,7 +19051,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>44505</v>
       </c>
@@ -18981,7 +19074,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>44506</v>
       </c>
@@ -19001,7 +19094,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>44507</v>
       </c>
@@ -19021,7 +19114,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>44508</v>
       </c>
@@ -19041,7 +19134,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>44509</v>
       </c>
@@ -19061,7 +19154,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>44510</v>
       </c>
@@ -19081,7 +19174,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>44511</v>
       </c>
@@ -19101,7 +19194,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>44512</v>
       </c>
@@ -19121,7 +19214,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>44513</v>
       </c>
@@ -19141,7 +19234,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>44514</v>
       </c>
@@ -19161,7 +19254,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>44515</v>
       </c>
@@ -19181,7 +19274,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>44516</v>
       </c>
@@ -19201,7 +19294,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>44517</v>
       </c>
@@ -19221,7 +19314,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>44518</v>
       </c>
@@ -19241,7 +19334,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>44519</v>
       </c>
@@ -19261,7 +19354,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>44520</v>
       </c>
@@ -19281,7 +19374,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>44521</v>
       </c>
@@ -19301,7 +19394,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>44522</v>
       </c>
@@ -19327,7 +19420,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>44523</v>
       </c>
@@ -19347,7 +19440,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>44524</v>
       </c>
@@ -19367,7 +19460,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>44525</v>
       </c>
@@ -19390,7 +19483,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>44526</v>
       </c>
@@ -19410,7 +19503,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>44527</v>
       </c>
@@ -19433,7 +19526,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>44528</v>
       </c>
@@ -19453,7 +19546,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>44529</v>
       </c>
@@ -19473,7 +19566,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <v>44530</v>
       </c>
@@ -19493,13 +19586,13 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>5</v>
       </c>
@@ -19515,7 +19608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>11</v>
       </c>
@@ -19531,7 +19624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>28</v>
       </c>
@@ -19547,7 +19640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>26</v>
       </c>
@@ -19556,24 +19649,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>1236</v>
       </c>
@@ -19581,103 +19674,103 @@
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="25"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="25"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="25"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
     </row>
   </sheetData>
@@ -19710,17 +19803,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -19746,7 +19839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>44531</v>
       </c>
@@ -19763,7 +19856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>44532</v>
       </c>
@@ -19783,7 +19876,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>44533</v>
       </c>
@@ -19803,7 +19896,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>44534</v>
       </c>
@@ -19820,7 +19913,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>44535</v>
       </c>
@@ -19840,7 +19933,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>44536</v>
       </c>
@@ -19857,7 +19950,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>44537</v>
       </c>
@@ -19877,7 +19970,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>44538</v>
       </c>
@@ -19897,7 +19990,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>44539</v>
       </c>
@@ -19917,7 +20010,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>44540</v>
       </c>
@@ -19934,7 +20027,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>44541</v>
       </c>
@@ -19954,7 +20047,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>44542</v>
       </c>
@@ -19971,7 +20064,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>44543</v>
       </c>
@@ -19991,7 +20084,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>44544</v>
       </c>
@@ -20011,7 +20104,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>44545</v>
       </c>
@@ -20031,7 +20124,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>44546</v>
       </c>
@@ -20054,7 +20147,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>44547</v>
       </c>
@@ -20074,7 +20167,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>44548</v>
       </c>
@@ -20091,7 +20184,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>44549</v>
       </c>
@@ -20111,7 +20204,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>44550</v>
       </c>
@@ -20134,7 +20227,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>44551</v>
       </c>
@@ -20154,7 +20247,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>44552</v>
       </c>
@@ -20177,7 +20270,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>44553</v>
       </c>
@@ -20197,7 +20290,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>44554</v>
       </c>
@@ -20217,7 +20310,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>44555</v>
       </c>
@@ -20237,7 +20330,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>44556</v>
       </c>
@@ -20254,7 +20347,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>44557</v>
       </c>
@@ -20274,7 +20367,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>44558</v>
       </c>
@@ -20294,7 +20387,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>44559</v>
       </c>
@@ -20317,7 +20410,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>44560</v>
       </c>
@@ -20337,7 +20430,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <v>44561</v>
       </c>
@@ -20354,10 +20447,10 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>5</v>
       </c>
@@ -20373,7 +20466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>11</v>
       </c>
@@ -20389,7 +20482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>28</v>
       </c>
@@ -20405,7 +20498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>26</v>
       </c>
@@ -20414,111 +20507,111 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="26"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="26"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="26"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="26"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="26"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="26"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="26"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="26"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="26"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="26"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="26"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="26"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="26"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="26"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="26"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="26"/>
     </row>
   </sheetData>
@@ -20549,7 +20642,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20565,16 +20658,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -20588,7 +20681,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -20611,7 +20704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -20625,7 +20718,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1801</v>
       </c>
@@ -20642,7 +20735,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -20662,7 +20755,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1803</v>
       </c>
@@ -20679,7 +20772,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -20693,7 +20786,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -20705,28 +20798,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -20763,16 +20856,16 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -20786,7 +20879,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -20809,7 +20902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5713</v>
       </c>
@@ -20829,7 +20922,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5715</v>
       </c>
@@ -20846,7 +20939,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5714</v>
       </c>
@@ -20863,7 +20956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5716</v>
       </c>
@@ -20880,7 +20973,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -20894,7 +20987,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -20906,28 +20999,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -20964,16 +21057,16 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -20987,7 +21080,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -21010,7 +21103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>194</v>
       </c>
@@ -21027,7 +21120,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>195</v>
       </c>
@@ -21044,7 +21137,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -21061,7 +21154,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>197</v>
       </c>
@@ -21078,7 +21171,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>198</v>
       </c>
@@ -21095,7 +21188,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -21109,7 +21202,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -21121,28 +21214,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -21178,16 +21271,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -21201,7 +21294,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -21224,7 +21317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>902</v>
       </c>
@@ -21241,7 +21334,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>895</v>
       </c>
@@ -21258,7 +21351,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>898</v>
       </c>
@@ -21275,7 +21368,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>899</v>
       </c>
@@ -21289,7 +21382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>900</v>
       </c>
@@ -21300,7 +21393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -21314,7 +21407,7 @@
         <v>8176</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -21326,28 +21419,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -21384,16 +21477,16 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -21407,7 +21500,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -21430,7 +21523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5161</v>
       </c>
@@ -21447,7 +21540,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5814</v>
       </c>
@@ -21464,7 +21557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5815</v>
       </c>
@@ -21481,7 +21574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5816</v>
       </c>
@@ -21498,7 +21591,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -21512,7 +21605,7 @@
         <v>4314</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -21524,28 +21617,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -21582,16 +21675,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -21605,7 +21698,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -21628,7 +21721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5830</v>
       </c>
@@ -21642,7 +21735,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5831</v>
       </c>
@@ -21659,7 +21752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5187</v>
       </c>
@@ -21673,7 +21766,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5833</v>
       </c>
@@ -21684,7 +21777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -21698,7 +21791,7 @@
         <v>4646</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -21708,28 +21801,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -21766,17 +21859,17 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -21802,143 +21895,143 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44593</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>44594</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>44595</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>44596</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>44597</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>44598</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>44599</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>44600</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>44601</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>44602</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>44603</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>44604</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>44605</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>44606</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>44607</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>44608</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>44609</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>44610</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>44611</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>44612</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>44613</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>44614</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>44615</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>44616</v>
       </c>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>44617</v>
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>44618</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>44619</v>
       </c>
@@ -21946,25 +22039,25 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>44620</v>
       </c>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
@@ -21980,7 +22073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
@@ -21996,7 +22089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
@@ -22012,7 +22105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -22021,18 +22114,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>32</v>
       </c>
@@ -22041,105 +22134,105 @@
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
     </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="E42" s="30"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -22173,16 +22266,16 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -22196,7 +22289,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -22219,7 +22312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5193</v>
       </c>
@@ -22236,7 +22329,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5827</v>
       </c>
@@ -22253,7 +22346,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5828</v>
       </c>
@@ -22273,7 +22366,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5220</v>
       </c>
@@ -22293,7 +22386,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -22307,7 +22400,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -22319,28 +22412,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -22376,16 +22469,16 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -22399,7 +22492,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -22422,7 +22515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5838</v>
       </c>
@@ -22436,7 +22529,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5839</v>
       </c>
@@ -22456,7 +22549,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5840</v>
       </c>
@@ -22473,7 +22566,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5841</v>
       </c>
@@ -22490,7 +22583,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -22504,7 +22597,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -22516,28 +22609,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -22574,17 +22667,17 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -22610,103 +22703,103 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>5</v>
       </c>
@@ -22722,7 +22815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>11</v>
       </c>
@@ -22738,7 +22831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>28</v>
       </c>
@@ -22754,7 +22847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>26</v>
       </c>
@@ -22763,111 +22856,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
     </row>
   </sheetData>
@@ -22897,16 +22990,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -22918,7 +23011,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -22941,7 +23034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -22949,7 +23042,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -22959,28 +23052,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -23017,17 +23110,17 @@
       <selection activeCell="D34" sqref="D34:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -23053,7 +23146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>44256</v>
       </c>
@@ -23076,7 +23169,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44257</v>
       </c>
@@ -23099,7 +23192,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44258</v>
       </c>
@@ -23125,7 +23218,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44259</v>
       </c>
@@ -23148,7 +23241,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44260</v>
       </c>
@@ -23168,7 +23261,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44261</v>
       </c>
@@ -23188,7 +23281,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44262</v>
       </c>
@@ -23211,7 +23304,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44263</v>
       </c>
@@ -23231,7 +23324,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44264</v>
       </c>
@@ -23251,7 +23344,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44265</v>
       </c>
@@ -23271,7 +23364,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44266</v>
       </c>
@@ -23291,7 +23384,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44267</v>
       </c>
@@ -23311,7 +23404,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44268</v>
       </c>
@@ -23334,7 +23427,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44269</v>
       </c>
@@ -23357,7 +23450,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44270</v>
       </c>
@@ -23374,7 +23467,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44271</v>
       </c>
@@ -23391,7 +23484,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44272</v>
       </c>
@@ -23411,7 +23504,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44273</v>
       </c>
@@ -23431,7 +23524,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44274</v>
       </c>
@@ -23448,7 +23541,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44275</v>
       </c>
@@ -23468,7 +23561,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44276</v>
       </c>
@@ -23485,7 +23578,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44277</v>
       </c>
@@ -23505,7 +23598,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44278</v>
       </c>
@@ -23525,7 +23618,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44279</v>
       </c>
@@ -23545,7 +23638,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44280</v>
       </c>
@@ -23565,7 +23658,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44281</v>
       </c>
@@ -23585,7 +23678,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44282</v>
       </c>
@@ -23605,7 +23698,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44283</v>
       </c>
@@ -23625,7 +23718,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>44284</v>
       </c>
@@ -23648,7 +23741,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>44285</v>
       </c>
@@ -23671,7 +23764,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>44286</v>
       </c>
@@ -23691,10 +23784,10 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
@@ -23710,7 +23803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>11</v>
       </c>
@@ -23726,7 +23819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>28</v>
       </c>
@@ -23742,7 +23835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>26</v>
       </c>
@@ -23751,113 +23844,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
     </row>
   </sheetData>
@@ -23888,18 +23981,18 @@
       <selection activeCell="D34" sqref="D34:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -23925,7 +24018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>44287</v>
       </c>
@@ -23945,7 +24038,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>44288</v>
       </c>
@@ -23965,7 +24058,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>44289</v>
       </c>
@@ -23985,7 +24078,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>44290</v>
       </c>
@@ -24005,7 +24098,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>44291</v>
       </c>
@@ -24025,7 +24118,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>44292</v>
       </c>
@@ -24045,7 +24138,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>44293</v>
       </c>
@@ -24068,7 +24161,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>44294</v>
       </c>
@@ -24088,7 +24181,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>44295</v>
       </c>
@@ -24108,7 +24201,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>44296</v>
       </c>
@@ -24125,7 +24218,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>44297</v>
       </c>
@@ -24148,7 +24241,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>44298</v>
       </c>
@@ -24171,7 +24264,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>44299</v>
       </c>
@@ -24191,7 +24284,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>44300</v>
       </c>
@@ -24211,7 +24304,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>44301</v>
       </c>
@@ -24231,7 +24324,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>44302</v>
       </c>
@@ -24254,7 +24347,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>44303</v>
       </c>
@@ -24280,7 +24373,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>44304</v>
       </c>
@@ -24300,7 +24393,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>44305</v>
       </c>
@@ -24323,7 +24416,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>44306</v>
       </c>
@@ -24346,7 +24439,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>44307</v>
       </c>
@@ -24369,7 +24462,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>44308</v>
       </c>
@@ -24395,7 +24488,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>44309</v>
       </c>
@@ -24415,7 +24508,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>44310</v>
       </c>
@@ -24435,7 +24528,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>44311</v>
       </c>
@@ -24455,7 +24548,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>44312</v>
       </c>
@@ -24475,7 +24568,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>44313</v>
       </c>
@@ -24495,7 +24588,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>44314</v>
       </c>
@@ -24518,7 +24611,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>44315</v>
       </c>
@@ -24538,7 +24631,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>44316</v>
       </c>
@@ -24561,13 +24654,13 @@
         <v>317</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>5</v>
       </c>
@@ -24583,7 +24676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>11</v>
       </c>
@@ -24599,7 +24692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>28</v>
       </c>
@@ -24615,7 +24708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>26</v>
       </c>
@@ -24624,113 +24717,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
     </row>
   </sheetData>
@@ -24761,17 +24854,17 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -24797,7 +24890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>44317</v>
       </c>
@@ -24817,7 +24910,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>44318</v>
       </c>
@@ -24837,7 +24930,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>44319</v>
       </c>
@@ -24857,7 +24950,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44320</v>
       </c>
@@ -24880,7 +24973,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44321</v>
       </c>
@@ -24900,7 +24993,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44322</v>
       </c>
@@ -24920,7 +25013,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>44323</v>
       </c>
@@ -24943,7 +25036,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>44324</v>
       </c>
@@ -24963,7 +25056,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44325</v>
       </c>
@@ -24983,7 +25076,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>44326</v>
       </c>
@@ -25003,7 +25096,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>44327</v>
       </c>
@@ -25026,7 +25119,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44328</v>
       </c>
@@ -25046,7 +25139,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>44329</v>
       </c>
@@ -25066,7 +25159,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44330</v>
       </c>
@@ -25086,7 +25179,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>44331</v>
       </c>
@@ -25103,7 +25196,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>44332</v>
       </c>
@@ -25129,7 +25222,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>44333</v>
       </c>
@@ -25149,7 +25242,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>44334</v>
       </c>
@@ -25172,7 +25265,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>44335</v>
       </c>
@@ -25195,7 +25288,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>44336</v>
       </c>
@@ -25218,7 +25311,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>44337</v>
       </c>
@@ -25238,7 +25331,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>44338</v>
       </c>
@@ -25258,7 +25351,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>44339</v>
       </c>
@@ -25278,7 +25371,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>44340</v>
       </c>
@@ -25298,7 +25391,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>44341</v>
       </c>
@@ -25318,7 +25411,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>44342</v>
       </c>
@@ -25341,7 +25434,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>44343</v>
       </c>
@@ -25361,7 +25454,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>44344</v>
       </c>
@@ -25378,7 +25471,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>44345</v>
       </c>
@@ -25398,7 +25491,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>44346</v>
       </c>
@@ -25421,7 +25514,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>44347</v>
       </c>
@@ -25444,10 +25537,10 @@
         <v>441</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>5</v>
       </c>
@@ -25463,7 +25556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>11</v>
       </c>
@@ -25479,7 +25572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>28</v>
       </c>
@@ -25495,7 +25588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>26</v>
       </c>
@@ -25504,21 +25597,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>397</v>
       </c>
@@ -25527,99 +25620,99 @@
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
     </row>
   </sheetData>
@@ -25653,18 +25746,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -25690,7 +25783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44348</v>
       </c>
@@ -25710,7 +25803,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>44349</v>
       </c>
@@ -25733,7 +25826,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>44350</v>
       </c>
@@ -25753,7 +25846,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>44351</v>
       </c>
@@ -25773,7 +25866,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>44352</v>
       </c>
@@ -25796,7 +25889,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>44353</v>
       </c>
@@ -25816,7 +25909,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>44354</v>
       </c>
@@ -25839,7 +25932,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>44355</v>
       </c>
@@ -25859,7 +25952,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>44356</v>
       </c>
@@ -25879,7 +25972,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>44357</v>
       </c>
@@ -25902,7 +25995,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>44358</v>
       </c>
@@ -25925,7 +26018,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>44359</v>
       </c>
@@ -25945,7 +26038,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>44360</v>
       </c>
@@ -25965,7 +26058,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>44361</v>
       </c>
@@ -25988,7 +26081,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>44362</v>
       </c>
@@ -26008,7 +26101,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>44363</v>
       </c>
@@ -26031,7 +26124,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>44364</v>
       </c>
@@ -26054,7 +26147,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>44365</v>
       </c>
@@ -26074,7 +26167,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>44366</v>
       </c>
@@ -26097,7 +26190,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>44367</v>
       </c>
@@ -26117,7 +26210,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>44368</v>
       </c>
@@ -26140,7 +26233,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>44369</v>
       </c>
@@ -26160,7 +26253,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>44370</v>
       </c>
@@ -26183,7 +26276,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>44371</v>
       </c>
@@ -26206,7 +26299,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>44372</v>
       </c>
@@ -26229,7 +26322,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>44373</v>
       </c>
@@ -26252,7 +26345,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>44374</v>
       </c>
@@ -26272,7 +26365,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>44375</v>
       </c>
@@ -26292,7 +26385,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>44376</v>
       </c>
@@ -26312,7 +26405,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>44377</v>
       </c>
@@ -26335,13 +26428,13 @@
         <v>576</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
@@ -26357,7 +26450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
@@ -26373,7 +26466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
@@ -26389,7 +26482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -26398,27 +26491,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
         <v>575</v>
       </c>
@@ -26427,96 +26520,96 @@
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -26550,18 +26643,18 @@
       <selection activeCell="D34" sqref="D34:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -26587,7 +26680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>44378</v>
       </c>
@@ -26610,7 +26703,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>44379</v>
       </c>
@@ -26630,7 +26723,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>44380</v>
       </c>
@@ -26650,7 +26743,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>44381</v>
       </c>
@@ -26670,7 +26763,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>44382</v>
       </c>
@@ -26690,7 +26783,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>44383</v>
       </c>
@@ -26710,7 +26803,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>44384</v>
       </c>
@@ -26730,7 +26823,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>44385</v>
       </c>
@@ -26750,7 +26843,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>44386</v>
       </c>
@@ -26770,7 +26863,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>44387</v>
       </c>
@@ -26793,7 +26886,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>44388</v>
       </c>
@@ -26813,7 +26906,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>44389</v>
       </c>
@@ -26833,7 +26926,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>44390</v>
       </c>
@@ -26856,7 +26949,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>44391</v>
       </c>
@@ -26879,7 +26972,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>44392</v>
       </c>
@@ -26899,7 +26992,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>44393</v>
       </c>
@@ -26922,7 +27015,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>44394</v>
       </c>
@@ -26942,7 +27035,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>44395</v>
       </c>
@@ -26962,7 +27055,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>44396</v>
       </c>
@@ -26982,7 +27075,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>44397</v>
       </c>
@@ -27002,7 +27095,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>44398</v>
       </c>
@@ -27022,7 +27115,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>44399</v>
       </c>
@@ -27042,7 +27135,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>44400</v>
       </c>
@@ -27062,7 +27155,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>44401</v>
       </c>
@@ -27082,7 +27175,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>44402</v>
       </c>
@@ -27102,7 +27195,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>44403</v>
       </c>
@@ -27122,7 +27215,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>44404</v>
       </c>
@@ -27139,7 +27232,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>44405</v>
       </c>
@@ -27159,7 +27252,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>44406</v>
       </c>
@@ -27179,7 +27272,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>44407</v>
       </c>
@@ -27196,7 +27289,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>44408</v>
       </c>
@@ -27216,10 +27309,10 @@
         <v>699</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>5</v>
       </c>
@@ -27235,7 +27328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>11</v>
       </c>
@@ -27251,7 +27344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>28</v>
       </c>
@@ -27267,7 +27360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>26</v>
       </c>
@@ -27276,24 +27369,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>726</v>
       </c>
@@ -27302,107 +27395,107 @@
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
       <c r="E47" s="28"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
     </row>
   </sheetData>
@@ -27436,17 +27529,17 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -27472,7 +27565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>44409</v>
       </c>
@@ -27492,7 +27585,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>44410</v>
       </c>
@@ -27515,7 +27608,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>44411</v>
       </c>
@@ -27538,7 +27631,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>44412</v>
       </c>
@@ -27558,7 +27651,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>44413</v>
       </c>
@@ -27581,7 +27674,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>44414</v>
       </c>
@@ -27601,7 +27694,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>44415</v>
       </c>
@@ -27624,7 +27717,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>44416</v>
       </c>
@@ -27647,7 +27740,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>44417</v>
       </c>
@@ -27667,7 +27760,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>44418</v>
       </c>
@@ -27687,7 +27780,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>44419</v>
       </c>
@@ -27707,7 +27800,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>44420</v>
       </c>
@@ -27727,7 +27820,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>44421</v>
       </c>
@@ -27747,7 +27840,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>44422</v>
       </c>
@@ -27767,7 +27860,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>44423</v>
       </c>
@@ -27787,7 +27880,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>44424</v>
       </c>
@@ -27810,7 +27903,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>44425</v>
       </c>
@@ -27827,7 +27920,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>44426</v>
       </c>
@@ -27847,7 +27940,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>44427</v>
       </c>
@@ -27867,7 +27960,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>44428</v>
       </c>
@@ -27887,7 +27980,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>44429</v>
       </c>
@@ -27910,7 +28003,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>44430</v>
       </c>
@@ -27930,7 +28023,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>44431</v>
       </c>
@@ -27950,7 +28043,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>44432</v>
       </c>
@@ -27970,7 +28063,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>44433</v>
       </c>
@@ -27990,7 +28083,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>44434</v>
       </c>
@@ -28010,7 +28103,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>44435</v>
       </c>
@@ -28030,7 +28123,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>44436</v>
       </c>
@@ -28053,7 +28146,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>44437</v>
       </c>
@@ -28073,7 +28166,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>44438</v>
       </c>
@@ -28096,7 +28189,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>44439</v>
       </c>
@@ -28119,10 +28212,10 @@
         <v>852</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>5</v>
       </c>
@@ -28138,7 +28231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>11</v>
       </c>
@@ -28154,7 +28247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>28</v>
       </c>
@@ -28170,7 +28263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>26</v>
       </c>
@@ -28179,24 +28272,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>765</v>
       </c>
@@ -28205,103 +28298,103 @@
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="18"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="18"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="18"/>
     </row>
   </sheetData>
@@ -28334,18 +28427,18 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -28371,7 +28464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>44440</v>
       </c>
@@ -28391,7 +28484,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>44441</v>
       </c>
@@ -28411,7 +28504,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>44442</v>
       </c>
@@ -28431,7 +28524,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>44443</v>
       </c>
@@ -28451,7 +28544,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>44444</v>
       </c>
@@ -28474,7 +28567,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>44445</v>
       </c>
@@ -28494,7 +28587,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>44446</v>
       </c>
@@ -28514,7 +28607,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>44447</v>
       </c>
@@ -28534,7 +28627,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>44448</v>
       </c>
@@ -28554,7 +28647,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44449</v>
       </c>
@@ -28574,7 +28667,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>44450</v>
       </c>
@@ -28594,7 +28687,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>44451</v>
       </c>
@@ -28617,7 +28710,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>44452</v>
       </c>
@@ -28637,7 +28730,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>44453</v>
       </c>
@@ -28660,7 +28753,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>44454</v>
       </c>
@@ -28680,7 +28773,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>44455</v>
       </c>
@@ -28703,7 +28796,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>44456</v>
       </c>
@@ -28723,7 +28816,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>44457</v>
       </c>
@@ -28743,7 +28836,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>44458</v>
       </c>
@@ -28763,7 +28856,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>44459</v>
       </c>
@@ -28783,7 +28876,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>44460</v>
       </c>
@@ -28800,7 +28893,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>44461</v>
       </c>
@@ -28820,7 +28913,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>44462</v>
       </c>
@@ -28837,7 +28930,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>44463</v>
       </c>
@@ -28857,7 +28950,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>44464</v>
       </c>
@@ -28880,7 +28973,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>44465</v>
       </c>
@@ -28900,7 +28993,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>44466</v>
       </c>
@@ -28920,7 +29013,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>44467</v>
       </c>
@@ -28940,7 +29033,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>44468</v>
       </c>
@@ -28960,7 +29053,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>44469</v>
       </c>
@@ -28980,13 +29073,13 @@
         <v>984</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>5</v>
       </c>
@@ -29002,7 +29095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>11</v>
       </c>
@@ -29018,7 +29111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>28</v>
       </c>
@@ -29034,7 +29127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>26</v>
       </c>
@@ -29043,24 +29136,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>985</v>
       </c>
@@ -29069,103 +29162,103 @@
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="22"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="22"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="22"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="22"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="22"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="22"/>
     </row>
   </sheetData>

--- a/22年力扣每日一题做题情况.xlsx
+++ b/22年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20382"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5F56E7-0026-49FD-A5B2-B1CB5FC7B0B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1819A85-62FD-49B0-A891-E4624ADFF93C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="1397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="1409">
   <si>
     <t>贪心</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5618,6 +5618,54 @@
   </si>
   <si>
     <t>数学+优先级队列 /二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小时间差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计元音字母序列的数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划（+矩阵快速幂）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序（+鸽巢原理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表随机节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水塘抽样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算力扣银行的钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5959,7 +6007,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -17400,7 +17448,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -17718,83 +17766,146 @@
       <c r="A16" s="27">
         <v>44576</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1716</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>44577</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>382</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>44578</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1220</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>44579</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>539</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>44580</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>44581</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>44582</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>44583</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>44584</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>44585</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>44586</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>44587</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>44588</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>44589</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>44590</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>44591</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>44592</v>
       </c>
@@ -17808,14 +17919,14 @@
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -17831,7 +17942,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -17847,7 +17958,7 @@
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">

--- a/22年力扣每日一题做题情况.xlsx
+++ b/22年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20382"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1819A85-62FD-49B0-A891-E4624ADFF93C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A967AE39-5B45-49F8-9CD2-87C3DE9B99CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="1409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="1421">
   <si>
     <t>贪心</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5666,6 +5666,54 @@
   </si>
   <si>
     <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在重复元素II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口/哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石子游戏IX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博弈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跃游戏IV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看思路写出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6007,13 +6055,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -17449,7 +17497,7 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -17849,16 +17897,61 @@
       <c r="A20" s="27">
         <v>44580</v>
       </c>
+      <c r="B20">
+        <v>219</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1412</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>44581</v>
       </c>
+      <c r="B21">
+        <v>2029</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1416</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>44582</v>
       </c>
+      <c r="B22">
+        <v>1345</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1420</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
@@ -17919,14 +18012,14 @@
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -17935,14 +18028,14 @@
       </c>
       <c r="B35">
         <f>COUNTIF(E2:E32,"看思路写出")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -17951,14 +18044,14 @@
       </c>
       <c r="B36">
         <f>COUNTIF(E2:E32,"CV后看懂")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">

--- a/22年力扣每日一题做题情况.xlsx
+++ b/22年力扣每日一题做题情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20382"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A967AE39-5B45-49F8-9CD2-87C3DE9B99CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD35AF0-3B5E-40B2-82DA-D97B2CD3167B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="22年1月" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="1421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="1424">
   <si>
     <t>贪心</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5714,6 +5714,18 @@
   </si>
   <si>
     <t>bfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除回文子序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后看懂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6061,7 +6073,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -17497,20 +17509,20 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -17536,7 +17548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
@@ -17553,7 +17565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="27">
         <v>44563</v>
       </c>
@@ -17573,7 +17585,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="27">
         <v>44564</v>
       </c>
@@ -17593,7 +17605,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="27">
         <v>44565</v>
       </c>
@@ -17613,7 +17625,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="27">
         <v>44566</v>
       </c>
@@ -17630,7 +17642,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="27">
         <v>44567</v>
       </c>
@@ -17650,7 +17662,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="27">
         <v>44568</v>
       </c>
@@ -17670,7 +17682,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="27">
         <v>44569</v>
       </c>
@@ -17693,7 +17705,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="27">
         <v>44570</v>
       </c>
@@ -17710,7 +17722,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="27">
         <v>44571</v>
       </c>
@@ -17730,7 +17742,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="27">
         <v>44572</v>
       </c>
@@ -17750,7 +17762,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="27">
         <v>44573</v>
       </c>
@@ -17773,7 +17785,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="27">
         <v>44574</v>
       </c>
@@ -17790,7 +17802,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="27">
         <v>44575</v>
       </c>
@@ -17810,7 +17822,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="27">
         <v>44576</v>
       </c>
@@ -17830,7 +17842,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="27">
         <v>44577</v>
       </c>
@@ -17853,7 +17865,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="27">
         <v>44578</v>
       </c>
@@ -17873,7 +17885,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="27">
         <v>44579</v>
       </c>
@@ -17893,7 +17905,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="27">
         <v>44580</v>
       </c>
@@ -17913,7 +17925,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="27">
         <v>44581</v>
       </c>
@@ -17933,7 +17945,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="27">
         <v>44582</v>
       </c>
@@ -17953,60 +17965,72 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="27">
         <v>44583</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1332</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="27">
         <v>44584</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="27">
         <v>44585</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="27">
         <v>44586</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="27">
         <v>44587</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="27">
         <v>44588</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="27">
         <v>44589</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="27">
         <v>44590</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="27">
         <v>44591</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="27">
         <v>44592</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -18019,10 +18043,10 @@
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -18038,13 +18062,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B36">
         <f>COUNTIF(E2:E32,"CV后看懂")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -18054,7 +18078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
@@ -18063,18 +18087,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="28" t="s">
         <v>1368</v>
       </c>
@@ -18083,127 +18107,127 @@
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="29"/>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="29"/>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="29"/>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
       <c r="E49" s="29"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -18237,18 +18261,18 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -18274,7 +18298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="24">
         <v>44470</v>
       </c>
@@ -18294,7 +18318,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
         <v>44471</v>
       </c>
@@ -18314,7 +18338,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>44472</v>
       </c>
@@ -18337,7 +18361,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
         <v>44473</v>
       </c>
@@ -18357,7 +18381,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
         <v>44474</v>
       </c>
@@ -18374,7 +18398,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
         <v>44475</v>
       </c>
@@ -18391,7 +18415,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>44476</v>
       </c>
@@ -18408,7 +18432,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
         <v>44477</v>
       </c>
@@ -18431,7 +18455,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>44478</v>
       </c>
@@ -18454,7 +18478,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="24">
         <v>44479</v>
       </c>
@@ -18474,7 +18498,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
         <v>44480</v>
       </c>
@@ -18494,7 +18518,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
         <v>44481</v>
       </c>
@@ -18517,7 +18541,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="24">
         <v>44482</v>
       </c>
@@ -18537,7 +18561,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="24">
         <v>44483</v>
       </c>
@@ -18557,7 +18581,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="24">
         <v>44484</v>
       </c>
@@ -18577,7 +18601,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="24">
         <v>44485</v>
       </c>
@@ -18600,7 +18624,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="24">
         <v>44486</v>
       </c>
@@ -18623,7 +18647,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="24">
         <v>44487</v>
       </c>
@@ -18646,7 +18670,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="24">
         <v>44488</v>
       </c>
@@ -18669,7 +18693,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="24">
         <v>44489</v>
       </c>
@@ -18689,7 +18713,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="24">
         <v>44490</v>
       </c>
@@ -18709,7 +18733,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="24">
         <v>44491</v>
       </c>
@@ -18732,7 +18756,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="24">
         <v>44492</v>
       </c>
@@ -18752,7 +18776,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="24">
         <v>44493</v>
       </c>
@@ -18775,7 +18799,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="24">
         <v>44494</v>
       </c>
@@ -18795,7 +18819,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="24">
         <v>44495</v>
       </c>
@@ -18812,7 +18836,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="24">
         <v>44496</v>
       </c>
@@ -18832,7 +18856,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="24">
         <v>44497</v>
       </c>
@@ -18852,7 +18876,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="24">
         <v>44498</v>
       </c>
@@ -18872,7 +18896,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="24">
         <v>44499</v>
       </c>
@@ -18895,7 +18919,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="24">
         <v>44500</v>
       </c>
@@ -18915,10 +18939,10 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="24"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="24" t="s">
         <v>5</v>
       </c>
@@ -18934,7 +18958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
         <v>11</v>
       </c>
@@ -18950,7 +18974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="24" t="s">
         <v>28</v>
       </c>
@@ -18966,7 +18990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="24" t="s">
         <v>26</v>
       </c>
@@ -18975,24 +18999,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="24"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="24"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="24"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="24"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="28" t="s">
         <v>1098</v>
       </c>
@@ -19001,103 +19025,103 @@
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="24"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="24"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="24"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="24"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="24"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="24"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="24"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="24"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="24"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="24"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="24"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="24"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="24"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="24"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="24"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="24"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="24"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="24"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="24"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="24"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="24"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="24"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="24"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="24"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="24"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="24"/>
     </row>
   </sheetData>
@@ -19130,17 +19154,17 @@
       <selection activeCell="A43" sqref="A43:D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -19166,7 +19190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="25">
         <v>44501</v>
       </c>
@@ -19186,7 +19210,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="25">
         <v>44502</v>
       </c>
@@ -19209,7 +19233,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="25">
         <v>44503</v>
       </c>
@@ -19232,7 +19256,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="25">
         <v>44504</v>
       </c>
@@ -19255,7 +19279,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="25">
         <v>44505</v>
       </c>
@@ -19278,7 +19302,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="25">
         <v>44506</v>
       </c>
@@ -19298,7 +19322,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="25">
         <v>44507</v>
       </c>
@@ -19318,7 +19342,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="25">
         <v>44508</v>
       </c>
@@ -19338,7 +19362,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="25">
         <v>44509</v>
       </c>
@@ -19358,7 +19382,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="25">
         <v>44510</v>
       </c>
@@ -19378,7 +19402,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="25">
         <v>44511</v>
       </c>
@@ -19398,7 +19422,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="25">
         <v>44512</v>
       </c>
@@ -19418,7 +19442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="25">
         <v>44513</v>
       </c>
@@ -19438,7 +19462,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="25">
         <v>44514</v>
       </c>
@@ -19458,7 +19482,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="25">
         <v>44515</v>
       </c>
@@ -19478,7 +19502,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="25">
         <v>44516</v>
       </c>
@@ -19498,7 +19522,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="25">
         <v>44517</v>
       </c>
@@ -19518,7 +19542,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="25">
         <v>44518</v>
       </c>
@@ -19538,7 +19562,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="25">
         <v>44519</v>
       </c>
@@ -19558,7 +19582,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="25">
         <v>44520</v>
       </c>
@@ -19578,7 +19602,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="25">
         <v>44521</v>
       </c>
@@ -19598,7 +19622,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="25">
         <v>44522</v>
       </c>
@@ -19624,7 +19648,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="25">
         <v>44523</v>
       </c>
@@ -19644,7 +19668,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="25">
         <v>44524</v>
       </c>
@@ -19664,7 +19688,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="25">
         <v>44525</v>
       </c>
@@ -19687,7 +19711,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="25">
         <v>44526</v>
       </c>
@@ -19707,7 +19731,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="25">
         <v>44527</v>
       </c>
@@ -19730,7 +19754,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="25">
         <v>44528</v>
       </c>
@@ -19750,7 +19774,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="25">
         <v>44529</v>
       </c>
@@ -19770,7 +19794,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="25">
         <v>44530</v>
       </c>
@@ -19790,13 +19814,13 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="25"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="25"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="25" t="s">
         <v>5</v>
       </c>
@@ -19812,7 +19836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="25" t="s">
         <v>11</v>
       </c>
@@ -19828,7 +19852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="25" t="s">
         <v>28</v>
       </c>
@@ -19844,7 +19868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="25" t="s">
         <v>26</v>
       </c>
@@ -19853,24 +19877,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="25"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="25"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="25"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="25"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="28" t="s">
         <v>1236</v>
       </c>
@@ -19878,103 +19902,103 @@
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="28"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="25"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="25"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="25"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="25"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="25"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="25"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="25"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="25"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="25"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="25"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="25"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="25"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="25"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="25"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="25"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="25"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="25"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="25"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="25"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="25"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="25"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="25"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="25"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="25"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="25"/>
     </row>
   </sheetData>
@@ -20007,17 +20031,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -20043,7 +20067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="26">
         <v>44531</v>
       </c>
@@ -20060,7 +20084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="26">
         <v>44532</v>
       </c>
@@ -20080,7 +20104,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="26">
         <v>44533</v>
       </c>
@@ -20100,7 +20124,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="26">
         <v>44534</v>
       </c>
@@ -20117,7 +20141,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="26">
         <v>44535</v>
       </c>
@@ -20137,7 +20161,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="26">
         <v>44536</v>
       </c>
@@ -20154,7 +20178,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="26">
         <v>44537</v>
       </c>
@@ -20174,7 +20198,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="26">
         <v>44538</v>
       </c>
@@ -20194,7 +20218,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="26">
         <v>44539</v>
       </c>
@@ -20214,7 +20238,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="26">
         <v>44540</v>
       </c>
@@ -20231,7 +20255,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="26">
         <v>44541</v>
       </c>
@@ -20251,7 +20275,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="26">
         <v>44542</v>
       </c>
@@ -20268,7 +20292,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="26">
         <v>44543</v>
       </c>
@@ -20288,7 +20312,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="26">
         <v>44544</v>
       </c>
@@ -20308,7 +20332,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="26">
         <v>44545</v>
       </c>
@@ -20328,7 +20352,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="26">
         <v>44546</v>
       </c>
@@ -20351,7 +20375,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="26">
         <v>44547</v>
       </c>
@@ -20371,7 +20395,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="26">
         <v>44548</v>
       </c>
@@ -20388,7 +20412,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="26">
         <v>44549</v>
       </c>
@@ -20408,7 +20432,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="26">
         <v>44550</v>
       </c>
@@ -20431,7 +20455,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="26">
         <v>44551</v>
       </c>
@@ -20451,7 +20475,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="26">
         <v>44552</v>
       </c>
@@ -20474,7 +20498,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="26">
         <v>44553</v>
       </c>
@@ -20494,7 +20518,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="26">
         <v>44554</v>
       </c>
@@ -20514,7 +20538,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="26">
         <v>44555</v>
       </c>
@@ -20534,7 +20558,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="26">
         <v>44556</v>
       </c>
@@ -20551,7 +20575,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="26">
         <v>44557</v>
       </c>
@@ -20571,7 +20595,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="26">
         <v>44558</v>
       </c>
@@ -20591,7 +20615,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="26">
         <v>44559</v>
       </c>
@@ -20614,7 +20638,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="26">
         <v>44560</v>
       </c>
@@ -20634,7 +20658,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="26">
         <v>44561</v>
       </c>
@@ -20651,10 +20675,10 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="26"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="26" t="s">
         <v>5</v>
       </c>
@@ -20670,7 +20694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="26" t="s">
         <v>11</v>
       </c>
@@ -20686,7 +20710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="26" t="s">
         <v>28</v>
       </c>
@@ -20702,7 +20726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="26" t="s">
         <v>26</v>
       </c>
@@ -20711,111 +20735,111 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="26"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="26"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="26"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="26"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="26"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="26"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="26"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="26"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="26"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="26"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="26"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="26"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="26"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="26"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="26"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="26"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="26"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="26"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="26"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="26"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="26"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="26"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="26"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="26"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="26"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="26"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="26"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="26"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="26"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="26"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="26"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="26"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="26"/>
     </row>
   </sheetData>
@@ -20846,7 +20870,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20862,16 +20886,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -20885,7 +20909,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -20908,7 +20932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -20922,7 +20946,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1801</v>
       </c>
@@ -20939,7 +20963,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -20959,7 +20983,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1803</v>
       </c>
@@ -20976,7 +21000,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -20990,7 +21014,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -21002,28 +21026,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -21060,16 +21084,16 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -21083,7 +21107,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -21106,7 +21130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5713</v>
       </c>
@@ -21126,7 +21150,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5715</v>
       </c>
@@ -21143,7 +21167,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5714</v>
       </c>
@@ -21160,7 +21184,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5716</v>
       </c>
@@ -21177,7 +21201,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -21191,7 +21215,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -21203,28 +21227,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -21261,16 +21285,16 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -21284,7 +21308,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -21307,7 +21331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>194</v>
       </c>
@@ -21324,7 +21348,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>195</v>
       </c>
@@ -21341,7 +21365,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -21358,7 +21382,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>197</v>
       </c>
@@ -21375,7 +21399,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>198</v>
       </c>
@@ -21392,7 +21416,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -21406,7 +21430,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -21418,28 +21442,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -21475,16 +21499,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -21498,7 +21522,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -21521,7 +21545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>902</v>
       </c>
@@ -21538,7 +21562,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>895</v>
       </c>
@@ -21555,7 +21579,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>898</v>
       </c>
@@ -21572,7 +21596,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>899</v>
       </c>
@@ -21586,7 +21610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>900</v>
       </c>
@@ -21597,7 +21621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -21611,7 +21635,7 @@
         <v>8176</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -21623,28 +21647,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -21681,16 +21705,16 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -21704,7 +21728,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -21727,7 +21751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5161</v>
       </c>
@@ -21744,7 +21768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5814</v>
       </c>
@@ -21761,7 +21785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5815</v>
       </c>
@@ -21778,7 +21802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5816</v>
       </c>
@@ -21795,7 +21819,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -21809,7 +21833,7 @@
         <v>4314</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -21821,28 +21845,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -21879,16 +21903,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -21902,7 +21926,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -21925,7 +21949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5830</v>
       </c>
@@ -21939,7 +21963,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5831</v>
       </c>
@@ -21956,7 +21980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5187</v>
       </c>
@@ -21970,7 +21994,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5833</v>
       </c>
@@ -21981,7 +22005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -21995,7 +22019,7 @@
         <v>4646</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -22005,28 +22029,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -22063,17 +22087,17 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -22099,143 +22123,143 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44593</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="27">
         <v>44594</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="27">
         <v>44595</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="27">
         <v>44596</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="27">
         <v>44597</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="27">
         <v>44598</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="27">
         <v>44599</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="27">
         <v>44600</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="27">
         <v>44601</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="27">
         <v>44602</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="27">
         <v>44603</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="27">
         <v>44604</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="27">
         <v>44605</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="27">
         <v>44606</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="27">
         <v>44607</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="27">
         <v>44608</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="27">
         <v>44609</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="27">
         <v>44610</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="27">
         <v>44611</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="27">
         <v>44612</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="27">
         <v>44613</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="27">
         <v>44614</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="27">
         <v>44615</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="27">
         <v>44616</v>
       </c>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="27">
         <v>44617</v>
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="27">
         <v>44618</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="27">
         <v>44619</v>
       </c>
@@ -22243,25 +22267,25 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="27">
         <v>44620</v>
       </c>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
@@ -22277,7 +22301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
@@ -22293,7 +22317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
@@ -22309,7 +22333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -22318,18 +22342,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="30" t="s">
         <v>32</v>
       </c>
@@ -22338,105 +22362,105 @@
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
     </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="E42" s="30"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -22470,16 +22494,16 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -22493,7 +22517,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -22516,7 +22540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5193</v>
       </c>
@@ -22533,7 +22557,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5827</v>
       </c>
@@ -22550,7 +22574,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5828</v>
       </c>
@@ -22570,7 +22594,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5220</v>
       </c>
@@ -22590,7 +22614,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -22604,7 +22628,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -22616,28 +22640,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -22673,16 +22697,16 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="42.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -22696,7 +22720,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -22719,7 +22743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5838</v>
       </c>
@@ -22733,7 +22757,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5839</v>
       </c>
@@ -22753,7 +22777,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5840</v>
       </c>
@@ -22770,7 +22794,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5841</v>
       </c>
@@ -22787,7 +22811,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -22801,7 +22825,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -22813,28 +22837,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -22871,17 +22895,17 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -22907,103 +22931,103 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="14"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="14"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="14" t="s">
         <v>5</v>
       </c>
@@ -23019,7 +23043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="14" t="s">
         <v>11</v>
       </c>
@@ -23035,7 +23059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="14" t="s">
         <v>28</v>
       </c>
@@ -23051,7 +23075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="14" t="s">
         <v>26</v>
       </c>
@@ -23060,111 +23084,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="14"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="14"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="14"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="14"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="14"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="14"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="14"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="14"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="14"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="14"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="14"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="14"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="14"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="14"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="14"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="14"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="14"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="14"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="14"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="14"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="14"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="14"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="14"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="14"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="14"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="14"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="14"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="14"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="14"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="14"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="14"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="14"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="14"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="14"/>
     </row>
   </sheetData>
@@ -23194,16 +23218,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -23215,7 +23239,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -23238,7 +23262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -23246,7 +23270,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -23256,28 +23280,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -23314,17 +23338,17 @@
       <selection activeCell="D34" sqref="D34:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -23350,7 +23374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>44256</v>
       </c>
@@ -23373,7 +23397,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>44257</v>
       </c>
@@ -23396,7 +23420,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>44258</v>
       </c>
@@ -23422,7 +23446,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>44259</v>
       </c>
@@ -23445,7 +23469,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>44260</v>
       </c>
@@ -23465,7 +23489,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>44261</v>
       </c>
@@ -23485,7 +23509,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>44262</v>
       </c>
@@ -23508,7 +23532,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>44263</v>
       </c>
@@ -23528,7 +23552,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>44264</v>
       </c>
@@ -23548,7 +23572,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>44265</v>
       </c>
@@ -23568,7 +23592,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>44266</v>
       </c>
@@ -23588,7 +23612,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>44267</v>
       </c>
@@ -23608,7 +23632,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>44268</v>
       </c>
@@ -23631,7 +23655,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>44269</v>
       </c>
@@ -23654,7 +23678,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>44270</v>
       </c>
@@ -23671,7 +23695,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>44271</v>
       </c>
@@ -23688,7 +23712,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>44272</v>
       </c>
@@ -23708,7 +23732,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>44273</v>
       </c>
@@ -23728,7 +23752,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>44274</v>
       </c>
@@ -23745,7 +23769,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>44275</v>
       </c>
@@ -23765,7 +23789,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>44276</v>
       </c>
@@ -23782,7 +23806,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>44277</v>
       </c>
@@ -23802,7 +23826,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>44278</v>
       </c>
@@ -23822,7 +23846,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>44279</v>
       </c>
@@ -23842,7 +23866,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>44280</v>
       </c>
@@ -23862,7 +23886,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>44281</v>
       </c>
@@ -23882,7 +23906,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>44282</v>
       </c>
@@ -23902,7 +23926,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>44283</v>
       </c>
@@ -23922,7 +23946,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>44284</v>
       </c>
@@ -23945,7 +23969,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>44285</v>
       </c>
@@ -23968,7 +23992,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>44286</v>
       </c>
@@ -23988,10 +24012,10 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
@@ -24007,7 +24031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
         <v>11</v>
       </c>
@@ -24023,7 +24047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>28</v>
       </c>
@@ -24039,7 +24063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>26</v>
       </c>
@@ -24048,113 +24072,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
     </row>
   </sheetData>
@@ -24185,18 +24209,18 @@
       <selection activeCell="D34" sqref="D34:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -24222,7 +24246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="10">
         <v>44287</v>
       </c>
@@ -24242,7 +24266,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>44288</v>
       </c>
@@ -24262,7 +24286,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>44289</v>
       </c>
@@ -24282,7 +24306,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>44290</v>
       </c>
@@ -24302,7 +24326,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>44291</v>
       </c>
@@ -24322,7 +24346,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>44292</v>
       </c>
@@ -24342,7 +24366,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>44293</v>
       </c>
@@ -24365,7 +24389,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>44294</v>
       </c>
@@ -24385,7 +24409,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>44295</v>
       </c>
@@ -24405,7 +24429,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>44296</v>
       </c>
@@ -24422,7 +24446,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>44297</v>
       </c>
@@ -24445,7 +24469,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>44298</v>
       </c>
@@ -24468,7 +24492,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>44299</v>
       </c>
@@ -24488,7 +24512,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>44300</v>
       </c>
@@ -24508,7 +24532,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>44301</v>
       </c>
@@ -24528,7 +24552,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>44302</v>
       </c>
@@ -24551,7 +24575,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>44303</v>
       </c>
@@ -24577,7 +24601,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="10">
         <v>44304</v>
       </c>
@@ -24597,7 +24621,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="10">
         <v>44305</v>
       </c>
@@ -24620,7 +24644,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="10">
         <v>44306</v>
       </c>
@@ -24643,7 +24667,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="10">
         <v>44307</v>
       </c>
@@ -24666,7 +24690,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="10">
         <v>44308</v>
       </c>
@@ -24692,7 +24716,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="10">
         <v>44309</v>
       </c>
@@ -24712,7 +24736,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="10">
         <v>44310</v>
       </c>
@@ -24732,7 +24756,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="10">
         <v>44311</v>
       </c>
@@ -24752,7 +24776,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="10">
         <v>44312</v>
       </c>
@@ -24772,7 +24796,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="10">
         <v>44313</v>
       </c>
@@ -24792,7 +24816,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="10">
         <v>44314</v>
       </c>
@@ -24815,7 +24839,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="10">
         <v>44315</v>
       </c>
@@ -24835,7 +24859,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="10">
         <v>44316</v>
       </c>
@@ -24858,13 +24882,13 @@
         <v>317</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>5</v>
       </c>
@@ -24880,7 +24904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>11</v>
       </c>
@@ -24896,7 +24920,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>28</v>
       </c>
@@ -24912,7 +24936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>26</v>
       </c>
@@ -24921,113 +24945,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="10"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="10"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="10"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="10"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="10"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="10"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="10"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="10"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="10"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="10"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="10"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="10"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="10"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="10"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="10"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="10"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="10"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="10"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="10"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="10"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="10"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="10"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="10"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="10"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="10"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="10"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="10"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="10"/>
     </row>
   </sheetData>
@@ -25058,17 +25082,17 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -25094,7 +25118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="12">
         <v>44317</v>
       </c>
@@ -25114,7 +25138,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>44318</v>
       </c>
@@ -25134,7 +25158,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>44319</v>
       </c>
@@ -25154,7 +25178,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>44320</v>
       </c>
@@ -25177,7 +25201,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>44321</v>
       </c>
@@ -25197,7 +25221,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>44322</v>
       </c>
@@ -25217,7 +25241,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>44323</v>
       </c>
@@ -25240,7 +25264,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>44324</v>
       </c>
@@ -25260,7 +25284,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>44325</v>
       </c>
@@ -25280,7 +25304,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>44326</v>
       </c>
@@ -25300,7 +25324,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>44327</v>
       </c>
@@ -25323,7 +25347,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="12">
         <v>44328</v>
       </c>
@@ -25343,7 +25367,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="12">
         <v>44329</v>
       </c>
@@ -25363,7 +25387,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="12">
         <v>44330</v>
       </c>
@@ -25383,7 +25407,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="12">
         <v>44331</v>
       </c>
@@ -25400,7 +25424,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="12">
         <v>44332</v>
       </c>
@@ -25426,7 +25450,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="12">
         <v>44333</v>
       </c>
@@ -25446,7 +25470,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="12">
         <v>44334</v>
       </c>
@@ -25469,7 +25493,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="12">
         <v>44335</v>
       </c>
@@ -25492,7 +25516,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="12">
         <v>44336</v>
       </c>
@@ -25515,7 +25539,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="12">
         <v>44337</v>
       </c>
@@ -25535,7 +25559,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="12">
         <v>44338</v>
       </c>
@@ -25555,7 +25579,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="12">
         <v>44339</v>
       </c>
@@ -25575,7 +25599,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="12">
         <v>44340</v>
       </c>
@@ -25595,7 +25619,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="12">
         <v>44341</v>
       </c>
@@ -25615,7 +25639,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="12">
         <v>44342</v>
       </c>
@@ -25638,7 +25662,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="12">
         <v>44343</v>
       </c>
@@ -25658,7 +25682,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="12">
         <v>44344</v>
       </c>
@@ -25675,7 +25699,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="12">
         <v>44345</v>
       </c>
@@ -25695,7 +25719,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="12">
         <v>44346</v>
       </c>
@@ -25718,7 +25742,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="12">
         <v>44347</v>
       </c>
@@ -25741,10 +25765,10 @@
         <v>441</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="12" t="s">
         <v>5</v>
       </c>
@@ -25760,7 +25784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
         <v>11</v>
       </c>
@@ -25776,7 +25800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="12" t="s">
         <v>28</v>
       </c>
@@ -25792,7 +25816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
         <v>26</v>
       </c>
@@ -25801,21 +25825,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="12"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="12"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="12" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="28" t="s">
         <v>397</v>
       </c>
@@ -25824,99 +25848,99 @@
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="12"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="12"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="12"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="12"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="12"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="12"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="12"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="12"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="12"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="12"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="12"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="12"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="12"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="12"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="12"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="12"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="12"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="12"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="12"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="12"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="12"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="12"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="12"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="12"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="12"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="12"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="12"/>
     </row>
   </sheetData>
@@ -25950,18 +25974,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -25987,7 +26011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44348</v>
       </c>
@@ -26007,7 +26031,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>44349</v>
       </c>
@@ -26030,7 +26054,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>44350</v>
       </c>
@@ -26050,7 +26074,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>44351</v>
       </c>
@@ -26070,7 +26094,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>44352</v>
       </c>
@@ -26093,7 +26117,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>44353</v>
       </c>
@@ -26113,7 +26137,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>44354</v>
       </c>
@@ -26136,7 +26160,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>44355</v>
       </c>
@@ -26156,7 +26180,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>44356</v>
       </c>
@@ -26176,7 +26200,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>44357</v>
       </c>
@@ -26199,7 +26223,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>44358</v>
       </c>
@@ -26222,7 +26246,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>44359</v>
       </c>
@@ -26242,7 +26266,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>44360</v>
       </c>
@@ -26262,7 +26286,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>44361</v>
       </c>
@@ -26285,7 +26309,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>44362</v>
       </c>
@@ -26305,7 +26329,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
         <v>44363</v>
       </c>
@@ -26328,7 +26352,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <v>44364</v>
       </c>
@@ -26351,7 +26375,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="13">
         <v>44365</v>
       </c>
@@ -26371,7 +26395,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="13">
         <v>44366</v>
       </c>
@@ -26394,7 +26418,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="13">
         <v>44367</v>
       </c>
@@ -26414,7 +26438,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="13">
         <v>44368</v>
       </c>
@@ -26437,7 +26461,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="13">
         <v>44369</v>
       </c>
@@ -26457,7 +26481,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="13">
         <v>44370</v>
       </c>
@@ -26480,7 +26504,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="13">
         <v>44371</v>
       </c>
@@ -26503,7 +26527,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="13">
         <v>44372</v>
       </c>
@@ -26526,7 +26550,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="13">
         <v>44373</v>
       </c>
@@ -26549,7 +26573,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="13">
         <v>44374</v>
       </c>
@@ -26569,7 +26593,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="13">
         <v>44375</v>
       </c>
@@ -26589,7 +26613,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="13">
         <v>44376</v>
       </c>
@@ -26609,7 +26633,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="13">
         <v>44377</v>
       </c>
@@ -26632,13 +26656,13 @@
         <v>576</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
@@ -26654,7 +26678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
@@ -26670,7 +26694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
@@ -26686,7 +26710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -26695,27 +26719,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="28" t="s">
         <v>575</v>
       </c>
@@ -26724,96 +26748,96 @@
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -26847,18 +26871,18 @@
       <selection activeCell="D34" sqref="D34:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -26884,7 +26908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="15">
         <v>44378</v>
       </c>
@@ -26907,7 +26931,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="15">
         <v>44379</v>
       </c>
@@ -26927,7 +26951,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="15">
         <v>44380</v>
       </c>
@@ -26947,7 +26971,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
         <v>44381</v>
       </c>
@@ -26967,7 +26991,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="15">
         <v>44382</v>
       </c>
@@ -26987,7 +27011,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="15">
         <v>44383</v>
       </c>
@@ -27007,7 +27031,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="15">
         <v>44384</v>
       </c>
@@ -27027,7 +27051,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="15">
         <v>44385</v>
       </c>
@@ -27047,7 +27071,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="15">
         <v>44386</v>
       </c>
@@ -27067,7 +27091,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>44387</v>
       </c>
@@ -27090,7 +27114,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>44388</v>
       </c>
@@ -27110,7 +27134,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>44389</v>
       </c>
@@ -27130,7 +27154,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>44390</v>
       </c>
@@ -27153,7 +27177,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>44391</v>
       </c>
@@ -27176,7 +27200,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>44392</v>
       </c>
@@ -27196,7 +27220,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>44393</v>
       </c>
@@ -27219,7 +27243,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>44394</v>
       </c>
@@ -27239,7 +27263,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="15">
         <v>44395</v>
       </c>
@@ -27259,7 +27283,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="15">
         <v>44396</v>
       </c>
@@ -27279,7 +27303,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="15">
         <v>44397</v>
       </c>
@@ -27299,7 +27323,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>44398</v>
       </c>
@@ -27319,7 +27343,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>44399</v>
       </c>
@@ -27339,7 +27363,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>44400</v>
       </c>
@@ -27359,7 +27383,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>44401</v>
       </c>
@@ -27379,7 +27403,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>44402</v>
       </c>
@@ -27399,7 +27423,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>44403</v>
       </c>
@@ -27419,7 +27443,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>44404</v>
       </c>
@@ -27436,7 +27460,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>44405</v>
       </c>
@@ -27456,7 +27480,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>44406</v>
       </c>
@@ -27476,7 +27500,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>44407</v>
       </c>
@@ -27493,7 +27517,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>44408</v>
       </c>
@@ -27513,10 +27537,10 @@
         <v>699</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="15" t="s">
         <v>5</v>
       </c>
@@ -27532,7 +27556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="15" t="s">
         <v>11</v>
       </c>
@@ -27548,7 +27572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="15" t="s">
         <v>28</v>
       </c>
@@ -27564,7 +27588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="15" t="s">
         <v>26</v>
       </c>
@@ -27573,24 +27597,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="15"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="15"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="28" t="s">
         <v>726</v>
       </c>
@@ -27599,107 +27623,107 @@
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="28"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
       <c r="E47" s="28"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="15"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="15"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="15"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="15"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="15"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="15"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="15"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="15"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="15"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="15"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="15"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="15"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="15"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="15"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="15"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="15"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="15"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="15"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="15"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="15"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="15"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="15"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="15"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="15"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="15"/>
     </row>
   </sheetData>
@@ -27733,17 +27757,17 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -27769,7 +27793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="18">
         <v>44409</v>
       </c>
@@ -27789,7 +27813,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="18">
         <v>44410</v>
       </c>
@@ -27812,7 +27836,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="18">
         <v>44411</v>
       </c>
@@ -27835,7 +27859,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="18">
         <v>44412</v>
       </c>
@@ -27855,7 +27879,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="18">
         <v>44413</v>
       </c>
@@ -27878,7 +27902,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="18">
         <v>44414</v>
       </c>
@@ -27898,7 +27922,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="18">
         <v>44415</v>
       </c>
@@ -27921,7 +27945,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="18">
         <v>44416</v>
       </c>
@@ -27944,7 +27968,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="18">
         <v>44417</v>
       </c>
@@ -27964,7 +27988,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="18">
         <v>44418</v>
       </c>
@@ -27984,7 +28008,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="18">
         <v>44419</v>
       </c>
@@ -28004,7 +28028,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="18">
         <v>44420</v>
       </c>
@@ -28024,7 +28048,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="18">
         <v>44421</v>
       </c>
@@ -28044,7 +28068,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="18">
         <v>44422</v>
       </c>
@@ -28064,7 +28088,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="18">
         <v>44423</v>
       </c>
@@ -28084,7 +28108,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="18">
         <v>44424</v>
       </c>
@@ -28107,7 +28131,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="18">
         <v>44425</v>
       </c>
@@ -28124,7 +28148,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="18">
         <v>44426</v>
       </c>
@@ -28144,7 +28168,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="18">
         <v>44427</v>
       </c>
@@ -28164,7 +28188,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="18">
         <v>44428</v>
       </c>
@@ -28184,7 +28208,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="18">
         <v>44429</v>
       </c>
@@ -28207,7 +28231,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="18">
         <v>44430</v>
       </c>
@@ -28227,7 +28251,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="18">
         <v>44431</v>
       </c>
@@ -28247,7 +28271,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="18">
         <v>44432</v>
       </c>
@@ -28267,7 +28291,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="18">
         <v>44433</v>
       </c>
@@ -28287,7 +28311,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="18">
         <v>44434</v>
       </c>
@@ -28307,7 +28331,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="18">
         <v>44435</v>
       </c>
@@ -28327,7 +28351,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="18">
         <v>44436</v>
       </c>
@@ -28350,7 +28374,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="18">
         <v>44437</v>
       </c>
@@ -28370,7 +28394,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="18">
         <v>44438</v>
       </c>
@@ -28393,7 +28417,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="18">
         <v>44439</v>
       </c>
@@ -28416,10 +28440,10 @@
         <v>852</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="18"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
         <v>5</v>
       </c>
@@ -28435,7 +28459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
         <v>11</v>
       </c>
@@ -28451,7 +28475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
         <v>28</v>
       </c>
@@ -28467,7 +28491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="18" t="s">
         <v>26</v>
       </c>
@@ -28476,24 +28500,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="18"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="18"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="18"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="18"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="28" t="s">
         <v>765</v>
       </c>
@@ -28502,103 +28526,103 @@
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="18"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="18"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="18"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="18"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="18"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="18"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="18"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="18"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="18"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="18"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="18"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="18"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="18"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="18"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="18"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="18"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="18"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="18"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="18"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="18"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="18"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="18"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="18"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="18"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="18"/>
     </row>
   </sheetData>
@@ -28631,18 +28655,18 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -28668,7 +28692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="22">
         <v>44440</v>
       </c>
@@ -28688,7 +28712,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="22">
         <v>44441</v>
       </c>
@@ -28708,7 +28732,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="22">
         <v>44442</v>
       </c>
@@ -28728,7 +28752,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="22">
         <v>44443</v>
       </c>
@@ -28748,7 +28772,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="22">
         <v>44444</v>
       </c>
@@ -28771,7 +28795,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="22">
         <v>44445</v>
       </c>
@@ -28791,7 +28815,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>44446</v>
       </c>
@@ -28811,7 +28835,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
         <v>44447</v>
       </c>
@@ -28831,7 +28855,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>44448</v>
       </c>
@@ -28851,7 +28875,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>44449</v>
       </c>
@@ -28871,7 +28895,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
         <v>44450</v>
       </c>
@@ -28891,7 +28915,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="22">
         <v>44451</v>
       </c>
@@ -28914,7 +28938,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
         <v>44452</v>
       </c>
@@ -28934,7 +28958,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="22">
         <v>44453</v>
       </c>
@@ -28957,7 +28981,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="22">
         <v>44454</v>
       </c>
@@ -28977,7 +29001,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="22">
         <v>44455</v>
       </c>
@@ -29000,7 +29024,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="22">
         <v>44456</v>
       </c>
@@ -29020,7 +29044,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="22">
         <v>44457</v>
       </c>
@@ -29040,7 +29064,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="22">
         <v>44458</v>
       </c>
@@ -29060,7 +29084,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="22">
         <v>44459</v>
       </c>
@@ -29080,7 +29104,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="22">
         <v>44460</v>
       </c>
@@ -29097,7 +29121,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="22">
         <v>44461</v>
       </c>
@@ -29117,7 +29141,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="22">
         <v>44462</v>
       </c>
@@ -29134,7 +29158,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="22">
         <v>44463</v>
       </c>
@@ -29154,7 +29178,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="22">
         <v>44464</v>
       </c>
@@ -29177,7 +29201,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="22">
         <v>44465</v>
       </c>
@@ -29197,7 +29221,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="22">
         <v>44466</v>
       </c>
@@ -29217,7 +29241,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="22">
         <v>44467</v>
       </c>
@@ -29237,7 +29261,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="22">
         <v>44468</v>
       </c>
@@ -29257,7 +29281,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="22">
         <v>44469</v>
       </c>
@@ -29277,13 +29301,13 @@
         <v>984</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="22"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="22"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="22" t="s">
         <v>5</v>
       </c>
@@ -29299,7 +29323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="22" t="s">
         <v>11</v>
       </c>
@@ -29315,7 +29339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="22" t="s">
         <v>28</v>
       </c>
@@ -29331,7 +29355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="22" t="s">
         <v>26</v>
       </c>
@@ -29340,24 +29364,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="22"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="22"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="22"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="22"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="28" t="s">
         <v>985</v>
       </c>
@@ -29366,103 +29390,103 @@
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="22"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="22"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="22"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="22"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="22"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="22"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="22"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="22"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="22"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="22"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="22"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="22"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="22"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="22"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="22"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="22"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="22"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="22"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="22"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="22"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="22"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="22"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="22"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="22"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="22"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="22"/>
     </row>
   </sheetData>

--- a/22年力扣每日一题做题情况.xlsx
+++ b/22年力扣每日一题做题情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20382"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD35AF0-3B5E-40B2-82DA-D97B2CD3167B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A44D4CD-9CDF-4F6F-8CBD-8B3A8178082A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="22年1月" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="1424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="1456">
   <si>
     <t>贪心</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5726,6 +5726,134 @@
   </si>
   <si>
     <t>CV后看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛中的配对次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟/递归/数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到达目的地的第二短时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票价格波动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后没看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表+有序集合/优先级队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测正方形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>句子中的有效单词数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟/正则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏中的弱角色数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序+贪心/单调栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图中的最高点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看思路写出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多源bfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两句话中的不常见单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++stringstream传参时需要传引用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6067,16 +6195,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17508,21 +17636,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -17548,7 +17676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
@@ -17565,7 +17693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>44563</v>
       </c>
@@ -17585,7 +17713,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>44564</v>
       </c>
@@ -17605,7 +17733,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>44565</v>
       </c>
@@ -17625,7 +17753,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>44566</v>
       </c>
@@ -17642,7 +17770,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>44567</v>
       </c>
@@ -17662,7 +17790,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>44568</v>
       </c>
@@ -17682,7 +17810,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>44569</v>
       </c>
@@ -17705,7 +17833,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>44570</v>
       </c>
@@ -17722,7 +17850,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>44571</v>
       </c>
@@ -17742,7 +17870,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>44572</v>
       </c>
@@ -17762,7 +17890,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>44573</v>
       </c>
@@ -17785,7 +17913,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>44574</v>
       </c>
@@ -17802,7 +17930,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>44575</v>
       </c>
@@ -17822,7 +17950,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>44576</v>
       </c>
@@ -17842,7 +17970,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>44577</v>
       </c>
@@ -17865,7 +17993,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>44578</v>
       </c>
@@ -17885,7 +18013,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>44579</v>
       </c>
@@ -17905,7 +18033,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>44580</v>
       </c>
@@ -17925,7 +18053,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>44581</v>
       </c>
@@ -17945,7 +18073,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>44582</v>
       </c>
@@ -17965,7 +18093,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>44583</v>
       </c>
@@ -17982,123 +18110,249 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>44584</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>2034</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>44585</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B25">
+        <v>2045</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>44586</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B26">
+        <v>1688</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>44587</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B27">
+        <v>2013</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>44588</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B28">
+        <v>2047</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>44589</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B29">
+        <v>1996</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>44590</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B30">
+        <v>1765</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>44591</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B31">
+        <v>884</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>44592</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B35">
         <f>COUNTIF(E2:E32,"看思路写出")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B36">
         <f>COUNTIF(E2:E32,"CV后看懂")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B37">
         <f>COUNTIF(E2:E32,"CV后没看懂")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
         <v>1368</v>
       </c>
@@ -18107,127 +18361,127 @@
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="29"/>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="29"/>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="29"/>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
       <c r="E49" s="29"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="29"/>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -18261,18 +18515,18 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -18298,7 +18552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>44470</v>
       </c>
@@ -18318,7 +18572,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>44471</v>
       </c>
@@ -18338,7 +18592,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>44472</v>
       </c>
@@ -18361,7 +18615,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>44473</v>
       </c>
@@ -18381,7 +18635,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>44474</v>
       </c>
@@ -18398,7 +18652,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>44475</v>
       </c>
@@ -18415,7 +18669,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>44476</v>
       </c>
@@ -18432,7 +18686,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>44477</v>
       </c>
@@ -18455,7 +18709,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>44478</v>
       </c>
@@ -18478,7 +18732,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>44479</v>
       </c>
@@ -18498,7 +18752,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>44480</v>
       </c>
@@ -18518,7 +18772,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>44481</v>
       </c>
@@ -18541,7 +18795,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>44482</v>
       </c>
@@ -18561,7 +18815,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>44483</v>
       </c>
@@ -18581,7 +18835,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>44484</v>
       </c>
@@ -18601,7 +18855,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>44485</v>
       </c>
@@ -18624,7 +18878,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>44486</v>
       </c>
@@ -18647,7 +18901,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>44487</v>
       </c>
@@ -18670,7 +18924,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>44488</v>
       </c>
@@ -18693,7 +18947,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>44489</v>
       </c>
@@ -18713,7 +18967,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>44490</v>
       </c>
@@ -18733,7 +18987,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>44491</v>
       </c>
@@ -18756,7 +19010,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>44492</v>
       </c>
@@ -18776,7 +19030,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>44493</v>
       </c>
@@ -18799,7 +19053,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>44494</v>
       </c>
@@ -18819,7 +19073,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>44495</v>
       </c>
@@ -18836,7 +19090,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>44496</v>
       </c>
@@ -18856,7 +19110,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>44497</v>
       </c>
@@ -18876,7 +19130,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>44498</v>
       </c>
@@ -18896,7 +19150,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>44499</v>
       </c>
@@ -18919,7 +19173,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>44500</v>
       </c>
@@ -18939,10 +19193,10 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>5</v>
       </c>
@@ -18958,7 +19212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>11</v>
       </c>
@@ -18974,7 +19228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>28</v>
       </c>
@@ -18990,7 +19244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>26</v>
       </c>
@@ -18999,24 +19253,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>1098</v>
       </c>
@@ -19025,103 +19279,103 @@
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="24"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="24"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
     </row>
   </sheetData>
@@ -19154,17 +19408,17 @@
       <selection activeCell="A43" sqref="A43:D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -19190,7 +19444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>44501</v>
       </c>
@@ -19210,7 +19464,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>44502</v>
       </c>
@@ -19233,7 +19487,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>44503</v>
       </c>
@@ -19256,7 +19510,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>44504</v>
       </c>
@@ -19279,7 +19533,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>44505</v>
       </c>
@@ -19302,7 +19556,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>44506</v>
       </c>
@@ -19322,7 +19576,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>44507</v>
       </c>
@@ -19342,7 +19596,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>44508</v>
       </c>
@@ -19362,7 +19616,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>44509</v>
       </c>
@@ -19382,7 +19636,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>44510</v>
       </c>
@@ -19402,7 +19656,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>44511</v>
       </c>
@@ -19422,7 +19676,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>44512</v>
       </c>
@@ -19442,7 +19696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>44513</v>
       </c>
@@ -19462,7 +19716,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>44514</v>
       </c>
@@ -19482,7 +19736,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>44515</v>
       </c>
@@ -19502,7 +19756,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>44516</v>
       </c>
@@ -19522,7 +19776,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>44517</v>
       </c>
@@ -19542,7 +19796,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>44518</v>
       </c>
@@ -19562,7 +19816,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>44519</v>
       </c>
@@ -19582,7 +19836,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>44520</v>
       </c>
@@ -19602,7 +19856,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>44521</v>
       </c>
@@ -19622,7 +19876,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>44522</v>
       </c>
@@ -19648,7 +19902,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>44523</v>
       </c>
@@ -19668,7 +19922,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>44524</v>
       </c>
@@ -19688,7 +19942,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>44525</v>
       </c>
@@ -19711,7 +19965,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>44526</v>
       </c>
@@ -19731,7 +19985,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>44527</v>
       </c>
@@ -19754,7 +20008,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>44528</v>
       </c>
@@ -19774,7 +20028,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>44529</v>
       </c>
@@ -19794,7 +20048,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <v>44530</v>
       </c>
@@ -19814,13 +20068,13 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>5</v>
       </c>
@@ -19836,7 +20090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>11</v>
       </c>
@@ -19852,7 +20106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>28</v>
       </c>
@@ -19868,7 +20122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>26</v>
       </c>
@@ -19877,24 +20131,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>1236</v>
       </c>
@@ -19902,103 +20156,103 @@
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="25"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="25"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="25"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
     </row>
   </sheetData>
@@ -20031,17 +20285,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -20067,7 +20321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>44531</v>
       </c>
@@ -20084,7 +20338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>44532</v>
       </c>
@@ -20104,7 +20358,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>44533</v>
       </c>
@@ -20124,7 +20378,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>44534</v>
       </c>
@@ -20141,7 +20395,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>44535</v>
       </c>
@@ -20161,7 +20415,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>44536</v>
       </c>
@@ -20178,7 +20432,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>44537</v>
       </c>
@@ -20198,7 +20452,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>44538</v>
       </c>
@@ -20218,7 +20472,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>44539</v>
       </c>
@@ -20238,7 +20492,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>44540</v>
       </c>
@@ -20255,7 +20509,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>44541</v>
       </c>
@@ -20275,7 +20529,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>44542</v>
       </c>
@@ -20292,7 +20546,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>44543</v>
       </c>
@@ -20312,7 +20566,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>44544</v>
       </c>
@@ -20332,7 +20586,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>44545</v>
       </c>
@@ -20352,7 +20606,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>44546</v>
       </c>
@@ -20375,7 +20629,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>44547</v>
       </c>
@@ -20395,7 +20649,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>44548</v>
       </c>
@@ -20412,7 +20666,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>44549</v>
       </c>
@@ -20432,7 +20686,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>44550</v>
       </c>
@@ -20455,7 +20709,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>44551</v>
       </c>
@@ -20475,7 +20729,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>44552</v>
       </c>
@@ -20498,7 +20752,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>44553</v>
       </c>
@@ -20518,7 +20772,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>44554</v>
       </c>
@@ -20538,7 +20792,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>44555</v>
       </c>
@@ -20558,7 +20812,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>44556</v>
       </c>
@@ -20575,7 +20829,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>44557</v>
       </c>
@@ -20595,7 +20849,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>44558</v>
       </c>
@@ -20615,7 +20869,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>44559</v>
       </c>
@@ -20638,7 +20892,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>44560</v>
       </c>
@@ -20658,7 +20912,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <v>44561</v>
       </c>
@@ -20675,10 +20929,10 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>5</v>
       </c>
@@ -20694,7 +20948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>11</v>
       </c>
@@ -20710,7 +20964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>28</v>
       </c>
@@ -20726,7 +20980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>26</v>
       </c>
@@ -20735,111 +20989,111 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="26"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="26"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="26"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="26"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="26"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="26"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="26"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="26"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="26"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="26"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="26"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="26"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="26"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="26"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="26"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="26"/>
     </row>
   </sheetData>
@@ -20870,7 +21124,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20886,16 +21140,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -20909,7 +21163,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -20932,7 +21186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -20946,7 +21200,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1801</v>
       </c>
@@ -20963,7 +21217,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -20983,7 +21237,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1803</v>
       </c>
@@ -21000,7 +21254,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -21014,7 +21268,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -21026,28 +21280,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -21084,16 +21338,16 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -21107,7 +21361,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -21130,7 +21384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5713</v>
       </c>
@@ -21150,7 +21404,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5715</v>
       </c>
@@ -21167,7 +21421,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5714</v>
       </c>
@@ -21184,7 +21438,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5716</v>
       </c>
@@ -21201,7 +21455,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -21215,7 +21469,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -21227,28 +21481,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -21285,16 +21539,16 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -21308,7 +21562,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -21331,7 +21585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>194</v>
       </c>
@@ -21348,7 +21602,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>195</v>
       </c>
@@ -21365,7 +21619,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -21382,7 +21636,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>197</v>
       </c>
@@ -21399,7 +21653,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>198</v>
       </c>
@@ -21416,7 +21670,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -21430,7 +21684,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -21442,28 +21696,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -21499,16 +21753,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -21522,7 +21776,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -21545,7 +21799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>902</v>
       </c>
@@ -21562,7 +21816,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>895</v>
       </c>
@@ -21579,7 +21833,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>898</v>
       </c>
@@ -21596,7 +21850,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>899</v>
       </c>
@@ -21610,7 +21864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>900</v>
       </c>
@@ -21621,7 +21875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -21635,7 +21889,7 @@
         <v>8176</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -21647,28 +21901,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -21705,16 +21959,16 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -21728,7 +21982,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -21751,7 +22005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5161</v>
       </c>
@@ -21768,7 +22022,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5814</v>
       </c>
@@ -21785,7 +22039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5815</v>
       </c>
@@ -21802,7 +22056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5816</v>
       </c>
@@ -21819,7 +22073,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -21833,7 +22087,7 @@
         <v>4314</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -21845,28 +22099,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -21903,16 +22157,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -21926,7 +22180,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -21949,7 +22203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5830</v>
       </c>
@@ -21963,7 +22217,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5831</v>
       </c>
@@ -21980,7 +22234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5187</v>
       </c>
@@ -21994,7 +22248,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5833</v>
       </c>
@@ -22005,7 +22259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -22019,7 +22273,7 @@
         <v>4646</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -22029,28 +22283,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -22087,17 +22341,17 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -22123,143 +22377,143 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44593</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>44594</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>44595</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>44596</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>44597</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>44598</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>44599</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>44600</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>44601</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>44602</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>44603</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>44604</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>44605</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>44606</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>44607</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>44608</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>44609</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>44610</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>44611</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>44612</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>44613</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>44614</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>44615</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>44616</v>
       </c>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>44617</v>
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>44618</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>44619</v>
       </c>
@@ -22267,25 +22521,25 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>44620</v>
       </c>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
@@ -22301,7 +22555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
@@ -22317,7 +22571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
@@ -22333,7 +22587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -22342,18 +22596,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>32</v>
       </c>
@@ -22362,105 +22616,105 @@
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
     </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="E42" s="30"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -22494,16 +22748,16 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -22517,7 +22771,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -22540,7 +22794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5193</v>
       </c>
@@ -22557,7 +22811,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5827</v>
       </c>
@@ -22574,7 +22828,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5828</v>
       </c>
@@ -22594,7 +22848,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5220</v>
       </c>
@@ -22614,7 +22868,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -22628,7 +22882,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -22640,28 +22894,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -22697,16 +22951,16 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -22720,7 +22974,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -22743,7 +22997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5838</v>
       </c>
@@ -22757,7 +23011,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5839</v>
       </c>
@@ -22777,7 +23031,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5840</v>
       </c>
@@ -22794,7 +23048,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5841</v>
       </c>
@@ -22811,7 +23065,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -22825,7 +23079,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -22837,28 +23091,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -22895,17 +23149,17 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -22931,103 +23185,103 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>5</v>
       </c>
@@ -23043,7 +23297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>11</v>
       </c>
@@ -23059,7 +23313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>28</v>
       </c>
@@ -23075,7 +23329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>26</v>
       </c>
@@ -23084,111 +23338,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
     </row>
   </sheetData>
@@ -23218,16 +23472,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -23239,7 +23493,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -23262,7 +23516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -23270,7 +23524,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -23280,28 +23534,28 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -23338,17 +23592,17 @@
       <selection activeCell="D34" sqref="D34:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -23374,7 +23628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>44256</v>
       </c>
@@ -23397,7 +23651,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44257</v>
       </c>
@@ -23420,7 +23674,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44258</v>
       </c>
@@ -23446,7 +23700,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44259</v>
       </c>
@@ -23469,7 +23723,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44260</v>
       </c>
@@ -23489,7 +23743,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44261</v>
       </c>
@@ -23509,7 +23763,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44262</v>
       </c>
@@ -23532,7 +23786,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44263</v>
       </c>
@@ -23552,7 +23806,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44264</v>
       </c>
@@ -23572,7 +23826,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44265</v>
       </c>
@@ -23592,7 +23846,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44266</v>
       </c>
@@ -23612,7 +23866,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44267</v>
       </c>
@@ -23632,7 +23886,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44268</v>
       </c>
@@ -23655,7 +23909,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44269</v>
       </c>
@@ -23678,7 +23932,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44270</v>
       </c>
@@ -23695,7 +23949,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44271</v>
       </c>
@@ -23712,7 +23966,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44272</v>
       </c>
@@ -23732,7 +23986,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44273</v>
       </c>
@@ -23752,7 +24006,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44274</v>
       </c>
@@ -23769,7 +24023,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44275</v>
       </c>
@@ -23789,7 +24043,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44276</v>
       </c>
@@ -23806,7 +24060,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44277</v>
       </c>
@@ -23826,7 +24080,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44278</v>
       </c>
@@ -23846,7 +24100,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44279</v>
       </c>
@@ -23866,7 +24120,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44280</v>
       </c>
@@ -23886,7 +24140,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44281</v>
       </c>
@@ -23906,7 +24160,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44282</v>
       </c>
@@ -23926,7 +24180,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44283</v>
       </c>
@@ -23946,7 +24200,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>44284</v>
       </c>
@@ -23969,7 +24223,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>44285</v>
       </c>
@@ -23992,7 +24246,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>44286</v>
       </c>
@@ -24012,10 +24266,10 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
@@ -24031,7 +24285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>11</v>
       </c>
@@ -24047,7 +24301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>28</v>
       </c>
@@ -24063,7 +24317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>26</v>
       </c>
@@ -24072,113 +24326,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
     </row>
   </sheetData>
@@ -24209,18 +24463,18 @@
       <selection activeCell="D34" sqref="D34:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -24246,7 +24500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>44287</v>
       </c>
@@ -24266,7 +24520,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>44288</v>
       </c>
@@ -24286,7 +24540,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>44289</v>
       </c>
@@ -24306,7 +24560,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>44290</v>
       </c>
@@ -24326,7 +24580,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>44291</v>
       </c>
@@ -24346,7 +24600,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>44292</v>
       </c>
@@ -24366,7 +24620,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>44293</v>
       </c>
@@ -24389,7 +24643,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>44294</v>
       </c>
@@ -24409,7 +24663,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>44295</v>
       </c>
@@ -24429,7 +24683,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>44296</v>
       </c>
@@ -24446,7 +24700,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>44297</v>
       </c>
@@ -24469,7 +24723,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>44298</v>
       </c>
@@ -24492,7 +24746,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>44299</v>
       </c>
@@ -24512,7 +24766,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>44300</v>
       </c>
@@ -24532,7 +24786,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>44301</v>
       </c>
@@ -24552,7 +24806,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>44302</v>
       </c>
@@ -24575,7 +24829,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>44303</v>
       </c>
@@ -24601,7 +24855,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>44304</v>
       </c>
@@ -24621,7 +24875,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>44305</v>
       </c>
@@ -24644,7 +24898,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>44306</v>
       </c>
@@ -24667,7 +24921,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>44307</v>
       </c>
@@ -24690,7 +24944,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>44308</v>
       </c>
@@ -24716,7 +24970,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>44309</v>
       </c>
@@ -24736,7 +24990,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>44310</v>
       </c>
@@ -24756,7 +25010,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>44311</v>
       </c>
@@ -24776,7 +25030,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>44312</v>
       </c>
@@ -24796,7 +25050,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>44313</v>
       </c>
@@ -24816,7 +25070,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>44314</v>
       </c>
@@ -24839,7 +25093,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>44315</v>
       </c>
@@ -24859,7 +25113,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>44316</v>
       </c>
@@ -24882,13 +25136,13 @@
         <v>317</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>5</v>
       </c>
@@ -24904,7 +25158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>11</v>
       </c>
@@ -24920,7 +25174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>28</v>
       </c>
@@ -24936,7 +25190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>26</v>
       </c>
@@ -24945,113 +25199,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
     </row>
   </sheetData>
@@ -25082,17 +25336,17 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -25118,7 +25372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>44317</v>
       </c>
@@ -25138,7 +25392,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>44318</v>
       </c>
@@ -25158,7 +25412,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>44319</v>
       </c>
@@ -25178,7 +25432,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44320</v>
       </c>
@@ -25201,7 +25455,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44321</v>
       </c>
@@ -25221,7 +25475,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44322</v>
       </c>
@@ -25241,7 +25495,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>44323</v>
       </c>
@@ -25264,7 +25518,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>44324</v>
       </c>
@@ -25284,7 +25538,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44325</v>
       </c>
@@ -25304,7 +25558,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>44326</v>
       </c>
@@ -25324,7 +25578,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>44327</v>
       </c>
@@ -25347,7 +25601,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44328</v>
       </c>
@@ -25367,7 +25621,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>44329</v>
       </c>
@@ -25387,7 +25641,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44330</v>
       </c>
@@ -25407,7 +25661,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>44331</v>
       </c>
@@ -25424,7 +25678,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>44332</v>
       </c>
@@ -25450,7 +25704,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>44333</v>
       </c>
@@ -25470,7 +25724,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>44334</v>
       </c>
@@ -25493,7 +25747,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>44335</v>
       </c>
@@ -25516,7 +25770,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>44336</v>
       </c>
@@ -25539,7 +25793,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>44337</v>
       </c>
@@ -25559,7 +25813,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>44338</v>
       </c>
@@ -25579,7 +25833,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>44339</v>
       </c>
@@ -25599,7 +25853,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>44340</v>
       </c>
@@ -25619,7 +25873,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>44341</v>
       </c>
@@ -25639,7 +25893,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>44342</v>
       </c>
@@ -25662,7 +25916,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>44343</v>
       </c>
@@ -25682,7 +25936,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>44344</v>
       </c>
@@ -25699,7 +25953,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>44345</v>
       </c>
@@ -25719,7 +25973,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>44346</v>
       </c>
@@ -25742,7 +25996,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>44347</v>
       </c>
@@ -25765,10 +26019,10 @@
         <v>441</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>5</v>
       </c>
@@ -25784,7 +26038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>11</v>
       </c>
@@ -25800,7 +26054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>28</v>
       </c>
@@ -25816,7 +26070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>26</v>
       </c>
@@ -25825,21 +26079,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>397</v>
       </c>
@@ -25848,99 +26102,99 @@
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
     </row>
   </sheetData>
@@ -25974,18 +26228,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -26011,7 +26265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44348</v>
       </c>
@@ -26031,7 +26285,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>44349</v>
       </c>
@@ -26054,7 +26308,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>44350</v>
       </c>
@@ -26074,7 +26328,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>44351</v>
       </c>
@@ -26094,7 +26348,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>44352</v>
       </c>
@@ -26117,7 +26371,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>44353</v>
       </c>
@@ -26137,7 +26391,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>44354</v>
       </c>
@@ -26160,7 +26414,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>44355</v>
       </c>
@@ -26180,7 +26434,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>44356</v>
       </c>
@@ -26200,7 +26454,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>44357</v>
       </c>
@@ -26223,7 +26477,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>44358</v>
       </c>
@@ -26246,7 +26500,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>44359</v>
       </c>
@@ -26266,7 +26520,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>44360</v>
       </c>
@@ -26286,7 +26540,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>44361</v>
       </c>
@@ -26309,7 +26563,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>44362</v>
       </c>
@@ -26329,7 +26583,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>44363</v>
       </c>
@@ -26352,7 +26606,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>44364</v>
       </c>
@@ -26375,7 +26629,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>44365</v>
       </c>
@@ -26395,7 +26649,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>44366</v>
       </c>
@@ -26418,7 +26672,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>44367</v>
       </c>
@@ -26438,7 +26692,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>44368</v>
       </c>
@@ -26461,7 +26715,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>44369</v>
       </c>
@@ -26481,7 +26735,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>44370</v>
       </c>
@@ -26504,7 +26758,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>44371</v>
       </c>
@@ -26527,7 +26781,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>44372</v>
       </c>
@@ -26550,7 +26804,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>44373</v>
       </c>
@@ -26573,7 +26827,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>44374</v>
       </c>
@@ -26593,7 +26847,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>44375</v>
       </c>
@@ -26613,7 +26867,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>44376</v>
       </c>
@@ -26633,7 +26887,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>44377</v>
       </c>
@@ -26656,13 +26910,13 @@
         <v>576</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
@@ -26678,7 +26932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
@@ -26694,7 +26948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
@@ -26710,7 +26964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -26719,27 +26973,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
         <v>575</v>
       </c>
@@ -26748,96 +27002,96 @@
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -26871,18 +27125,18 @@
       <selection activeCell="D34" sqref="D34:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -26908,7 +27162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>44378</v>
       </c>
@@ -26931,7 +27185,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>44379</v>
       </c>
@@ -26951,7 +27205,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>44380</v>
       </c>
@@ -26971,7 +27225,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>44381</v>
       </c>
@@ -26991,7 +27245,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>44382</v>
       </c>
@@ -27011,7 +27265,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>44383</v>
       </c>
@@ -27031,7 +27285,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>44384</v>
       </c>
@@ -27051,7 +27305,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>44385</v>
       </c>
@@ -27071,7 +27325,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>44386</v>
       </c>
@@ -27091,7 +27345,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>44387</v>
       </c>
@@ -27114,7 +27368,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>44388</v>
       </c>
@@ -27134,7 +27388,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>44389</v>
       </c>
@@ -27154,7 +27408,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>44390</v>
       </c>
@@ -27177,7 +27431,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>44391</v>
       </c>
@@ -27200,7 +27454,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>44392</v>
       </c>
@@ -27220,7 +27474,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>44393</v>
       </c>
@@ -27243,7 +27497,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>44394</v>
       </c>
@@ -27263,7 +27517,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>44395</v>
       </c>
@@ -27283,7 +27537,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>44396</v>
       </c>
@@ -27303,7 +27557,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>44397</v>
       </c>
@@ -27323,7 +27577,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>44398</v>
       </c>
@@ -27343,7 +27597,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>44399</v>
       </c>
@@ -27363,7 +27617,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>44400</v>
       </c>
@@ -27383,7 +27637,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>44401</v>
       </c>
@@ -27403,7 +27657,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>44402</v>
       </c>
@@ -27423,7 +27677,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>44403</v>
       </c>
@@ -27443,7 +27697,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>44404</v>
       </c>
@@ -27460,7 +27714,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>44405</v>
       </c>
@@ -27480,7 +27734,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>44406</v>
       </c>
@@ -27500,7 +27754,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>44407</v>
       </c>
@@ -27517,7 +27771,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>44408</v>
       </c>
@@ -27537,10 +27791,10 @@
         <v>699</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>5</v>
       </c>
@@ -27556,7 +27810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>11</v>
       </c>
@@ -27572,7 +27826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>28</v>
       </c>
@@ -27588,7 +27842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>26</v>
       </c>
@@ -27597,24 +27851,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>726</v>
       </c>
@@ -27623,107 +27877,107 @@
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
       <c r="E47" s="28"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
     </row>
   </sheetData>
@@ -27757,17 +28011,17 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -27793,7 +28047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>44409</v>
       </c>
@@ -27813,7 +28067,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>44410</v>
       </c>
@@ -27836,7 +28090,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>44411</v>
       </c>
@@ -27859,7 +28113,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>44412</v>
       </c>
@@ -27879,7 +28133,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>44413</v>
       </c>
@@ -27902,7 +28156,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>44414</v>
       </c>
@@ -27922,7 +28176,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>44415</v>
       </c>
@@ -27945,7 +28199,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>44416</v>
       </c>
@@ -27968,7 +28222,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>44417</v>
       </c>
@@ -27988,7 +28242,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>44418</v>
       </c>
@@ -28008,7 +28262,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>44419</v>
       </c>
@@ -28028,7 +28282,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>44420</v>
       </c>
@@ -28048,7 +28302,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>44421</v>
       </c>
@@ -28068,7 +28322,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>44422</v>
       </c>
@@ -28088,7 +28342,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>44423</v>
       </c>
@@ -28108,7 +28362,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>44424</v>
       </c>
@@ -28131,7 +28385,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>44425</v>
       </c>
@@ -28148,7 +28402,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>44426</v>
       </c>
@@ -28168,7 +28422,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>44427</v>
       </c>
@@ -28188,7 +28442,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>44428</v>
       </c>
@@ -28208,7 +28462,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>44429</v>
       </c>
@@ -28231,7 +28485,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>44430</v>
       </c>
@@ -28251,7 +28505,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>44431</v>
       </c>
@@ -28271,7 +28525,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>44432</v>
       </c>
@@ -28291,7 +28545,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>44433</v>
       </c>
@@ -28311,7 +28565,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>44434</v>
       </c>
@@ -28331,7 +28585,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>44435</v>
       </c>
@@ -28351,7 +28605,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>44436</v>
       </c>
@@ -28374,7 +28628,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>44437</v>
       </c>
@@ -28394,7 +28648,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>44438</v>
       </c>
@@ -28417,7 +28671,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>44439</v>
       </c>
@@ -28440,10 +28694,10 @@
         <v>852</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>5</v>
       </c>
@@ -28459,7 +28713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>11</v>
       </c>
@@ -28475,7 +28729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>28</v>
       </c>
@@ -28491,7 +28745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>26</v>
       </c>
@@ -28500,24 +28754,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>765</v>
       </c>
@@ -28526,103 +28780,103 @@
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="18"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="18"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="18"/>
     </row>
   </sheetData>
@@ -28655,18 +28909,18 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -28692,7 +28946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>44440</v>
       </c>
@@ -28712,7 +28966,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>44441</v>
       </c>
@@ -28732,7 +28986,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>44442</v>
       </c>
@@ -28752,7 +29006,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>44443</v>
       </c>
@@ -28772,7 +29026,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>44444</v>
       </c>
@@ -28795,7 +29049,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>44445</v>
       </c>
@@ -28815,7 +29069,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>44446</v>
       </c>
@@ -28835,7 +29089,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>44447</v>
       </c>
@@ -28855,7 +29109,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>44448</v>
       </c>
@@ -28875,7 +29129,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44449</v>
       </c>
@@ -28895,7 +29149,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>44450</v>
       </c>
@@ -28915,7 +29169,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>44451</v>
       </c>
@@ -28938,7 +29192,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>44452</v>
       </c>
@@ -28958,7 +29212,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>44453</v>
       </c>
@@ -28981,7 +29235,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>44454</v>
       </c>
@@ -29001,7 +29255,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>44455</v>
       </c>
@@ -29024,7 +29278,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>44456</v>
       </c>
@@ -29044,7 +29298,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>44457</v>
       </c>
@@ -29064,7 +29318,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>44458</v>
       </c>
@@ -29084,7 +29338,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>44459</v>
       </c>
@@ -29104,7 +29358,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>44460</v>
       </c>
@@ -29121,7 +29375,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>44461</v>
       </c>
@@ -29141,7 +29395,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>44462</v>
       </c>
@@ -29158,7 +29412,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>44463</v>
       </c>
@@ -29178,7 +29432,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>44464</v>
       </c>
@@ -29201,7 +29455,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>44465</v>
       </c>
@@ -29221,7 +29475,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>44466</v>
       </c>
@@ -29241,7 +29495,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>44467</v>
       </c>
@@ -29261,7 +29515,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>44468</v>
       </c>
@@ -29281,7 +29535,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>44469</v>
       </c>
@@ -29301,13 +29555,13 @@
         <v>984</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>5</v>
       </c>
@@ -29323,7 +29577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>11</v>
       </c>
@@ -29339,7 +29593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>28</v>
       </c>
@@ -29355,7 +29609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>26</v>
       </c>
@@ -29364,24 +29618,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>985</v>
       </c>
@@ -29390,103 +29644,103 @@
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="22"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="22"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="22"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="22"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="22"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="22"/>
     </row>
   </sheetData>

--- a/22年力扣每日一题做题情况.xlsx
+++ b/22年力扣每日一题做题情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF76C59E-D121-4CE7-ADD0-5ECD7B2B89BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE50670-3533-4345-9D8C-ACB7B59F6DB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="22年1月" sheetId="2" r:id="rId1"/>
@@ -34,14 +34,13 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId24"/>
-    <externalReference r:id="rId25"/>
   </externalReferences>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="1493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="1515">
   <si>
     <t>贪心</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5995,6 +5994,94 @@
   </si>
   <si>
     <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长快乐字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js Object.entries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网格照明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差的绝对值为K的数对数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力/哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最简分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++库函数__gcd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生分数的最小差值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7437,7 +7524,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[2]汇总!$B$27:$B$30</c:f>
+              <c:f>[1]汇总!$B$27:$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -7457,7 +7544,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]汇总!$P$27:$P$30</c:f>
+              <c:f>[1]汇总!$P$27:$P$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7624,7 +7711,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]汇总!$B$27</c:f>
+              <c:f>[1]汇总!$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7705,7 +7792,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[2]汇总!$C$26:$N$26</c:f>
+              <c:f>[1]汇总!$C$26:$N$26</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -7749,7 +7836,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]汇总!$C$27:$N$27</c:f>
+              <c:f>[1]汇总!$C$27:$N$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7804,7 +7891,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]汇总!$B$28</c:f>
+              <c:f>[1]汇总!$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7885,7 +7972,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[2]汇总!$C$26:$N$26</c:f>
+              <c:f>[1]汇总!$C$26:$N$26</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -7929,7 +8016,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]汇总!$C$28:$N$28</c:f>
+              <c:f>[1]汇总!$C$28:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7984,7 +8071,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]汇总!$B$29</c:f>
+              <c:f>[1]汇总!$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8065,7 +8152,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[2]汇总!$C$26:$N$26</c:f>
+              <c:f>[1]汇总!$C$26:$N$26</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -8109,7 +8196,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]汇总!$C$29:$N$29</c:f>
+              <c:f>[1]汇总!$C$29:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8164,7 +8251,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]汇总!$B$30</c:f>
+              <c:f>[1]汇总!$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8245,7 +8332,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[2]汇总!$C$26:$N$26</c:f>
+              <c:f>[1]汇总!$C$26:$N$26</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -8289,7 +8376,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]汇总!$C$30:$N$30</c:f>
+              <c:f>[1]汇总!$C$30:$N$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8590,7 +8677,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]汇总!$B$2</c:f>
+              <c:f>[1]汇总!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8671,7 +8758,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[2]汇总!$C$1:$N$1</c:f>
+              <c:f>[1]汇总!$C$1:$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -8715,7 +8802,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]汇总!$C$2:$N$2</c:f>
+              <c:f>[1]汇总!$C$2:$N$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8770,7 +8857,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]汇总!$B$3</c:f>
+              <c:f>[1]汇总!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8851,7 +8938,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[2]汇总!$C$1:$N$1</c:f>
+              <c:f>[1]汇总!$C$1:$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -8895,7 +8982,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]汇总!$C$3:$N$3</c:f>
+              <c:f>[1]汇总!$C$3:$N$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8950,7 +9037,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]汇总!$B$4</c:f>
+              <c:f>[1]汇总!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9031,7 +9118,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[2]汇总!$C$1:$N$1</c:f>
+              <c:f>[1]汇总!$C$1:$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -9075,7 +9162,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]汇总!$C$4:$N$4</c:f>
+              <c:f>[1]汇总!$C$4:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9491,7 +9578,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[2]汇总!$B$2:$B$4</c:f>
+              <c:f>[1]汇总!$B$2:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -9508,7 +9595,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]汇总!$P$2:$P$4</c:f>
+              <c:f>[1]汇总!$P$2:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -10043,13 +10130,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -22221,19 +22308,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="22年2月"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="21年1月"/>
       <sheetName val="21年2月"/>
       <sheetName val="21年3月"/>
@@ -23342,17 +23416,17 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -23378,7 +23452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
@@ -23395,7 +23469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>44563</v>
       </c>
@@ -23415,7 +23489,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>44564</v>
       </c>
@@ -23435,7 +23509,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>44565</v>
       </c>
@@ -23455,7 +23529,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>44566</v>
       </c>
@@ -23472,7 +23546,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>44567</v>
       </c>
@@ -23492,7 +23566,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>44568</v>
       </c>
@@ -23512,7 +23586,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>44569</v>
       </c>
@@ -23535,7 +23609,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>44570</v>
       </c>
@@ -23552,7 +23626,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>44571</v>
       </c>
@@ -23572,7 +23646,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>44572</v>
       </c>
@@ -23592,7 +23666,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>44573</v>
       </c>
@@ -23615,7 +23689,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>44574</v>
       </c>
@@ -23632,7 +23706,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>44575</v>
       </c>
@@ -23652,7 +23726,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>44576</v>
       </c>
@@ -23672,7 +23746,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>44577</v>
       </c>
@@ -23695,7 +23769,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>44578</v>
       </c>
@@ -23715,7 +23789,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>44579</v>
       </c>
@@ -23735,7 +23809,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>44580</v>
       </c>
@@ -23755,7 +23829,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>44581</v>
       </c>
@@ -23775,7 +23849,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>44582</v>
       </c>
@@ -23795,7 +23869,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>44583</v>
       </c>
@@ -23812,7 +23886,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>44584</v>
       </c>
@@ -23832,7 +23906,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>44585</v>
       </c>
@@ -23852,7 +23926,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>44586</v>
       </c>
@@ -23872,7 +23946,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>44587</v>
       </c>
@@ -23892,7 +23966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>44588</v>
       </c>
@@ -23912,7 +23986,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>44589</v>
       </c>
@@ -23932,7 +24006,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>44590</v>
       </c>
@@ -23955,7 +24029,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>44591</v>
       </c>
@@ -23978,7 +24052,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>44592</v>
       </c>
@@ -23998,10 +24072,10 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -24017,7 +24091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -24033,7 +24107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -24049,7 +24123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
@@ -24058,18 +24132,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>1366</v>
       </c>
@@ -24078,127 +24152,127 @@
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="E42" s="30"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
       <c r="D48" s="31"/>
       <c r="E48" s="31"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="31"/>
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -24232,18 +24306,18 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -24269,7 +24343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>44470</v>
       </c>
@@ -24289,7 +24363,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>44471</v>
       </c>
@@ -24309,7 +24383,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>44472</v>
       </c>
@@ -24332,7 +24406,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>44473</v>
       </c>
@@ -24352,7 +24426,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>44474</v>
       </c>
@@ -24369,7 +24443,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>44475</v>
       </c>
@@ -24386,7 +24460,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>44476</v>
       </c>
@@ -24403,7 +24477,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>44477</v>
       </c>
@@ -24426,7 +24500,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>44478</v>
       </c>
@@ -24449,7 +24523,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>44479</v>
       </c>
@@ -24469,7 +24543,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>44480</v>
       </c>
@@ -24489,7 +24563,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>44481</v>
       </c>
@@ -24512,7 +24586,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>44482</v>
       </c>
@@ -24532,7 +24606,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>44483</v>
       </c>
@@ -24552,7 +24626,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>44484</v>
       </c>
@@ -24572,7 +24646,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>44485</v>
       </c>
@@ -24595,7 +24669,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>44486</v>
       </c>
@@ -24618,7 +24692,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>44487</v>
       </c>
@@ -24641,7 +24715,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>44488</v>
       </c>
@@ -24664,7 +24738,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>44489</v>
       </c>
@@ -24684,7 +24758,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>44490</v>
       </c>
@@ -24704,7 +24778,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>44491</v>
       </c>
@@ -24727,7 +24801,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>44492</v>
       </c>
@@ -24747,7 +24821,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>44493</v>
       </c>
@@ -24770,7 +24844,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>44494</v>
       </c>
@@ -24790,7 +24864,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>44495</v>
       </c>
@@ -24807,7 +24881,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>44496</v>
       </c>
@@ -24827,7 +24901,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>44497</v>
       </c>
@@ -24847,7 +24921,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>44498</v>
       </c>
@@ -24867,7 +24941,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>44499</v>
       </c>
@@ -24890,7 +24964,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>44500</v>
       </c>
@@ -24910,10 +24984,10 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>5</v>
       </c>
@@ -24929,7 +25003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>11</v>
       </c>
@@ -24945,7 +25019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>28</v>
       </c>
@@ -24961,7 +25035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>26</v>
       </c>
@@ -24970,24 +25044,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>1096</v>
       </c>
@@ -24996,103 +25070,103 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="24"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="24"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
     </row>
   </sheetData>
@@ -25125,17 +25199,17 @@
       <selection activeCell="A43" sqref="A43:D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -25161,7 +25235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>44501</v>
       </c>
@@ -25181,7 +25255,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>44502</v>
       </c>
@@ -25204,7 +25278,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>44503</v>
       </c>
@@ -25227,7 +25301,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>44504</v>
       </c>
@@ -25250,7 +25324,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>44505</v>
       </c>
@@ -25273,7 +25347,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>44506</v>
       </c>
@@ -25293,7 +25367,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>44507</v>
       </c>
@@ -25313,7 +25387,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>44508</v>
       </c>
@@ -25333,7 +25407,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>44509</v>
       </c>
@@ -25353,7 +25427,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>44510</v>
       </c>
@@ -25373,7 +25447,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>44511</v>
       </c>
@@ -25393,7 +25467,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>44512</v>
       </c>
@@ -25413,7 +25487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>44513</v>
       </c>
@@ -25433,7 +25507,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>44514</v>
       </c>
@@ -25453,7 +25527,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>44515</v>
       </c>
@@ -25473,7 +25547,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>44516</v>
       </c>
@@ -25493,7 +25567,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>44517</v>
       </c>
@@ -25513,7 +25587,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>44518</v>
       </c>
@@ -25533,7 +25607,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>44519</v>
       </c>
@@ -25553,7 +25627,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>44520</v>
       </c>
@@ -25573,7 +25647,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>44521</v>
       </c>
@@ -25593,7 +25667,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>44522</v>
       </c>
@@ -25619,7 +25693,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>44523</v>
       </c>
@@ -25639,7 +25713,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>44524</v>
       </c>
@@ -25659,7 +25733,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>44525</v>
       </c>
@@ -25682,7 +25756,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>44526</v>
       </c>
@@ -25702,7 +25776,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>44527</v>
       </c>
@@ -25725,7 +25799,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>44528</v>
       </c>
@@ -25745,7 +25819,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>44529</v>
       </c>
@@ -25765,7 +25839,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <v>44530</v>
       </c>
@@ -25785,13 +25859,13 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>5</v>
       </c>
@@ -25807,7 +25881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>11</v>
       </c>
@@ -25823,7 +25897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>28</v>
       </c>
@@ -25839,7 +25913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>26</v>
       </c>
@@ -25848,24 +25922,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>1234</v>
       </c>
@@ -25873,103 +25947,103 @@
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="25"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="25"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="25"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
     </row>
   </sheetData>
@@ -26002,17 +26076,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -26038,7 +26112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>44531</v>
       </c>
@@ -26055,7 +26129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>44532</v>
       </c>
@@ -26075,7 +26149,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>44533</v>
       </c>
@@ -26095,7 +26169,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>44534</v>
       </c>
@@ -26112,7 +26186,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>44535</v>
       </c>
@@ -26132,7 +26206,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>44536</v>
       </c>
@@ -26149,7 +26223,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>44537</v>
       </c>
@@ -26169,7 +26243,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>44538</v>
       </c>
@@ -26189,7 +26263,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>44539</v>
       </c>
@@ -26209,7 +26283,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>44540</v>
       </c>
@@ -26226,7 +26300,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>44541</v>
       </c>
@@ -26246,7 +26320,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>44542</v>
       </c>
@@ -26263,7 +26337,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>44543</v>
       </c>
@@ -26283,7 +26357,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>44544</v>
       </c>
@@ -26303,7 +26377,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>44545</v>
       </c>
@@ -26323,7 +26397,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>44546</v>
       </c>
@@ -26346,7 +26420,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>44547</v>
       </c>
@@ -26366,7 +26440,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>44548</v>
       </c>
@@ -26383,7 +26457,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>44549</v>
       </c>
@@ -26403,7 +26477,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>44550</v>
       </c>
@@ -26426,7 +26500,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>44551</v>
       </c>
@@ -26446,7 +26520,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>44552</v>
       </c>
@@ -26469,7 +26543,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>44553</v>
       </c>
@@ -26489,7 +26563,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>44554</v>
       </c>
@@ -26509,7 +26583,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>44555</v>
       </c>
@@ -26529,7 +26603,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>44556</v>
       </c>
@@ -26546,7 +26620,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>44557</v>
       </c>
@@ -26566,7 +26640,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>44558</v>
       </c>
@@ -26586,7 +26660,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>44559</v>
       </c>
@@ -26609,7 +26683,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>44560</v>
       </c>
@@ -26629,7 +26703,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <v>44561</v>
       </c>
@@ -26646,10 +26720,10 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>5</v>
       </c>
@@ -26665,7 +26739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>11</v>
       </c>
@@ -26681,7 +26755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>28</v>
       </c>
@@ -26697,7 +26771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>26</v>
       </c>
@@ -26706,111 +26780,111 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="26"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="26"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="26"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="26"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="26"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="26"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="26"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="26"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="26"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="26"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="26"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="26"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="26"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="26"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="26"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="26"/>
     </row>
   </sheetData>
@@ -26838,17 +26912,17 @@
   <dimension ref="B1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>1454</v>
       </c>
@@ -26892,7 +26966,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
         <v>17</v>
       </c>
@@ -26900,60 +26974,60 @@
         <f>'22年1月'!E34</f>
         <v>13</v>
       </c>
-      <c r="D2" s="29" t="e">
-        <f>'[1]22年2月'!E34</f>
-        <v>#REF!</v>
+      <c r="D2" s="29">
+        <f>'22年2月'!E34</f>
+        <v>6</v>
       </c>
       <c r="E2" s="29">
-        <f>'[2]21年3月'!E34</f>
+        <f>'[1]21年3月'!E34</f>
         <v>9</v>
       </c>
       <c r="F2" s="29">
-        <f>'[2]21年4月'!E34</f>
+        <f>'[1]21年4月'!E34</f>
         <v>8</v>
       </c>
       <c r="G2" s="29">
-        <f>'[2]21年5月'!E34</f>
+        <f>'[1]21年5月'!E34</f>
         <v>10</v>
       </c>
       <c r="H2" s="29">
-        <f>'[2]21年6月'!E34</f>
+        <f>'[1]21年6月'!E34</f>
         <v>8</v>
       </c>
       <c r="I2" s="29">
-        <f>'[2]21年7月'!E34</f>
+        <f>'[1]21年7月'!E34</f>
         <v>10</v>
       </c>
       <c r="J2" s="29">
-        <f>'[2]21年8月'!E34</f>
+        <f>'[1]21年8月'!E34</f>
         <v>8</v>
       </c>
       <c r="K2" s="29">
-        <f>'[2]21年9月'!E34</f>
+        <f>'[1]21年9月'!E34</f>
         <v>7</v>
       </c>
       <c r="L2" s="29">
-        <f>'[2]21年10月'!E34</f>
+        <f>'[1]21年10月'!E34</f>
         <v>14</v>
       </c>
       <c r="M2" s="29">
-        <f>'[2]21年11月'!E34</f>
+        <f>'[1]21年11月'!E34</f>
         <v>12</v>
       </c>
       <c r="N2" s="29">
-        <f>'[2]21年12月'!E34</f>
+        <f>'[1]21年12月'!E34</f>
         <v>13</v>
       </c>
-      <c r="P2" t="e">
+      <c r="P2">
         <f>SUM(C2:N2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q2" t="e">
+        <v>118</v>
+      </c>
+      <c r="Q2">
         <f>P2/12</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+        <v>9.8333333333333339</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
         <v>16</v>
       </c>
@@ -26961,60 +27035,60 @@
         <f>'22年1月'!E35</f>
         <v>13</v>
       </c>
-      <c r="D3" s="29" t="e">
-        <f>'[1]22年2月'!E35</f>
-        <v>#REF!</v>
+      <c r="D3" s="29">
+        <f>'22年2月'!E35</f>
+        <v>4</v>
       </c>
       <c r="E3" s="29">
-        <f>'[2]21年3月'!E35</f>
+        <f>'[1]21年3月'!E35</f>
         <v>18</v>
       </c>
       <c r="F3" s="29">
-        <f>'[2]21年4月'!E35</f>
+        <f>'[1]21年4月'!E35</f>
         <v>17</v>
       </c>
       <c r="G3" s="29">
-        <f>'[2]21年5月'!E35</f>
+        <f>'[1]21年5月'!E35</f>
         <v>13</v>
       </c>
       <c r="H3" s="29">
-        <f>'[2]21年6月'!E35</f>
+        <f>'[1]21年6月'!E35</f>
         <v>14</v>
       </c>
       <c r="I3" s="29">
-        <f>'[2]21年7月'!E35</f>
+        <f>'[1]21年7月'!E35</f>
         <v>17</v>
       </c>
       <c r="J3" s="29">
-        <f>'[2]21年8月'!E35</f>
+        <f>'[1]21年8月'!E35</f>
         <v>18</v>
       </c>
       <c r="K3" s="29">
-        <f>'[2]21年9月'!E35</f>
+        <f>'[1]21年9月'!E35</f>
         <v>17</v>
       </c>
       <c r="L3" s="29">
-        <f>'[2]21年10月'!E35</f>
+        <f>'[1]21年10月'!E35</f>
         <v>12</v>
       </c>
       <c r="M3" s="29">
-        <f>'[2]21年11月'!E35</f>
+        <f>'[1]21年11月'!E35</f>
         <v>12</v>
       </c>
       <c r="N3" s="29">
-        <f>'[2]21年12月'!E35</f>
+        <f>'[1]21年12月'!E35</f>
         <v>13</v>
       </c>
-      <c r="P3" t="e">
+      <c r="P3">
         <f>SUM(C3:N3)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q3" t="e">
+        <v>168</v>
+      </c>
+      <c r="Q3">
         <f t="shared" ref="Q3:Q4" si="0">P3/12</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
         <v>18</v>
       </c>
@@ -27022,60 +27096,60 @@
         <f>'22年1月'!E36</f>
         <v>5</v>
       </c>
-      <c r="D4" s="29" t="e">
-        <f>'[1]22年2月'!E36</f>
-        <v>#REF!</v>
+      <c r="D4" s="29">
+        <f>'22年2月'!E36</f>
+        <v>1</v>
       </c>
       <c r="E4" s="29">
-        <f>'[2]21年3月'!E36</f>
+        <f>'[1]21年3月'!E36</f>
         <v>4</v>
       </c>
       <c r="F4" s="29">
-        <f>'[2]21年4月'!E36</f>
+        <f>'[1]21年4月'!E36</f>
         <v>5</v>
       </c>
       <c r="G4" s="29">
-        <f>'[2]21年5月'!E36</f>
+        <f>'[1]21年5月'!E36</f>
         <v>8</v>
       </c>
       <c r="H4" s="29">
-        <f>'[2]21年6月'!E36</f>
+        <f>'[1]21年6月'!E36</f>
         <v>8</v>
       </c>
       <c r="I4" s="29">
-        <f>'[2]21年7月'!E36</f>
+        <f>'[1]21年7月'!E36</f>
         <v>4</v>
       </c>
       <c r="J4" s="29">
-        <f>'[2]21年8月'!E36</f>
+        <f>'[1]21年8月'!E36</f>
         <v>5</v>
       </c>
       <c r="K4" s="29">
-        <f>'[2]21年9月'!E36</f>
+        <f>'[1]21年9月'!E36</f>
         <v>6</v>
       </c>
       <c r="L4" s="29">
-        <f>'[2]21年10月'!E36</f>
+        <f>'[1]21年10月'!E36</f>
         <v>5</v>
       </c>
       <c r="M4" s="29">
-        <f>'[2]21年11月'!E36</f>
+        <f>'[1]21年11月'!E36</f>
         <v>6</v>
       </c>
       <c r="N4" s="29">
-        <f>'[2]21年12月'!E36</f>
+        <f>'[1]21年12月'!E36</f>
         <v>5</v>
       </c>
-      <c r="P4" t="e">
+      <c r="P4">
         <f>SUM(C4:N4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q4" t="e">
+        <v>62</v>
+      </c>
+      <c r="Q4">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
+        <v>5.166666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>1454</v>
       </c>
@@ -27119,56 +27193,56 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="29">
-        <f>'[2]21年1月'!B34</f>
+        <f>'[1]21年1月'!B34</f>
         <v>14</v>
       </c>
       <c r="D27" s="29">
-        <f>'[2]21年2月'!B34</f>
+        <f>'[1]21年2月'!B34</f>
         <v>20</v>
       </c>
       <c r="E27" s="29">
-        <f>'[2]21年3月'!B34</f>
+        <f>'[1]21年3月'!B34</f>
         <v>24</v>
       </c>
       <c r="F27" s="29">
-        <f>'[2]21年4月'!B34</f>
+        <f>'[1]21年4月'!B34</f>
         <v>20</v>
       </c>
       <c r="G27" s="29">
-        <f>'[2]21年5月'!B34</f>
+        <f>'[1]21年5月'!B34</f>
         <v>21</v>
       </c>
       <c r="H27" s="29">
-        <f>'[2]21年6月'!B34</f>
+        <f>'[1]21年6月'!B34</f>
         <v>12</v>
       </c>
       <c r="I27" s="29">
-        <f>'[2]21年7月'!B34</f>
+        <f>'[1]21年7月'!B34</f>
         <v>19</v>
       </c>
       <c r="J27" s="29">
-        <f>'[2]21年8月'!B34</f>
+        <f>'[1]21年8月'!B34</f>
         <v>19</v>
       </c>
       <c r="K27" s="29">
-        <f>'[2]21年9月'!B34</f>
+        <f>'[1]21年9月'!B34</f>
         <v>24</v>
       </c>
       <c r="L27" s="29">
-        <f>'[2]21年10月'!B34</f>
+        <f>'[1]21年10月'!B34</f>
         <v>24</v>
       </c>
       <c r="M27" s="29">
-        <f>'[2]21年11月'!B34</f>
+        <f>'[1]21年11月'!B34</f>
         <v>23</v>
       </c>
       <c r="N27" s="29">
-        <f>'[2]21年12月'!B34</f>
+        <f>'[1]21年12月'!B34</f>
         <v>23</v>
       </c>
       <c r="P27">
@@ -27180,56 +27254,56 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="29">
-        <f>'[2]21年1月'!B35</f>
+        <f>'[1]21年1月'!B35</f>
         <v>2</v>
       </c>
       <c r="D28" s="29">
-        <f>'[2]21年2月'!B35</f>
+        <f>'[1]21年2月'!B35</f>
         <v>1</v>
       </c>
       <c r="E28" s="29">
-        <f>'[2]21年3月'!B35</f>
+        <f>'[1]21年3月'!B35</f>
         <v>1</v>
       </c>
       <c r="F28" s="29">
-        <f>'[2]21年4月'!B35</f>
+        <f>'[1]21年4月'!B35</f>
         <v>3</v>
       </c>
       <c r="G28" s="29">
-        <f>'[2]21年5月'!B35</f>
+        <f>'[1]21年5月'!B35</f>
         <v>2</v>
       </c>
       <c r="H28" s="29">
-        <f>'[2]21年6月'!B35</f>
+        <f>'[1]21年6月'!B35</f>
         <v>5</v>
       </c>
       <c r="I28" s="29">
-        <f>'[2]21年7月'!B35</f>
+        <f>'[1]21年7月'!B35</f>
         <v>3</v>
       </c>
       <c r="J28" s="29">
-        <f>'[2]21年8月'!B35</f>
+        <f>'[1]21年8月'!B35</f>
         <v>3</v>
       </c>
       <c r="K28" s="29">
-        <f>'[2]21年9月'!B35</f>
+        <f>'[1]21年9月'!B35</f>
         <v>1</v>
       </c>
       <c r="L28" s="29">
-        <f>'[2]21年10月'!B35</f>
+        <f>'[1]21年10月'!B35</f>
         <v>0</v>
       </c>
       <c r="M28" s="29">
-        <f>'[2]21年11月'!B35</f>
+        <f>'[1]21年11月'!B35</f>
         <v>1</v>
       </c>
       <c r="N28" s="29">
-        <f>'[2]21年12月'!B35</f>
+        <f>'[1]21年12月'!B35</f>
         <v>2</v>
       </c>
       <c r="P28">
@@ -27241,56 +27315,56 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="28" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="29">
-        <f>'[2]21年1月'!B36</f>
+        <f>'[1]21年1月'!B36</f>
         <v>9</v>
       </c>
       <c r="D29" s="29">
-        <f>'[2]21年2月'!B36</f>
+        <f>'[1]21年2月'!B36</f>
         <v>5</v>
       </c>
       <c r="E29" s="29">
-        <f>'[2]21年3月'!B36</f>
+        <f>'[1]21年3月'!B36</f>
         <v>1</v>
       </c>
       <c r="F29" s="29">
-        <f>'[2]21年4月'!B36</f>
+        <f>'[1]21年4月'!B36</f>
         <v>5</v>
       </c>
       <c r="G29" s="29">
-        <f>'[2]21年5月'!B36</f>
+        <f>'[1]21年5月'!B36</f>
         <v>2</v>
       </c>
       <c r="H29" s="29">
-        <f>'[2]21年6月'!B36</f>
+        <f>'[1]21年6月'!B36</f>
         <v>5</v>
       </c>
       <c r="I29" s="29">
-        <f>'[2]21年7月'!B36</f>
+        <f>'[1]21年7月'!B36</f>
         <v>6</v>
       </c>
       <c r="J29" s="29">
-        <f>'[2]21年8月'!B36</f>
+        <f>'[1]21年8月'!B36</f>
         <v>7</v>
       </c>
       <c r="K29" s="29">
-        <f>'[2]21年9月'!B36</f>
+        <f>'[1]21年9月'!B36</f>
         <v>4</v>
       </c>
       <c r="L29" s="29">
-        <f>'[2]21年10月'!B36</f>
+        <f>'[1]21年10月'!B36</f>
         <v>2</v>
       </c>
       <c r="M29" s="29">
-        <f>'[2]21年11月'!B36</f>
+        <f>'[1]21年11月'!B36</f>
         <v>4</v>
       </c>
       <c r="N29" s="29">
-        <f>'[2]21年12月'!B36</f>
+        <f>'[1]21年12月'!B36</f>
         <v>1</v>
       </c>
       <c r="P29">
@@ -27302,56 +27376,56 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="28" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="29">
-        <f>'[2]21年1月'!B37</f>
+        <f>'[1]21年1月'!B37</f>
         <v>4</v>
       </c>
       <c r="D30" s="29">
-        <f>'[2]21年2月'!B37</f>
+        <f>'[1]21年2月'!B37</f>
         <v>2</v>
       </c>
       <c r="E30" s="29">
-        <f>'[2]21年3月'!B37</f>
+        <f>'[1]21年3月'!B37</f>
         <v>5</v>
       </c>
       <c r="F30" s="29">
-        <f>'[2]21年4月'!B37</f>
+        <f>'[1]21年4月'!B37</f>
         <v>2</v>
       </c>
       <c r="G30" s="29">
-        <f>'[2]21年5月'!B37</f>
+        <f>'[1]21年5月'!B37</f>
         <v>6</v>
       </c>
       <c r="H30" s="29">
-        <f>'[2]21年6月'!B37</f>
+        <f>'[1]21年6月'!B37</f>
         <v>8</v>
       </c>
       <c r="I30" s="29">
-        <f>'[2]21年7月'!B37</f>
+        <f>'[1]21年7月'!B37</f>
         <v>3</v>
       </c>
       <c r="J30" s="29">
-        <f>'[2]21年8月'!B37</f>
+        <f>'[1]21年8月'!B37</f>
         <v>2</v>
       </c>
       <c r="K30" s="29">
-        <f>'[2]21年9月'!B37</f>
+        <f>'[1]21年9月'!B37</f>
         <v>0</v>
       </c>
       <c r="L30" s="29">
-        <f>'[2]21年10月'!B37</f>
+        <f>'[1]21年10月'!B37</f>
         <v>5</v>
       </c>
       <c r="M30" s="29">
-        <f>'[2]21年11月'!B37</f>
+        <f>'[1]21年11月'!B37</f>
         <v>2</v>
       </c>
       <c r="N30" s="29">
-        <f>'[2]21年12月'!B37</f>
+        <f>'[1]21年12月'!B37</f>
         <v>5</v>
       </c>
       <c r="P30">
@@ -27380,16 +27454,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -27403,7 +27477,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -27426,7 +27500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -27440,7 +27514,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1801</v>
       </c>
@@ -27457,7 +27531,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -27477,7 +27551,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1803</v>
       </c>
@@ -27494,7 +27568,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -27508,7 +27582,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -27520,28 +27594,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -27578,16 +27652,16 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -27601,7 +27675,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -27624,7 +27698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5713</v>
       </c>
@@ -27644,7 +27718,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5715</v>
       </c>
@@ -27661,7 +27735,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5714</v>
       </c>
@@ -27678,7 +27752,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5716</v>
       </c>
@@ -27695,7 +27769,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -27709,7 +27783,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -27721,28 +27795,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -27779,16 +27853,16 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -27802,7 +27876,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -27825,7 +27899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>192</v>
       </c>
@@ -27842,7 +27916,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>193</v>
       </c>
@@ -27859,7 +27933,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>194</v>
       </c>
@@ -27876,7 +27950,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -27893,7 +27967,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>196</v>
       </c>
@@ -27910,7 +27984,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -27924,7 +27998,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -27936,28 +28010,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -27993,16 +28067,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -28016,7 +28090,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -28039,7 +28113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>900</v>
       </c>
@@ -28056,7 +28130,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>893</v>
       </c>
@@ -28073,7 +28147,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>896</v>
       </c>
@@ -28090,7 +28164,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>897</v>
       </c>
@@ -28104,7 +28178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>898</v>
       </c>
@@ -28115,7 +28189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -28129,7 +28203,7 @@
         <v>8176</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -28141,28 +28215,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -28199,16 +28273,16 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -28222,7 +28296,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -28245,7 +28319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5161</v>
       </c>
@@ -28262,7 +28336,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5814</v>
       </c>
@@ -28279,7 +28353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5815</v>
       </c>
@@ -28296,7 +28370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5816</v>
       </c>
@@ -28313,7 +28387,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -28327,7 +28401,7 @@
         <v>4314</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -28339,28 +28413,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -28397,16 +28471,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -28420,7 +28494,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -28443,7 +28517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5830</v>
       </c>
@@ -28457,7 +28531,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5831</v>
       </c>
@@ -28474,7 +28548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5187</v>
       </c>
@@ -28488,7 +28562,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5833</v>
       </c>
@@ -28499,7 +28573,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -28513,7 +28587,7 @@
         <v>4646</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -28523,28 +28597,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -28578,20 +28652,20 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -28617,7 +28691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44593</v>
       </c>
@@ -28640,7 +28714,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>44594</v>
       </c>
@@ -28657,7 +28731,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>44595</v>
       </c>
@@ -28677,7 +28751,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>44596</v>
       </c>
@@ -28694,7 +28768,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>44597</v>
       </c>
@@ -28714,7 +28788,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>44598</v>
       </c>
@@ -28731,113 +28805,194 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>44599</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>1405</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1496</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>44600</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>1001</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>44601</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <v>2006</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>44602</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <v>1447</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>44603</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>1984</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>44604</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>44605</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>44606</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>44607</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>44608</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>44609</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>44610</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>44611</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>44612</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>44613</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>44614</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>44615</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>44616</v>
       </c>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>44617</v>
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>44618</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>44619</v>
       </c>
@@ -28845,41 +29000,41 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>44620</v>
       </c>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
@@ -28892,26 +29047,26 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B36">
         <f>COUNTIF(E2:E32,"CV后看懂")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -28920,121 +29075,121 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="32"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
     </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="32"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -29071,16 +29226,16 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -29094,7 +29249,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -29117,7 +29272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5193</v>
       </c>
@@ -29134,7 +29289,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5827</v>
       </c>
@@ -29151,7 +29306,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5828</v>
       </c>
@@ -29171,7 +29326,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5220</v>
       </c>
@@ -29191,7 +29346,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -29205,7 +29360,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -29217,28 +29372,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -29274,16 +29429,16 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -29297,7 +29452,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -29320,7 +29475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5838</v>
       </c>
@@ -29334,7 +29489,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5839</v>
       </c>
@@ -29354,7 +29509,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5840</v>
       </c>
@@ -29371,7 +29526,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5841</v>
       </c>
@@ -29388,7 +29543,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -29402,7 +29557,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -29414,28 +29569,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -29472,17 +29627,17 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -29508,103 +29663,103 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>5</v>
       </c>
@@ -29620,7 +29775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>11</v>
       </c>
@@ -29636,7 +29791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>28</v>
       </c>
@@ -29652,7 +29807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>26</v>
       </c>
@@ -29661,111 +29816,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
     </row>
   </sheetData>
@@ -29795,16 +29950,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -29816,7 +29971,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -29839,7 +29994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -29847,7 +30002,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -29857,28 +30012,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -29915,17 +30070,17 @@
       <selection activeCell="D34" sqref="D34:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -29951,7 +30106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>44256</v>
       </c>
@@ -29974,7 +30129,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44257</v>
       </c>
@@ -29997,7 +30152,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44258</v>
       </c>
@@ -30023,7 +30178,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44259</v>
       </c>
@@ -30046,7 +30201,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44260</v>
       </c>
@@ -30066,7 +30221,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44261</v>
       </c>
@@ -30086,7 +30241,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44262</v>
       </c>
@@ -30109,7 +30264,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44263</v>
       </c>
@@ -30129,7 +30284,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44264</v>
       </c>
@@ -30149,7 +30304,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44265</v>
       </c>
@@ -30169,7 +30324,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44266</v>
       </c>
@@ -30189,7 +30344,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44267</v>
       </c>
@@ -30209,7 +30364,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44268</v>
       </c>
@@ -30232,7 +30387,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44269</v>
       </c>
@@ -30255,7 +30410,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44270</v>
       </c>
@@ -30272,7 +30427,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44271</v>
       </c>
@@ -30289,7 +30444,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44272</v>
       </c>
@@ -30309,7 +30464,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44273</v>
       </c>
@@ -30329,7 +30484,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44274</v>
       </c>
@@ -30346,7 +30501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44275</v>
       </c>
@@ -30366,7 +30521,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44276</v>
       </c>
@@ -30383,7 +30538,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44277</v>
       </c>
@@ -30403,7 +30558,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44278</v>
       </c>
@@ -30423,7 +30578,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44279</v>
       </c>
@@ -30443,7 +30598,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44280</v>
       </c>
@@ -30463,7 +30618,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44281</v>
       </c>
@@ -30483,7 +30638,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44282</v>
       </c>
@@ -30503,7 +30658,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44283</v>
       </c>
@@ -30523,7 +30678,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>44284</v>
       </c>
@@ -30546,7 +30701,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>44285</v>
       </c>
@@ -30569,7 +30724,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>44286</v>
       </c>
@@ -30589,10 +30744,10 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
@@ -30608,7 +30763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>11</v>
       </c>
@@ -30624,7 +30779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>28</v>
       </c>
@@ -30640,7 +30795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>26</v>
       </c>
@@ -30649,113 +30804,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
     </row>
   </sheetData>
@@ -30786,18 +30941,18 @@
       <selection activeCell="D34" sqref="D34:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -30823,7 +30978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>44287</v>
       </c>
@@ -30843,7 +30998,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>44288</v>
       </c>
@@ -30863,7 +31018,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>44289</v>
       </c>
@@ -30883,7 +31038,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>44290</v>
       </c>
@@ -30903,7 +31058,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>44291</v>
       </c>
@@ -30923,7 +31078,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>44292</v>
       </c>
@@ -30943,7 +31098,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>44293</v>
       </c>
@@ -30966,7 +31121,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>44294</v>
       </c>
@@ -30986,7 +31141,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>44295</v>
       </c>
@@ -31006,7 +31161,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>44296</v>
       </c>
@@ -31023,7 +31178,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>44297</v>
       </c>
@@ -31046,7 +31201,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>44298</v>
       </c>
@@ -31069,7 +31224,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>44299</v>
       </c>
@@ -31089,7 +31244,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>44300</v>
       </c>
@@ -31109,7 +31264,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>44301</v>
       </c>
@@ -31129,7 +31284,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>44302</v>
       </c>
@@ -31152,7 +31307,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>44303</v>
       </c>
@@ -31178,7 +31333,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>44304</v>
       </c>
@@ -31198,7 +31353,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>44305</v>
       </c>
@@ -31221,7 +31376,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>44306</v>
       </c>
@@ -31244,7 +31399,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>44307</v>
       </c>
@@ -31267,7 +31422,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>44308</v>
       </c>
@@ -31293,7 +31448,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>44309</v>
       </c>
@@ -31313,7 +31468,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>44310</v>
       </c>
@@ -31333,7 +31488,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>44311</v>
       </c>
@@ -31353,7 +31508,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>44312</v>
       </c>
@@ -31373,7 +31528,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>44313</v>
       </c>
@@ -31393,7 +31548,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>44314</v>
       </c>
@@ -31416,7 +31571,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>44315</v>
       </c>
@@ -31436,7 +31591,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>44316</v>
       </c>
@@ -31459,13 +31614,13 @@
         <v>315</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>5</v>
       </c>
@@ -31481,7 +31636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>11</v>
       </c>
@@ -31497,7 +31652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>28</v>
       </c>
@@ -31513,7 +31668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>26</v>
       </c>
@@ -31522,113 +31677,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
     </row>
   </sheetData>
@@ -31659,17 +31814,17 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -31695,7 +31850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>44317</v>
       </c>
@@ -31715,7 +31870,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>44318</v>
       </c>
@@ -31735,7 +31890,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>44319</v>
       </c>
@@ -31755,7 +31910,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44320</v>
       </c>
@@ -31778,7 +31933,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44321</v>
       </c>
@@ -31798,7 +31953,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44322</v>
       </c>
@@ -31818,7 +31973,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>44323</v>
       </c>
@@ -31841,7 +31996,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>44324</v>
       </c>
@@ -31861,7 +32016,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44325</v>
       </c>
@@ -31881,7 +32036,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>44326</v>
       </c>
@@ -31901,7 +32056,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>44327</v>
       </c>
@@ -31924,7 +32079,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44328</v>
       </c>
@@ -31944,7 +32099,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>44329</v>
       </c>
@@ -31964,7 +32119,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44330</v>
       </c>
@@ -31984,7 +32139,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>44331</v>
       </c>
@@ -32001,7 +32156,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>44332</v>
       </c>
@@ -32027,7 +32182,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>44333</v>
       </c>
@@ -32047,7 +32202,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>44334</v>
       </c>
@@ -32070,7 +32225,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>44335</v>
       </c>
@@ -32093,7 +32248,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>44336</v>
       </c>
@@ -32116,7 +32271,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>44337</v>
       </c>
@@ -32136,7 +32291,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>44338</v>
       </c>
@@ -32156,7 +32311,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>44339</v>
       </c>
@@ -32176,7 +32331,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>44340</v>
       </c>
@@ -32196,7 +32351,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>44341</v>
       </c>
@@ -32216,7 +32371,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>44342</v>
       </c>
@@ -32239,7 +32394,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>44343</v>
       </c>
@@ -32259,7 +32414,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>44344</v>
       </c>
@@ -32276,7 +32431,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>44345</v>
       </c>
@@ -32296,7 +32451,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>44346</v>
       </c>
@@ -32319,7 +32474,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>44347</v>
       </c>
@@ -32342,10 +32497,10 @@
         <v>439</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>5</v>
       </c>
@@ -32361,7 +32516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>11</v>
       </c>
@@ -32377,7 +32532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>28</v>
       </c>
@@ -32393,7 +32548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>26</v>
       </c>
@@ -32402,21 +32557,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>395</v>
       </c>
@@ -32425,99 +32580,99 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
     </row>
   </sheetData>
@@ -32551,18 +32706,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -32588,7 +32743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44348</v>
       </c>
@@ -32608,7 +32763,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>44349</v>
       </c>
@@ -32631,7 +32786,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>44350</v>
       </c>
@@ -32651,7 +32806,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>44351</v>
       </c>
@@ -32671,7 +32826,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>44352</v>
       </c>
@@ -32694,7 +32849,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>44353</v>
       </c>
@@ -32714,7 +32869,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>44354</v>
       </c>
@@ -32737,7 +32892,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>44355</v>
       </c>
@@ -32757,7 +32912,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>44356</v>
       </c>
@@ -32777,7 +32932,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>44357</v>
       </c>
@@ -32800,7 +32955,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>44358</v>
       </c>
@@ -32823,7 +32978,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>44359</v>
       </c>
@@ -32843,7 +32998,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>44360</v>
       </c>
@@ -32863,7 +33018,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>44361</v>
       </c>
@@ -32886,7 +33041,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>44362</v>
       </c>
@@ -32906,7 +33061,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>44363</v>
       </c>
@@ -32929,7 +33084,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>44364</v>
       </c>
@@ -32952,7 +33107,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>44365</v>
       </c>
@@ -32972,7 +33127,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>44366</v>
       </c>
@@ -32995,7 +33150,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>44367</v>
       </c>
@@ -33015,7 +33170,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>44368</v>
       </c>
@@ -33038,7 +33193,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>44369</v>
       </c>
@@ -33058,7 +33213,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>44370</v>
       </c>
@@ -33081,7 +33236,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>44371</v>
       </c>
@@ -33104,7 +33259,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>44372</v>
       </c>
@@ -33127,7 +33282,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>44373</v>
       </c>
@@ -33150,7 +33305,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>44374</v>
       </c>
@@ -33170,7 +33325,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>44375</v>
       </c>
@@ -33190,7 +33345,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>44376</v>
       </c>
@@ -33210,7 +33365,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>44377</v>
       </c>
@@ -33233,13 +33388,13 @@
         <v>574</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
@@ -33255,7 +33410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
@@ -33271,7 +33426,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
@@ -33287,7 +33442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -33296,27 +33451,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>573</v>
       </c>
@@ -33325,96 +33480,96 @@
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -33448,18 +33603,18 @@
       <selection activeCell="D34" sqref="D34:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -33485,7 +33640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>44378</v>
       </c>
@@ -33508,7 +33663,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>44379</v>
       </c>
@@ -33528,7 +33683,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>44380</v>
       </c>
@@ -33548,7 +33703,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>44381</v>
       </c>
@@ -33568,7 +33723,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>44382</v>
       </c>
@@ -33588,7 +33743,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>44383</v>
       </c>
@@ -33608,7 +33763,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>44384</v>
       </c>
@@ -33628,7 +33783,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>44385</v>
       </c>
@@ -33648,7 +33803,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>44386</v>
       </c>
@@ -33668,7 +33823,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>44387</v>
       </c>
@@ -33691,7 +33846,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>44388</v>
       </c>
@@ -33711,7 +33866,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>44389</v>
       </c>
@@ -33731,7 +33886,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>44390</v>
       </c>
@@ -33754,7 +33909,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>44391</v>
       </c>
@@ -33777,7 +33932,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>44392</v>
       </c>
@@ -33797,7 +33952,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>44393</v>
       </c>
@@ -33820,7 +33975,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>44394</v>
       </c>
@@ -33840,7 +33995,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>44395</v>
       </c>
@@ -33860,7 +34015,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>44396</v>
       </c>
@@ -33880,7 +34035,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>44397</v>
       </c>
@@ -33900,7 +34055,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>44398</v>
       </c>
@@ -33920,7 +34075,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>44399</v>
       </c>
@@ -33940,7 +34095,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>44400</v>
       </c>
@@ -33960,7 +34115,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>44401</v>
       </c>
@@ -33980,7 +34135,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>44402</v>
       </c>
@@ -34000,7 +34155,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>44403</v>
       </c>
@@ -34020,7 +34175,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>44404</v>
       </c>
@@ -34037,7 +34192,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>44405</v>
       </c>
@@ -34057,7 +34212,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>44406</v>
       </c>
@@ -34077,7 +34232,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>44407</v>
       </c>
@@ -34094,7 +34249,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>44408</v>
       </c>
@@ -34114,10 +34269,10 @@
         <v>697</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>5</v>
       </c>
@@ -34133,7 +34288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>11</v>
       </c>
@@ -34149,7 +34304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>28</v>
       </c>
@@ -34165,7 +34320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>26</v>
       </c>
@@ -34174,24 +34329,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>724</v>
       </c>
@@ -34200,107 +34355,107 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
     </row>
   </sheetData>
@@ -34334,17 +34489,17 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -34370,7 +34525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>44409</v>
       </c>
@@ -34390,7 +34545,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>44410</v>
       </c>
@@ -34413,7 +34568,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>44411</v>
       </c>
@@ -34436,7 +34591,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>44412</v>
       </c>
@@ -34456,7 +34611,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>44413</v>
       </c>
@@ -34479,7 +34634,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>44414</v>
       </c>
@@ -34499,7 +34654,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>44415</v>
       </c>
@@ -34522,7 +34677,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>44416</v>
       </c>
@@ -34545,7 +34700,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>44417</v>
       </c>
@@ -34565,7 +34720,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>44418</v>
       </c>
@@ -34585,7 +34740,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>44419</v>
       </c>
@@ -34605,7 +34760,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>44420</v>
       </c>
@@ -34625,7 +34780,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>44421</v>
       </c>
@@ -34645,7 +34800,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>44422</v>
       </c>
@@ -34665,7 +34820,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>44423</v>
       </c>
@@ -34685,7 +34840,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>44424</v>
       </c>
@@ -34708,7 +34863,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>44425</v>
       </c>
@@ -34725,7 +34880,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>44426</v>
       </c>
@@ -34745,7 +34900,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>44427</v>
       </c>
@@ -34765,7 +34920,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>44428</v>
       </c>
@@ -34785,7 +34940,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>44429</v>
       </c>
@@ -34808,7 +34963,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>44430</v>
       </c>
@@ -34828,7 +34983,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>44431</v>
       </c>
@@ -34848,7 +35003,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>44432</v>
       </c>
@@ -34868,7 +35023,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>44433</v>
       </c>
@@ -34888,7 +35043,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>44434</v>
       </c>
@@ -34908,7 +35063,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>44435</v>
       </c>
@@ -34928,7 +35083,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>44436</v>
       </c>
@@ -34951,7 +35106,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>44437</v>
       </c>
@@ -34971,7 +35126,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>44438</v>
       </c>
@@ -34994,7 +35149,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>44439</v>
       </c>
@@ -35017,10 +35172,10 @@
         <v>850</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>5</v>
       </c>
@@ -35036,7 +35191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>11</v>
       </c>
@@ -35052,7 +35207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>28</v>
       </c>
@@ -35068,7 +35223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>26</v>
       </c>
@@ -35077,24 +35232,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>763</v>
       </c>
@@ -35103,103 +35258,103 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="18"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="18"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="18"/>
     </row>
   </sheetData>
@@ -35232,18 +35387,18 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -35269,7 +35424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>44440</v>
       </c>
@@ -35289,7 +35444,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>44441</v>
       </c>
@@ -35309,7 +35464,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>44442</v>
       </c>
@@ -35329,7 +35484,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>44443</v>
       </c>
@@ -35349,7 +35504,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>44444</v>
       </c>
@@ -35372,7 +35527,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>44445</v>
       </c>
@@ -35392,7 +35547,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>44446</v>
       </c>
@@ -35412,7 +35567,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>44447</v>
       </c>
@@ -35432,7 +35587,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>44448</v>
       </c>
@@ -35452,7 +35607,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44449</v>
       </c>
@@ -35472,7 +35627,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>44450</v>
       </c>
@@ -35492,7 +35647,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>44451</v>
       </c>
@@ -35515,7 +35670,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>44452</v>
       </c>
@@ -35535,7 +35690,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>44453</v>
       </c>
@@ -35558,7 +35713,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>44454</v>
       </c>
@@ -35578,7 +35733,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>44455</v>
       </c>
@@ -35601,7 +35756,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>44456</v>
       </c>
@@ -35621,7 +35776,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>44457</v>
       </c>
@@ -35641,7 +35796,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>44458</v>
       </c>
@@ -35661,7 +35816,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>44459</v>
       </c>
@@ -35681,7 +35836,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>44460</v>
       </c>
@@ -35698,7 +35853,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>44461</v>
       </c>
@@ -35718,7 +35873,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>44462</v>
       </c>
@@ -35735,7 +35890,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>44463</v>
       </c>
@@ -35755,7 +35910,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>44464</v>
       </c>
@@ -35778,7 +35933,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>44465</v>
       </c>
@@ -35798,7 +35953,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>44466</v>
       </c>
@@ -35818,7 +35973,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>44467</v>
       </c>
@@ -35838,7 +35993,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>44468</v>
       </c>
@@ -35858,7 +36013,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>44469</v>
       </c>
@@ -35878,13 +36033,13 @@
         <v>982</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>5</v>
       </c>
@@ -35900,7 +36055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>11</v>
       </c>
@@ -35916,7 +36071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>28</v>
       </c>
@@ -35932,7 +36087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>26</v>
       </c>
@@ -35941,24 +36096,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>983</v>
       </c>
@@ -35967,103 +36122,103 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="22"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="22"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="22"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="22"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="22"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="22"/>
     </row>
   </sheetData>

--- a/22年力扣每日一题做题情况.xlsx
+++ b/22年力扣每日一题做题情况.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE50670-3533-4345-9D8C-ACB7B59F6DB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFB5CDB-6170-4F05-B539-4B6E040278AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="22年1月" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="1515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="1522">
   <si>
     <t>贪心</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6082,6 +6082,34 @@
   </si>
   <si>
     <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞地的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs/bfs/并查集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“气球”的最大数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10130,7 +10158,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -23416,17 +23444,17 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -23452,7 +23480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
@@ -23469,7 +23497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="27">
         <v>44563</v>
       </c>
@@ -23489,7 +23517,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="27">
         <v>44564</v>
       </c>
@@ -23509,7 +23537,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="27">
         <v>44565</v>
       </c>
@@ -23529,7 +23557,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="27">
         <v>44566</v>
       </c>
@@ -23546,7 +23574,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="27">
         <v>44567</v>
       </c>
@@ -23566,7 +23594,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="27">
         <v>44568</v>
       </c>
@@ -23586,7 +23614,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="27">
         <v>44569</v>
       </c>
@@ -23609,7 +23637,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="27">
         <v>44570</v>
       </c>
@@ -23626,7 +23654,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="27">
         <v>44571</v>
       </c>
@@ -23646,7 +23674,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="27">
         <v>44572</v>
       </c>
@@ -23666,7 +23694,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="27">
         <v>44573</v>
       </c>
@@ -23689,7 +23717,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="27">
         <v>44574</v>
       </c>
@@ -23706,7 +23734,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="27">
         <v>44575</v>
       </c>
@@ -23726,7 +23754,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="27">
         <v>44576</v>
       </c>
@@ -23746,7 +23774,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="27">
         <v>44577</v>
       </c>
@@ -23769,7 +23797,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="27">
         <v>44578</v>
       </c>
@@ -23789,7 +23817,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="27">
         <v>44579</v>
       </c>
@@ -23809,7 +23837,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="27">
         <v>44580</v>
       </c>
@@ -23829,7 +23857,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="27">
         <v>44581</v>
       </c>
@@ -23849,7 +23877,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="27">
         <v>44582</v>
       </c>
@@ -23869,7 +23897,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="27">
         <v>44583</v>
       </c>
@@ -23886,7 +23914,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="27">
         <v>44584</v>
       </c>
@@ -23906,7 +23934,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="27">
         <v>44585</v>
       </c>
@@ -23926,7 +23954,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="27">
         <v>44586</v>
       </c>
@@ -23946,7 +23974,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="27">
         <v>44587</v>
       </c>
@@ -23966,7 +23994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="27">
         <v>44588</v>
       </c>
@@ -23986,7 +24014,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="27">
         <v>44589</v>
       </c>
@@ -24006,7 +24034,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="27">
         <v>44590</v>
       </c>
@@ -24029,7 +24057,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="27">
         <v>44591</v>
       </c>
@@ -24052,7 +24080,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="27">
         <v>44592</v>
       </c>
@@ -24072,10 +24100,10 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -24091,7 +24119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -24107,7 +24135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -24123,7 +24151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
@@ -24132,18 +24160,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="30" t="s">
         <v>1366</v>
       </c>
@@ -24152,127 +24180,127 @@
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="E42" s="30"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="30"/>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="31"/>
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
       <c r="D48" s="31"/>
       <c r="E48" s="31"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="31"/>
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="31"/>
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -24306,18 +24334,18 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -24343,7 +24371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="24">
         <v>44470</v>
       </c>
@@ -24363,7 +24391,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
         <v>44471</v>
       </c>
@@ -24383,7 +24411,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>44472</v>
       </c>
@@ -24406,7 +24434,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
         <v>44473</v>
       </c>
@@ -24426,7 +24454,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
         <v>44474</v>
       </c>
@@ -24443,7 +24471,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
         <v>44475</v>
       </c>
@@ -24460,7 +24488,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>44476</v>
       </c>
@@ -24477,7 +24505,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
         <v>44477</v>
       </c>
@@ -24500,7 +24528,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>44478</v>
       </c>
@@ -24523,7 +24551,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="24">
         <v>44479</v>
       </c>
@@ -24543,7 +24571,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
         <v>44480</v>
       </c>
@@ -24563,7 +24591,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
         <v>44481</v>
       </c>
@@ -24586,7 +24614,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="24">
         <v>44482</v>
       </c>
@@ -24606,7 +24634,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="24">
         <v>44483</v>
       </c>
@@ -24626,7 +24654,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="24">
         <v>44484</v>
       </c>
@@ -24646,7 +24674,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="24">
         <v>44485</v>
       </c>
@@ -24669,7 +24697,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="24">
         <v>44486</v>
       </c>
@@ -24692,7 +24720,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="24">
         <v>44487</v>
       </c>
@@ -24715,7 +24743,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="24">
         <v>44488</v>
       </c>
@@ -24738,7 +24766,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="24">
         <v>44489</v>
       </c>
@@ -24758,7 +24786,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="24">
         <v>44490</v>
       </c>
@@ -24778,7 +24806,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="24">
         <v>44491</v>
       </c>
@@ -24801,7 +24829,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="24">
         <v>44492</v>
       </c>
@@ -24821,7 +24849,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="24">
         <v>44493</v>
       </c>
@@ -24844,7 +24872,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="24">
         <v>44494</v>
       </c>
@@ -24864,7 +24892,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="24">
         <v>44495</v>
       </c>
@@ -24881,7 +24909,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="24">
         <v>44496</v>
       </c>
@@ -24901,7 +24929,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="24">
         <v>44497</v>
       </c>
@@ -24921,7 +24949,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="24">
         <v>44498</v>
       </c>
@@ -24941,7 +24969,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="24">
         <v>44499</v>
       </c>
@@ -24964,7 +24992,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="24">
         <v>44500</v>
       </c>
@@ -24984,10 +25012,10 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="24"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="24" t="s">
         <v>5</v>
       </c>
@@ -25003,7 +25031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
         <v>11</v>
       </c>
@@ -25019,7 +25047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="24" t="s">
         <v>28</v>
       </c>
@@ -25035,7 +25063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="24" t="s">
         <v>26</v>
       </c>
@@ -25044,24 +25072,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="24"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="24"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="24"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="24"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="30" t="s">
         <v>1096</v>
       </c>
@@ -25070,103 +25098,103 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="24"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="24"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="24"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="24"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="24"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="24"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="24"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="24"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="24"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="24"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="24"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="24"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="24"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="24"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="24"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="24"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="24"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="24"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="24"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="24"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="24"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="24"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="24"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="24"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="24"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="24"/>
     </row>
   </sheetData>
@@ -25199,17 +25227,17 @@
       <selection activeCell="A43" sqref="A43:D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -25235,7 +25263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="25">
         <v>44501</v>
       </c>
@@ -25255,7 +25283,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="25">
         <v>44502</v>
       </c>
@@ -25278,7 +25306,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="25">
         <v>44503</v>
       </c>
@@ -25301,7 +25329,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="25">
         <v>44504</v>
       </c>
@@ -25324,7 +25352,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="25">
         <v>44505</v>
       </c>
@@ -25347,7 +25375,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="25">
         <v>44506</v>
       </c>
@@ -25367,7 +25395,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="25">
         <v>44507</v>
       </c>
@@ -25387,7 +25415,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="25">
         <v>44508</v>
       </c>
@@ -25407,7 +25435,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="25">
         <v>44509</v>
       </c>
@@ -25427,7 +25455,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="25">
         <v>44510</v>
       </c>
@@ -25447,7 +25475,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="25">
         <v>44511</v>
       </c>
@@ -25467,7 +25495,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="25">
         <v>44512</v>
       </c>
@@ -25487,7 +25515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="25">
         <v>44513</v>
       </c>
@@ -25507,7 +25535,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="25">
         <v>44514</v>
       </c>
@@ -25527,7 +25555,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="25">
         <v>44515</v>
       </c>
@@ -25547,7 +25575,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="25">
         <v>44516</v>
       </c>
@@ -25567,7 +25595,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="25">
         <v>44517</v>
       </c>
@@ -25587,7 +25615,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="25">
         <v>44518</v>
       </c>
@@ -25607,7 +25635,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="25">
         <v>44519</v>
       </c>
@@ -25627,7 +25655,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="25">
         <v>44520</v>
       </c>
@@ -25647,7 +25675,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="25">
         <v>44521</v>
       </c>
@@ -25667,7 +25695,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="25">
         <v>44522</v>
       </c>
@@ -25693,7 +25721,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="25">
         <v>44523</v>
       </c>
@@ -25713,7 +25741,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="25">
         <v>44524</v>
       </c>
@@ -25733,7 +25761,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="25">
         <v>44525</v>
       </c>
@@ -25756,7 +25784,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="25">
         <v>44526</v>
       </c>
@@ -25776,7 +25804,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="25">
         <v>44527</v>
       </c>
@@ -25799,7 +25827,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="25">
         <v>44528</v>
       </c>
@@ -25819,7 +25847,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="25">
         <v>44529</v>
       </c>
@@ -25839,7 +25867,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="25">
         <v>44530</v>
       </c>
@@ -25859,13 +25887,13 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="25"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="25"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="25" t="s">
         <v>5</v>
       </c>
@@ -25881,7 +25909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="25" t="s">
         <v>11</v>
       </c>
@@ -25897,7 +25925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="25" t="s">
         <v>28</v>
       </c>
@@ -25913,7 +25941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="25" t="s">
         <v>26</v>
       </c>
@@ -25922,24 +25950,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="25"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="25"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="25"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="25"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="30" t="s">
         <v>1234</v>
       </c>
@@ -25947,103 +25975,103 @@
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="25"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="25"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="25"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="25"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="25"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="25"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="25"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="25"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="25"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="25"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="25"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="25"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="25"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="25"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="25"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="25"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="25"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="25"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="25"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="25"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="25"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="25"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="25"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="25"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="25"/>
     </row>
   </sheetData>
@@ -26076,17 +26104,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -26112,7 +26140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="26">
         <v>44531</v>
       </c>
@@ -26129,7 +26157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="26">
         <v>44532</v>
       </c>
@@ -26149,7 +26177,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="26">
         <v>44533</v>
       </c>
@@ -26169,7 +26197,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="26">
         <v>44534</v>
       </c>
@@ -26186,7 +26214,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="26">
         <v>44535</v>
       </c>
@@ -26206,7 +26234,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="26">
         <v>44536</v>
       </c>
@@ -26223,7 +26251,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="26">
         <v>44537</v>
       </c>
@@ -26243,7 +26271,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="26">
         <v>44538</v>
       </c>
@@ -26263,7 +26291,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="26">
         <v>44539</v>
       </c>
@@ -26283,7 +26311,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="26">
         <v>44540</v>
       </c>
@@ -26300,7 +26328,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="26">
         <v>44541</v>
       </c>
@@ -26320,7 +26348,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="26">
         <v>44542</v>
       </c>
@@ -26337,7 +26365,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="26">
         <v>44543</v>
       </c>
@@ -26357,7 +26385,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="26">
         <v>44544</v>
       </c>
@@ -26377,7 +26405,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="26">
         <v>44545</v>
       </c>
@@ -26397,7 +26425,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="26">
         <v>44546</v>
       </c>
@@ -26420,7 +26448,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="26">
         <v>44547</v>
       </c>
@@ -26440,7 +26468,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="26">
         <v>44548</v>
       </c>
@@ -26457,7 +26485,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="26">
         <v>44549</v>
       </c>
@@ -26477,7 +26505,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="26">
         <v>44550</v>
       </c>
@@ -26500,7 +26528,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="26">
         <v>44551</v>
       </c>
@@ -26520,7 +26548,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="26">
         <v>44552</v>
       </c>
@@ -26543,7 +26571,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="26">
         <v>44553</v>
       </c>
@@ -26563,7 +26591,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="26">
         <v>44554</v>
       </c>
@@ -26583,7 +26611,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="26">
         <v>44555</v>
       </c>
@@ -26603,7 +26631,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="26">
         <v>44556</v>
       </c>
@@ -26620,7 +26648,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="26">
         <v>44557</v>
       </c>
@@ -26640,7 +26668,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="26">
         <v>44558</v>
       </c>
@@ -26660,7 +26688,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="26">
         <v>44559</v>
       </c>
@@ -26683,7 +26711,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="26">
         <v>44560</v>
       </c>
@@ -26703,7 +26731,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="26">
         <v>44561</v>
       </c>
@@ -26720,10 +26748,10 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="26"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="26" t="s">
         <v>5</v>
       </c>
@@ -26739,7 +26767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="26" t="s">
         <v>11</v>
       </c>
@@ -26755,7 +26783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="26" t="s">
         <v>28</v>
       </c>
@@ -26771,7 +26799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="26" t="s">
         <v>26</v>
       </c>
@@ -26780,111 +26808,111 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="26"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="26"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="26"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="26"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="26"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="26"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="26"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="26"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="26"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="26"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="26"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="26"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="26"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="26"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="26"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="26"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="26"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="26"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="26"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="26"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="26"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="26"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="26"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="26"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="26"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="26"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="26"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="26"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="26"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="26"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="26"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="26"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="26"/>
     </row>
   </sheetData>
@@ -26915,14 +26943,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>1454</v>
       </c>
@@ -26966,7 +26994,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B2" s="28" t="s">
         <v>17</v>
       </c>
@@ -26976,7 +27004,7 @@
       </c>
       <c r="D2" s="29">
         <f>'22年2月'!E34</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="29">
         <f>'[1]21年3月'!E34</f>
@@ -27020,14 +27048,14 @@
       </c>
       <c r="P2">
         <f>SUM(C2:N2)</f>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q2">
         <f>P2/12</f>
-        <v>9.8333333333333339</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+        <v>9.9166666666666661</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B3" s="28" t="s">
         <v>16</v>
       </c>
@@ -27037,7 +27065,7 @@
       </c>
       <c r="D3" s="29">
         <f>'22年2月'!E35</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="29">
         <f>'[1]21年3月'!E35</f>
@@ -27081,14 +27109,14 @@
       </c>
       <c r="P3">
         <f>SUM(C3:N3)</f>
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q4" si="0">P3/12</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+        <v>14.083333333333334</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
         <v>18</v>
       </c>
@@ -27149,7 +27177,7 @@
         <v>5.166666666666667</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>1454</v>
       </c>
@@ -27193,7 +27221,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B27" s="28" t="s">
         <v>5</v>
       </c>
@@ -27254,7 +27282,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B28" s="28" t="s">
         <v>11</v>
       </c>
@@ -27315,7 +27343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B29" s="28" t="s">
         <v>28</v>
       </c>
@@ -27376,7 +27404,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B30" s="28" t="s">
         <v>26</v>
       </c>
@@ -27454,16 +27482,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -27477,7 +27505,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -27500,7 +27528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -27514,7 +27542,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1801</v>
       </c>
@@ -27531,7 +27559,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -27551,7 +27579,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1803</v>
       </c>
@@ -27568,7 +27596,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -27582,7 +27610,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -27594,28 +27622,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -27652,16 +27680,16 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -27675,7 +27703,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -27698,7 +27726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5713</v>
       </c>
@@ -27718,7 +27746,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5715</v>
       </c>
@@ -27735,7 +27763,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5714</v>
       </c>
@@ -27752,7 +27780,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5716</v>
       </c>
@@ -27769,7 +27797,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -27783,7 +27811,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -27795,28 +27823,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -27853,16 +27881,16 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -27876,7 +27904,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -27899,7 +27927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>192</v>
       </c>
@@ -27916,7 +27944,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>193</v>
       </c>
@@ -27933,7 +27961,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>194</v>
       </c>
@@ -27950,7 +27978,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -27967,7 +27995,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>196</v>
       </c>
@@ -27984,7 +28012,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -27998,7 +28026,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -28010,28 +28038,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -28067,16 +28095,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -28090,7 +28118,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -28113,7 +28141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>900</v>
       </c>
@@ -28130,7 +28158,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>893</v>
       </c>
@@ -28147,7 +28175,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>896</v>
       </c>
@@ -28164,7 +28192,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>897</v>
       </c>
@@ -28178,7 +28206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>898</v>
       </c>
@@ -28189,7 +28217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -28203,7 +28231,7 @@
         <v>8176</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -28215,28 +28243,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -28273,16 +28301,16 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -28296,7 +28324,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -28319,7 +28347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5161</v>
       </c>
@@ -28336,7 +28364,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5814</v>
       </c>
@@ -28353,7 +28381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5815</v>
       </c>
@@ -28370,7 +28398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5816</v>
       </c>
@@ -28387,7 +28415,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -28401,7 +28429,7 @@
         <v>4314</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -28413,28 +28441,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -28471,16 +28499,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -28494,7 +28522,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -28517,7 +28545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5830</v>
       </c>
@@ -28531,7 +28559,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5831</v>
       </c>
@@ -28548,7 +28576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5187</v>
       </c>
@@ -28562,7 +28590,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5833</v>
       </c>
@@ -28573,7 +28601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -28587,7 +28615,7 @@
         <v>4646</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -28597,28 +28625,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -28652,20 +28680,20 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -28691,7 +28719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44593</v>
       </c>
@@ -28714,7 +28742,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="27">
         <v>44594</v>
       </c>
@@ -28731,7 +28759,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="27">
         <v>44595</v>
       </c>
@@ -28751,7 +28779,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="27">
         <v>44596</v>
       </c>
@@ -28768,7 +28796,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="27">
         <v>44597</v>
       </c>
@@ -28788,7 +28816,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="27">
         <v>44598</v>
       </c>
@@ -28805,7 +28833,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="27">
         <v>44599</v>
       </c>
@@ -28828,7 +28856,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="27">
         <v>44600</v>
       </c>
@@ -28848,7 +28876,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="27">
         <v>44601</v>
       </c>
@@ -28868,7 +28896,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="27">
         <v>44602</v>
       </c>
@@ -28891,7 +28919,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="27">
         <v>44603</v>
       </c>
@@ -28911,88 +28939,115 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="27">
         <v>44604</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1020</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="27">
         <v>44605</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1189</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="27">
         <v>44606</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="27">
         <v>44607</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="27">
         <v>44608</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="27">
         <v>44609</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="27">
         <v>44610</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="27">
         <v>44611</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="27">
         <v>44612</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="27">
         <v>44613</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="27">
         <v>44614</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="27">
         <v>44615</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="27">
         <v>44616</v>
       </c>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="27">
         <v>44617</v>
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="27">
         <v>44618</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="27">
         <v>44619</v>
       </c>
@@ -29000,41 +29055,41 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="27">
         <v>44620</v>
       </c>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
@@ -29047,10 +29102,10 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
@@ -29066,7 +29121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -29075,121 +29130,121 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="32"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
     </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="32"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -29226,16 +29281,16 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -29249,7 +29304,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -29272,7 +29327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5193</v>
       </c>
@@ -29289,7 +29344,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5827</v>
       </c>
@@ -29306,7 +29361,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5828</v>
       </c>
@@ -29326,7 +29381,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5220</v>
       </c>
@@ -29346,7 +29401,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -29360,7 +29415,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -29372,28 +29427,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -29429,16 +29484,16 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="42.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -29452,7 +29507,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -29475,7 +29530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5838</v>
       </c>
@@ -29489,7 +29544,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5839</v>
       </c>
@@ -29509,7 +29564,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5840</v>
       </c>
@@ -29526,7 +29581,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5841</v>
       </c>
@@ -29543,7 +29598,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -29557,7 +29612,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -29569,28 +29624,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -29627,17 +29682,17 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -29663,103 +29718,103 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="14"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="14"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="14" t="s">
         <v>5</v>
       </c>
@@ -29775,7 +29830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="14" t="s">
         <v>11</v>
       </c>
@@ -29791,7 +29846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="14" t="s">
         <v>28</v>
       </c>
@@ -29807,7 +29862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="14" t="s">
         <v>26</v>
       </c>
@@ -29816,111 +29871,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="14"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="14"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="14"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="14"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="14"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="14"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="14"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="14"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="14"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="14"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="14"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="14"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="14"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="14"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="14"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="14"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="14"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="14"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="14"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="14"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="14"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="14"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="14"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="14"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="14"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="14"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="14"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="14"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="14"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="14"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="14"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="14"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="14"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="14"/>
     </row>
   </sheetData>
@@ -29950,16 +30005,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -29971,7 +30026,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -29994,7 +30049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -30002,7 +30057,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -30012,28 +30067,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -30070,17 +30125,17 @@
       <selection activeCell="D34" sqref="D34:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -30106,7 +30161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>44256</v>
       </c>
@@ -30129,7 +30184,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>44257</v>
       </c>
@@ -30152,7 +30207,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>44258</v>
       </c>
@@ -30178,7 +30233,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>44259</v>
       </c>
@@ -30201,7 +30256,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>44260</v>
       </c>
@@ -30221,7 +30276,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>44261</v>
       </c>
@@ -30241,7 +30296,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>44262</v>
       </c>
@@ -30264,7 +30319,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>44263</v>
       </c>
@@ -30284,7 +30339,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>44264</v>
       </c>
@@ -30304,7 +30359,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>44265</v>
       </c>
@@ -30324,7 +30379,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>44266</v>
       </c>
@@ -30344,7 +30399,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>44267</v>
       </c>
@@ -30364,7 +30419,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>44268</v>
       </c>
@@ -30387,7 +30442,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>44269</v>
       </c>
@@ -30410,7 +30465,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>44270</v>
       </c>
@@ -30427,7 +30482,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>44271</v>
       </c>
@@ -30444,7 +30499,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>44272</v>
       </c>
@@ -30464,7 +30519,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>44273</v>
       </c>
@@ -30484,7 +30539,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>44274</v>
       </c>
@@ -30501,7 +30556,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>44275</v>
       </c>
@@ -30521,7 +30576,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>44276</v>
       </c>
@@ -30538,7 +30593,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>44277</v>
       </c>
@@ -30558,7 +30613,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>44278</v>
       </c>
@@ -30578,7 +30633,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>44279</v>
       </c>
@@ -30598,7 +30653,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>44280</v>
       </c>
@@ -30618,7 +30673,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>44281</v>
       </c>
@@ -30638,7 +30693,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>44282</v>
       </c>
@@ -30658,7 +30713,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>44283</v>
       </c>
@@ -30678,7 +30733,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>44284</v>
       </c>
@@ -30701,7 +30756,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>44285</v>
       </c>
@@ -30724,7 +30779,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>44286</v>
       </c>
@@ -30744,10 +30799,10 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
@@ -30763,7 +30818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
         <v>11</v>
       </c>
@@ -30779,7 +30834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>28</v>
       </c>
@@ -30795,7 +30850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>26</v>
       </c>
@@ -30804,113 +30859,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
     </row>
   </sheetData>
@@ -30941,18 +30996,18 @@
       <selection activeCell="D34" sqref="D34:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -30978,7 +31033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="10">
         <v>44287</v>
       </c>
@@ -30998,7 +31053,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>44288</v>
       </c>
@@ -31018,7 +31073,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>44289</v>
       </c>
@@ -31038,7 +31093,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>44290</v>
       </c>
@@ -31058,7 +31113,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>44291</v>
       </c>
@@ -31078,7 +31133,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>44292</v>
       </c>
@@ -31098,7 +31153,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>44293</v>
       </c>
@@ -31121,7 +31176,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>44294</v>
       </c>
@@ -31141,7 +31196,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>44295</v>
       </c>
@@ -31161,7 +31216,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>44296</v>
       </c>
@@ -31178,7 +31233,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>44297</v>
       </c>
@@ -31201,7 +31256,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>44298</v>
       </c>
@@ -31224,7 +31279,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>44299</v>
       </c>
@@ -31244,7 +31299,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>44300</v>
       </c>
@@ -31264,7 +31319,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>44301</v>
       </c>
@@ -31284,7 +31339,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>44302</v>
       </c>
@@ -31307,7 +31362,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>44303</v>
       </c>
@@ -31333,7 +31388,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="10">
         <v>44304</v>
       </c>
@@ -31353,7 +31408,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="10">
         <v>44305</v>
       </c>
@@ -31376,7 +31431,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="10">
         <v>44306</v>
       </c>
@@ -31399,7 +31454,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="10">
         <v>44307</v>
       </c>
@@ -31422,7 +31477,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="10">
         <v>44308</v>
       </c>
@@ -31448,7 +31503,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="10">
         <v>44309</v>
       </c>
@@ -31468,7 +31523,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="10">
         <v>44310</v>
       </c>
@@ -31488,7 +31543,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="10">
         <v>44311</v>
       </c>
@@ -31508,7 +31563,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="10">
         <v>44312</v>
       </c>
@@ -31528,7 +31583,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="10">
         <v>44313</v>
       </c>
@@ -31548,7 +31603,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="10">
         <v>44314</v>
       </c>
@@ -31571,7 +31626,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="10">
         <v>44315</v>
       </c>
@@ -31591,7 +31646,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="10">
         <v>44316</v>
       </c>
@@ -31614,13 +31669,13 @@
         <v>315</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>5</v>
       </c>
@@ -31636,7 +31691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>11</v>
       </c>
@@ -31652,7 +31707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>28</v>
       </c>
@@ -31668,7 +31723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>26</v>
       </c>
@@ -31677,113 +31732,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="10"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="10"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="10"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="10"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="10"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="10"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="10"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="10"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="10"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="10"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="10"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="10"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="10"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="10"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="10"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="10"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="10"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="10"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="10"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="10"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="10"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="10"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="10"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="10"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="10"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="10"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="10"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="10"/>
     </row>
   </sheetData>
@@ -31814,17 +31869,17 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -31850,7 +31905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="12">
         <v>44317</v>
       </c>
@@ -31870,7 +31925,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>44318</v>
       </c>
@@ -31890,7 +31945,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>44319</v>
       </c>
@@ -31910,7 +31965,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>44320</v>
       </c>
@@ -31933,7 +31988,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>44321</v>
       </c>
@@ -31953,7 +32008,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>44322</v>
       </c>
@@ -31973,7 +32028,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>44323</v>
       </c>
@@ -31996,7 +32051,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>44324</v>
       </c>
@@ -32016,7 +32071,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>44325</v>
       </c>
@@ -32036,7 +32091,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>44326</v>
       </c>
@@ -32056,7 +32111,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>44327</v>
       </c>
@@ -32079,7 +32134,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="12">
         <v>44328</v>
       </c>
@@ -32099,7 +32154,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="12">
         <v>44329</v>
       </c>
@@ -32119,7 +32174,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="12">
         <v>44330</v>
       </c>
@@ -32139,7 +32194,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="12">
         <v>44331</v>
       </c>
@@ -32156,7 +32211,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="12">
         <v>44332</v>
       </c>
@@ -32182,7 +32237,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="12">
         <v>44333</v>
       </c>
@@ -32202,7 +32257,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="12">
         <v>44334</v>
       </c>
@@ -32225,7 +32280,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="12">
         <v>44335</v>
       </c>
@@ -32248,7 +32303,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="12">
         <v>44336</v>
       </c>
@@ -32271,7 +32326,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="12">
         <v>44337</v>
       </c>
@@ -32291,7 +32346,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="12">
         <v>44338</v>
       </c>
@@ -32311,7 +32366,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="12">
         <v>44339</v>
       </c>
@@ -32331,7 +32386,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="12">
         <v>44340</v>
       </c>
@@ -32351,7 +32406,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="12">
         <v>44341</v>
       </c>
@@ -32371,7 +32426,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="12">
         <v>44342</v>
       </c>
@@ -32394,7 +32449,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="12">
         <v>44343</v>
       </c>
@@ -32414,7 +32469,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="12">
         <v>44344</v>
       </c>
@@ -32431,7 +32486,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="12">
         <v>44345</v>
       </c>
@@ -32451,7 +32506,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="12">
         <v>44346</v>
       </c>
@@ -32474,7 +32529,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="12">
         <v>44347</v>
       </c>
@@ -32497,10 +32552,10 @@
         <v>439</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="12" t="s">
         <v>5</v>
       </c>
@@ -32516,7 +32571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
         <v>11</v>
       </c>
@@ -32532,7 +32587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="12" t="s">
         <v>28</v>
       </c>
@@ -32548,7 +32603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
         <v>26</v>
       </c>
@@ -32557,21 +32612,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="12"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="12"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="12" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="30" t="s">
         <v>395</v>
       </c>
@@ -32580,99 +32635,99 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="12"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="12"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="12"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="12"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="12"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="12"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="12"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="12"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="12"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="12"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="12"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="12"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="12"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="12"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="12"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="12"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="12"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="12"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="12"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="12"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="12"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="12"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="12"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="12"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="12"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="12"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="12"/>
     </row>
   </sheetData>
@@ -32706,18 +32761,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -32743,7 +32798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44348</v>
       </c>
@@ -32763,7 +32818,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>44349</v>
       </c>
@@ -32786,7 +32841,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>44350</v>
       </c>
@@ -32806,7 +32861,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>44351</v>
       </c>
@@ -32826,7 +32881,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>44352</v>
       </c>
@@ -32849,7 +32904,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>44353</v>
       </c>
@@ -32869,7 +32924,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>44354</v>
       </c>
@@ -32892,7 +32947,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>44355</v>
       </c>
@@ -32912,7 +32967,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>44356</v>
       </c>
@@ -32932,7 +32987,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>44357</v>
       </c>
@@ -32955,7 +33010,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>44358</v>
       </c>
@@ -32978,7 +33033,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>44359</v>
       </c>
@@ -32998,7 +33053,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>44360</v>
       </c>
@@ -33018,7 +33073,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>44361</v>
       </c>
@@ -33041,7 +33096,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>44362</v>
       </c>
@@ -33061,7 +33116,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
         <v>44363</v>
       </c>
@@ -33084,7 +33139,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <v>44364</v>
       </c>
@@ -33107,7 +33162,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="13">
         <v>44365</v>
       </c>
@@ -33127,7 +33182,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="13">
         <v>44366</v>
       </c>
@@ -33150,7 +33205,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="13">
         <v>44367</v>
       </c>
@@ -33170,7 +33225,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="13">
         <v>44368</v>
       </c>
@@ -33193,7 +33248,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="13">
         <v>44369</v>
       </c>
@@ -33213,7 +33268,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="13">
         <v>44370</v>
       </c>
@@ -33236,7 +33291,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="13">
         <v>44371</v>
       </c>
@@ -33259,7 +33314,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="13">
         <v>44372</v>
       </c>
@@ -33282,7 +33337,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="13">
         <v>44373</v>
       </c>
@@ -33305,7 +33360,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="13">
         <v>44374</v>
       </c>
@@ -33325,7 +33380,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="13">
         <v>44375</v>
       </c>
@@ -33345,7 +33400,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="13">
         <v>44376</v>
       </c>
@@ -33365,7 +33420,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="13">
         <v>44377</v>
       </c>
@@ -33388,13 +33443,13 @@
         <v>574</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
@@ -33410,7 +33465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
@@ -33426,7 +33481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
@@ -33442,7 +33497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -33451,27 +33506,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="30" t="s">
         <v>573</v>
       </c>
@@ -33480,96 +33535,96 @@
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -33603,18 +33658,18 @@
       <selection activeCell="D34" sqref="D34:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -33640,7 +33695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="15">
         <v>44378</v>
       </c>
@@ -33663,7 +33718,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="15">
         <v>44379</v>
       </c>
@@ -33683,7 +33738,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="15">
         <v>44380</v>
       </c>
@@ -33703,7 +33758,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
         <v>44381</v>
       </c>
@@ -33723,7 +33778,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="15">
         <v>44382</v>
       </c>
@@ -33743,7 +33798,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="15">
         <v>44383</v>
       </c>
@@ -33763,7 +33818,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="15">
         <v>44384</v>
       </c>
@@ -33783,7 +33838,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="15">
         <v>44385</v>
       </c>
@@ -33803,7 +33858,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="15">
         <v>44386</v>
       </c>
@@ -33823,7 +33878,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>44387</v>
       </c>
@@ -33846,7 +33901,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>44388</v>
       </c>
@@ -33866,7 +33921,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>44389</v>
       </c>
@@ -33886,7 +33941,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>44390</v>
       </c>
@@ -33909,7 +33964,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>44391</v>
       </c>
@@ -33932,7 +33987,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>44392</v>
       </c>
@@ -33952,7 +34007,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>44393</v>
       </c>
@@ -33975,7 +34030,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>44394</v>
       </c>
@@ -33995,7 +34050,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="15">
         <v>44395</v>
       </c>
@@ -34015,7 +34070,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="15">
         <v>44396</v>
       </c>
@@ -34035,7 +34090,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="15">
         <v>44397</v>
       </c>
@@ -34055,7 +34110,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>44398</v>
       </c>
@@ -34075,7 +34130,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>44399</v>
       </c>
@@ -34095,7 +34150,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>44400</v>
       </c>
@@ -34115,7 +34170,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>44401</v>
       </c>
@@ -34135,7 +34190,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>44402</v>
       </c>
@@ -34155,7 +34210,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>44403</v>
       </c>
@@ -34175,7 +34230,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>44404</v>
       </c>
@@ -34192,7 +34247,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>44405</v>
       </c>
@@ -34212,7 +34267,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>44406</v>
       </c>
@@ -34232,7 +34287,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>44407</v>
       </c>
@@ -34249,7 +34304,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>44408</v>
       </c>
@@ -34269,10 +34324,10 @@
         <v>697</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="15" t="s">
         <v>5</v>
       </c>
@@ -34288,7 +34343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="15" t="s">
         <v>11</v>
       </c>
@@ -34304,7 +34359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="15" t="s">
         <v>28</v>
       </c>
@@ -34320,7 +34375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="15" t="s">
         <v>26</v>
       </c>
@@ -34329,24 +34384,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="15"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="15"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="30" t="s">
         <v>724</v>
       </c>
@@ -34355,107 +34410,107 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="15"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="15"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="15"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="15"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="15"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="15"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="15"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="15"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="15"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="15"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="15"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="15"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="15"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="15"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="15"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="15"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="15"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="15"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="15"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="15"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="15"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="15"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="15"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="15"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="15"/>
     </row>
   </sheetData>
@@ -34489,17 +34544,17 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -34525,7 +34580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="18">
         <v>44409</v>
       </c>
@@ -34545,7 +34600,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="18">
         <v>44410</v>
       </c>
@@ -34568,7 +34623,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="18">
         <v>44411</v>
       </c>
@@ -34591,7 +34646,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="18">
         <v>44412</v>
       </c>
@@ -34611,7 +34666,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="18">
         <v>44413</v>
       </c>
@@ -34634,7 +34689,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="18">
         <v>44414</v>
       </c>
@@ -34654,7 +34709,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="18">
         <v>44415</v>
       </c>
@@ -34677,7 +34732,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="18">
         <v>44416</v>
       </c>
@@ -34700,7 +34755,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="18">
         <v>44417</v>
       </c>
@@ -34720,7 +34775,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="18">
         <v>44418</v>
       </c>
@@ -34740,7 +34795,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="18">
         <v>44419</v>
       </c>
@@ -34760,7 +34815,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="18">
         <v>44420</v>
       </c>
@@ -34780,7 +34835,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="18">
         <v>44421</v>
       </c>
@@ -34800,7 +34855,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="18">
         <v>44422</v>
       </c>
@@ -34820,7 +34875,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="18">
         <v>44423</v>
       </c>
@@ -34840,7 +34895,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="18">
         <v>44424</v>
       </c>
@@ -34863,7 +34918,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="18">
         <v>44425</v>
       </c>
@@ -34880,7 +34935,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="18">
         <v>44426</v>
       </c>
@@ -34900,7 +34955,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="18">
         <v>44427</v>
       </c>
@@ -34920,7 +34975,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="18">
         <v>44428</v>
       </c>
@@ -34940,7 +34995,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="18">
         <v>44429</v>
       </c>
@@ -34963,7 +35018,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="18">
         <v>44430</v>
       </c>
@@ -34983,7 +35038,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="18">
         <v>44431</v>
       </c>
@@ -35003,7 +35058,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="18">
         <v>44432</v>
       </c>
@@ -35023,7 +35078,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="18">
         <v>44433</v>
       </c>
@@ -35043,7 +35098,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="18">
         <v>44434</v>
       </c>
@@ -35063,7 +35118,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="18">
         <v>44435</v>
       </c>
@@ -35083,7 +35138,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="18">
         <v>44436</v>
       </c>
@@ -35106,7 +35161,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="18">
         <v>44437</v>
       </c>
@@ -35126,7 +35181,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="18">
         <v>44438</v>
       </c>
@@ -35149,7 +35204,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="18">
         <v>44439</v>
       </c>
@@ -35172,10 +35227,10 @@
         <v>850</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="18"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
         <v>5</v>
       </c>
@@ -35191,7 +35246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
         <v>11</v>
       </c>
@@ -35207,7 +35262,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
         <v>28</v>
       </c>
@@ -35223,7 +35278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="18" t="s">
         <v>26</v>
       </c>
@@ -35232,24 +35287,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="18"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="18"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="18"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="18"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="30" t="s">
         <v>763</v>
       </c>
@@ -35258,103 +35313,103 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="18"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="18"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="18"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="18"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="18"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="18"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="18"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="18"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="18"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="18"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="18"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="18"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="18"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="18"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="18"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="18"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="18"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="18"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="18"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="18"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="18"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="18"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="18"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="18"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="18"/>
     </row>
   </sheetData>
@@ -35387,18 +35442,18 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -35424,7 +35479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="22">
         <v>44440</v>
       </c>
@@ -35444,7 +35499,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="22">
         <v>44441</v>
       </c>
@@ -35464,7 +35519,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="22">
         <v>44442</v>
       </c>
@@ -35484,7 +35539,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="22">
         <v>44443</v>
       </c>
@@ -35504,7 +35559,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="22">
         <v>44444</v>
       </c>
@@ -35527,7 +35582,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="22">
         <v>44445</v>
       </c>
@@ -35547,7 +35602,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>44446</v>
       </c>
@@ -35567,7 +35622,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
         <v>44447</v>
       </c>
@@ -35587,7 +35642,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>44448</v>
       </c>
@@ -35607,7 +35662,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>44449</v>
       </c>
@@ -35627,7 +35682,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
         <v>44450</v>
       </c>
@@ -35647,7 +35702,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="22">
         <v>44451</v>
       </c>
@@ -35670,7 +35725,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
         <v>44452</v>
       </c>
@@ -35690,7 +35745,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="22">
         <v>44453</v>
       </c>
@@ -35713,7 +35768,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="22">
         <v>44454</v>
       </c>
@@ -35733,7 +35788,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="22">
         <v>44455</v>
       </c>
@@ -35756,7 +35811,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="22">
         <v>44456</v>
       </c>
@@ -35776,7 +35831,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="22">
         <v>44457</v>
       </c>
@@ -35796,7 +35851,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="22">
         <v>44458</v>
       </c>
@@ -35816,7 +35871,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="22">
         <v>44459</v>
       </c>
@@ -35836,7 +35891,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="22">
         <v>44460</v>
       </c>
@@ -35853,7 +35908,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="22">
         <v>44461</v>
       </c>
@@ -35873,7 +35928,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="22">
         <v>44462</v>
       </c>
@@ -35890,7 +35945,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="22">
         <v>44463</v>
       </c>
@@ -35910,7 +35965,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="22">
         <v>44464</v>
       </c>
@@ -35933,7 +35988,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="22">
         <v>44465</v>
       </c>
@@ -35953,7 +36008,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="22">
         <v>44466</v>
       </c>
@@ -35973,7 +36028,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="22">
         <v>44467</v>
       </c>
@@ -35993,7 +36048,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="22">
         <v>44468</v>
       </c>
@@ -36013,7 +36068,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="22">
         <v>44469</v>
       </c>
@@ -36033,13 +36088,13 @@
         <v>982</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="22"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="22"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="22" t="s">
         <v>5</v>
       </c>
@@ -36055,7 +36110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="22" t="s">
         <v>11</v>
       </c>
@@ -36071,7 +36126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="22" t="s">
         <v>28</v>
       </c>
@@ -36087,7 +36142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="22" t="s">
         <v>26</v>
       </c>
@@ -36096,24 +36151,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="22"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="22"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="22"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="22"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="30" t="s">
         <v>983</v>
       </c>
@@ -36122,103 +36177,103 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="22"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="22"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="22"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="22"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="22"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="22"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="22"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="22"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="22"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="22"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="22"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="22"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="22"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="22"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="22"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="22"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="22"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="22"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="22"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="22"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="22"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="22"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="22"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="22"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="22"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="22"/>
     </row>
   </sheetData>

--- a/22年力扣每日一题做题情况.xlsx
+++ b/22年力扣每日一题做题情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFB5CDB-6170-4F05-B539-4B6E040278AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDCFB02-4C8A-4986-8F89-5E9A5330575D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="22年1月" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="1522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="1538">
   <si>
     <t>贪心</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6110,6 +6110,70 @@
   </si>
   <si>
     <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有序数组中的单一元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x为偶数时,x+1=x^1;x为奇数时，x-1=x^1。变偶数的方法:x-=x&amp;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵中的幸运数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构一棵树的方案数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士在棋盘上的概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看思路写出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp/记忆化搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆化搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10158,13 +10222,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -23444,17 +23508,17 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -23480,7 +23544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
@@ -23497,7 +23561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>44563</v>
       </c>
@@ -23517,7 +23581,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>44564</v>
       </c>
@@ -23537,7 +23601,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>44565</v>
       </c>
@@ -23557,7 +23621,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>44566</v>
       </c>
@@ -23574,7 +23638,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>44567</v>
       </c>
@@ -23594,7 +23658,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>44568</v>
       </c>
@@ -23614,7 +23678,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>44569</v>
       </c>
@@ -23637,7 +23701,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>44570</v>
       </c>
@@ -23654,7 +23718,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>44571</v>
       </c>
@@ -23674,7 +23738,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>44572</v>
       </c>
@@ -23694,7 +23758,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>44573</v>
       </c>
@@ -23717,7 +23781,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>44574</v>
       </c>
@@ -23734,7 +23798,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>44575</v>
       </c>
@@ -23754,7 +23818,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>44576</v>
       </c>
@@ -23774,7 +23838,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>44577</v>
       </c>
@@ -23797,7 +23861,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>44578</v>
       </c>
@@ -23817,7 +23881,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>44579</v>
       </c>
@@ -23837,7 +23901,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>44580</v>
       </c>
@@ -23857,7 +23921,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>44581</v>
       </c>
@@ -23877,7 +23941,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>44582</v>
       </c>
@@ -23897,7 +23961,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>44583</v>
       </c>
@@ -23914,7 +23978,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>44584</v>
       </c>
@@ -23934,7 +23998,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>44585</v>
       </c>
@@ -23954,7 +24018,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>44586</v>
       </c>
@@ -23974,7 +24038,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>44587</v>
       </c>
@@ -23994,7 +24058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>44588</v>
       </c>
@@ -24014,7 +24078,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>44589</v>
       </c>
@@ -24034,7 +24098,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>44590</v>
       </c>
@@ -24057,7 +24121,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>44591</v>
       </c>
@@ -24080,7 +24144,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>44592</v>
       </c>
@@ -24100,10 +24164,10 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -24119,7 +24183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -24135,7 +24199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -24151,7 +24215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
@@ -24160,18 +24224,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>1366</v>
       </c>
@@ -24180,127 +24244,127 @@
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="E42" s="30"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
       <c r="D48" s="31"/>
       <c r="E48" s="31"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="31"/>
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -24334,18 +24398,18 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -24371,7 +24435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>44470</v>
       </c>
@@ -24391,7 +24455,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>44471</v>
       </c>
@@ -24411,7 +24475,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>44472</v>
       </c>
@@ -24434,7 +24498,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>44473</v>
       </c>
@@ -24454,7 +24518,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>44474</v>
       </c>
@@ -24471,7 +24535,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>44475</v>
       </c>
@@ -24488,7 +24552,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>44476</v>
       </c>
@@ -24505,7 +24569,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>44477</v>
       </c>
@@ -24528,7 +24592,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>44478</v>
       </c>
@@ -24551,7 +24615,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>44479</v>
       </c>
@@ -24571,7 +24635,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>44480</v>
       </c>
@@ -24591,7 +24655,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>44481</v>
       </c>
@@ -24614,7 +24678,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>44482</v>
       </c>
@@ -24634,7 +24698,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>44483</v>
       </c>
@@ -24654,7 +24718,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>44484</v>
       </c>
@@ -24674,7 +24738,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>44485</v>
       </c>
@@ -24697,7 +24761,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>44486</v>
       </c>
@@ -24720,7 +24784,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>44487</v>
       </c>
@@ -24743,7 +24807,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>44488</v>
       </c>
@@ -24766,7 +24830,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>44489</v>
       </c>
@@ -24786,7 +24850,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>44490</v>
       </c>
@@ -24806,7 +24870,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>44491</v>
       </c>
@@ -24829,7 +24893,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>44492</v>
       </c>
@@ -24849,7 +24913,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>44493</v>
       </c>
@@ -24872,7 +24936,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>44494</v>
       </c>
@@ -24892,7 +24956,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>44495</v>
       </c>
@@ -24909,7 +24973,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>44496</v>
       </c>
@@ -24929,7 +24993,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>44497</v>
       </c>
@@ -24949,7 +25013,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>44498</v>
       </c>
@@ -24969,7 +25033,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>44499</v>
       </c>
@@ -24992,7 +25056,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>44500</v>
       </c>
@@ -25012,10 +25076,10 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>5</v>
       </c>
@@ -25031,7 +25095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>11</v>
       </c>
@@ -25047,7 +25111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>28</v>
       </c>
@@ -25063,7 +25127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>26</v>
       </c>
@@ -25072,24 +25136,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>1096</v>
       </c>
@@ -25098,103 +25162,103 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="24"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="24"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
     </row>
   </sheetData>
@@ -25227,17 +25291,17 @@
       <selection activeCell="A43" sqref="A43:D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -25263,7 +25327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>44501</v>
       </c>
@@ -25283,7 +25347,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>44502</v>
       </c>
@@ -25306,7 +25370,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>44503</v>
       </c>
@@ -25329,7 +25393,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>44504</v>
       </c>
@@ -25352,7 +25416,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>44505</v>
       </c>
@@ -25375,7 +25439,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>44506</v>
       </c>
@@ -25395,7 +25459,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>44507</v>
       </c>
@@ -25415,7 +25479,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>44508</v>
       </c>
@@ -25435,7 +25499,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>44509</v>
       </c>
@@ -25455,7 +25519,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>44510</v>
       </c>
@@ -25475,7 +25539,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>44511</v>
       </c>
@@ -25495,7 +25559,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>44512</v>
       </c>
@@ -25515,7 +25579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>44513</v>
       </c>
@@ -25535,7 +25599,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>44514</v>
       </c>
@@ -25555,7 +25619,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>44515</v>
       </c>
@@ -25575,7 +25639,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>44516</v>
       </c>
@@ -25595,7 +25659,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>44517</v>
       </c>
@@ -25615,7 +25679,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>44518</v>
       </c>
@@ -25635,7 +25699,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>44519</v>
       </c>
@@ -25655,7 +25719,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>44520</v>
       </c>
@@ -25675,7 +25739,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>44521</v>
       </c>
@@ -25695,7 +25759,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>44522</v>
       </c>
@@ -25721,7 +25785,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>44523</v>
       </c>
@@ -25741,7 +25805,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>44524</v>
       </c>
@@ -25761,7 +25825,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>44525</v>
       </c>
@@ -25784,7 +25848,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>44526</v>
       </c>
@@ -25804,7 +25868,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>44527</v>
       </c>
@@ -25827,7 +25891,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>44528</v>
       </c>
@@ -25847,7 +25911,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>44529</v>
       </c>
@@ -25867,7 +25931,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <v>44530</v>
       </c>
@@ -25887,13 +25951,13 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>5</v>
       </c>
@@ -25909,7 +25973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>11</v>
       </c>
@@ -25925,7 +25989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>28</v>
       </c>
@@ -25941,7 +26005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>26</v>
       </c>
@@ -25950,24 +26014,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>1234</v>
       </c>
@@ -25975,103 +26039,103 @@
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="25"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="25"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="25"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
     </row>
   </sheetData>
@@ -26104,17 +26168,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -26140,7 +26204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>44531</v>
       </c>
@@ -26157,7 +26221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>44532</v>
       </c>
@@ -26177,7 +26241,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>44533</v>
       </c>
@@ -26197,7 +26261,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>44534</v>
       </c>
@@ -26214,7 +26278,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>44535</v>
       </c>
@@ -26234,7 +26298,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>44536</v>
       </c>
@@ -26251,7 +26315,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>44537</v>
       </c>
@@ -26271,7 +26335,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>44538</v>
       </c>
@@ -26291,7 +26355,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>44539</v>
       </c>
@@ -26311,7 +26375,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>44540</v>
       </c>
@@ -26328,7 +26392,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>44541</v>
       </c>
@@ -26348,7 +26412,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>44542</v>
       </c>
@@ -26365,7 +26429,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>44543</v>
       </c>
@@ -26385,7 +26449,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>44544</v>
       </c>
@@ -26405,7 +26469,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>44545</v>
       </c>
@@ -26425,7 +26489,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>44546</v>
       </c>
@@ -26448,7 +26512,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>44547</v>
       </c>
@@ -26468,7 +26532,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>44548</v>
       </c>
@@ -26485,7 +26549,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>44549</v>
       </c>
@@ -26505,7 +26569,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>44550</v>
       </c>
@@ -26528,7 +26592,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>44551</v>
       </c>
@@ -26548,7 +26612,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>44552</v>
       </c>
@@ -26571,7 +26635,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>44553</v>
       </c>
@@ -26591,7 +26655,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>44554</v>
       </c>
@@ -26611,7 +26675,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>44555</v>
       </c>
@@ -26631,7 +26695,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>44556</v>
       </c>
@@ -26648,7 +26712,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>44557</v>
       </c>
@@ -26668,7 +26732,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>44558</v>
       </c>
@@ -26688,7 +26752,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>44559</v>
       </c>
@@ -26711,7 +26775,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>44560</v>
       </c>
@@ -26731,7 +26795,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <v>44561</v>
       </c>
@@ -26748,10 +26812,10 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>5</v>
       </c>
@@ -26767,7 +26831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>11</v>
       </c>
@@ -26783,7 +26847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>28</v>
       </c>
@@ -26799,7 +26863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>26</v>
       </c>
@@ -26808,111 +26872,111 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="26"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="26"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="26"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="26"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="26"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="26"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="26"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="26"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="26"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="26"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="26"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="26"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="26"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="26"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="26"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="26"/>
     </row>
   </sheetData>
@@ -26943,14 +27007,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>1454</v>
       </c>
@@ -26994,7 +27058,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
         <v>17</v>
       </c>
@@ -27004,7 +27068,7 @@
       </c>
       <c r="D2" s="29">
         <f>'22年2月'!E34</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="29">
         <f>'[1]21年3月'!E34</f>
@@ -27048,14 +27112,14 @@
       </c>
       <c r="P2">
         <f>SUM(C2:N2)</f>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q2">
         <f>P2/12</f>
-        <v>9.9166666666666661</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
         <v>16</v>
       </c>
@@ -27065,7 +27129,7 @@
       </c>
       <c r="D3" s="29">
         <f>'22年2月'!E35</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3" s="29">
         <f>'[1]21年3月'!E35</f>
@@ -27109,14 +27173,14 @@
       </c>
       <c r="P3">
         <f>SUM(C3:N3)</f>
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q4" si="0">P3/12</f>
-        <v>14.083333333333334</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
         <v>18</v>
       </c>
@@ -27126,7 +27190,7 @@
       </c>
       <c r="D4" s="29">
         <f>'22年2月'!E36</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="29">
         <f>'[1]21年3月'!E36</f>
@@ -27170,14 +27234,14 @@
       </c>
       <c r="P4">
         <f>SUM(C4:N4)</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>5.166666666666667</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>1454</v>
       </c>
@@ -27221,7 +27285,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="28" t="s">
         <v>5</v>
       </c>
@@ -27282,7 +27346,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="28" t="s">
         <v>11</v>
       </c>
@@ -27343,7 +27407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="28" t="s">
         <v>28</v>
       </c>
@@ -27404,7 +27468,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="28" t="s">
         <v>26</v>
       </c>
@@ -27482,16 +27546,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -27505,7 +27569,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -27528,7 +27592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -27542,7 +27606,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1801</v>
       </c>
@@ -27559,7 +27623,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -27579,7 +27643,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1803</v>
       </c>
@@ -27596,7 +27660,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -27610,7 +27674,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -27622,28 +27686,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -27680,16 +27744,16 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -27703,7 +27767,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -27726,7 +27790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5713</v>
       </c>
@@ -27746,7 +27810,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5715</v>
       </c>
@@ -27763,7 +27827,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5714</v>
       </c>
@@ -27780,7 +27844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5716</v>
       </c>
@@ -27797,7 +27861,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -27811,7 +27875,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -27823,28 +27887,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -27881,16 +27945,16 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -27904,7 +27968,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -27927,7 +27991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>192</v>
       </c>
@@ -27944,7 +28008,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>193</v>
       </c>
@@ -27961,7 +28025,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>194</v>
       </c>
@@ -27978,7 +28042,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -27995,7 +28059,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>196</v>
       </c>
@@ -28012,7 +28076,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -28026,7 +28090,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -28038,28 +28102,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -28095,16 +28159,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -28118,7 +28182,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -28141,7 +28205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>900</v>
       </c>
@@ -28158,7 +28222,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>893</v>
       </c>
@@ -28175,7 +28239,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>896</v>
       </c>
@@ -28192,7 +28256,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>897</v>
       </c>
@@ -28206,7 +28270,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>898</v>
       </c>
@@ -28217,7 +28281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -28231,7 +28295,7 @@
         <v>8176</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -28243,28 +28307,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -28301,16 +28365,16 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -28324,7 +28388,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -28347,7 +28411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5161</v>
       </c>
@@ -28364,7 +28428,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5814</v>
       </c>
@@ -28381,7 +28445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5815</v>
       </c>
@@ -28398,7 +28462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5816</v>
       </c>
@@ -28415,7 +28479,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -28429,7 +28493,7 @@
         <v>4314</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -28441,28 +28505,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -28499,16 +28563,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -28522,7 +28586,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -28545,7 +28609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5830</v>
       </c>
@@ -28559,7 +28623,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5831</v>
       </c>
@@ -28576,7 +28640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5187</v>
       </c>
@@ -28590,7 +28654,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5833</v>
       </c>
@@ -28601,7 +28665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -28615,7 +28679,7 @@
         <v>4646</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -28625,28 +28689,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -28679,21 +28743,21 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -28719,7 +28783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44593</v>
       </c>
@@ -28742,7 +28806,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>44594</v>
       </c>
@@ -28759,7 +28823,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>44595</v>
       </c>
@@ -28779,7 +28843,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>44596</v>
       </c>
@@ -28796,7 +28860,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>44597</v>
       </c>
@@ -28816,7 +28880,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>44598</v>
       </c>
@@ -28833,7 +28897,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>44599</v>
       </c>
@@ -28856,7 +28920,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>44600</v>
       </c>
@@ -28876,7 +28940,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>44601</v>
       </c>
@@ -28896,7 +28960,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>44602</v>
       </c>
@@ -28919,7 +28983,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>44603</v>
       </c>
@@ -28939,7 +29003,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>44604</v>
       </c>
@@ -28959,7 +29023,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>44605</v>
       </c>
@@ -28976,78 +29040,141 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>44606</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>540</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>44607</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>1380</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>44608</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>1719</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>44609</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>688</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1536</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>44610</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>44611</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>44612</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>44613</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>44614</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>44615</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>44616</v>
       </c>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>44617</v>
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>44618</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>44619</v>
       </c>
@@ -29055,73 +29182,73 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>44620</v>
       </c>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B35">
         <f>COUNTIF(E2:E32,"看思路写出")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B36">
         <f>COUNTIF(E2:E32,"CV后看懂")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -29130,121 +29257,121 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="32"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
     </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="32"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -29281,16 +29408,16 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -29304,7 +29431,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -29327,7 +29454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5193</v>
       </c>
@@ -29344,7 +29471,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5827</v>
       </c>
@@ -29361,7 +29488,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5828</v>
       </c>
@@ -29381,7 +29508,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5220</v>
       </c>
@@ -29401,7 +29528,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -29415,7 +29542,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -29427,28 +29554,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -29484,16 +29611,16 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -29507,7 +29634,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -29530,7 +29657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5838</v>
       </c>
@@ -29544,7 +29671,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5839</v>
       </c>
@@ -29564,7 +29691,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5840</v>
       </c>
@@ -29581,7 +29708,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5841</v>
       </c>
@@ -29598,7 +29725,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -29612,7 +29739,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -29624,28 +29751,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -29682,17 +29809,17 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -29718,103 +29845,103 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>5</v>
       </c>
@@ -29830,7 +29957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>11</v>
       </c>
@@ -29846,7 +29973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>28</v>
       </c>
@@ -29862,7 +29989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>26</v>
       </c>
@@ -29871,111 +29998,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
     </row>
   </sheetData>
@@ -30005,16 +30132,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -30026,7 +30153,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -30049,7 +30176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -30057,7 +30184,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -30067,28 +30194,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -30125,17 +30252,17 @@
       <selection activeCell="D34" sqref="D34:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -30161,7 +30288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>44256</v>
       </c>
@@ -30184,7 +30311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44257</v>
       </c>
@@ -30207,7 +30334,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44258</v>
       </c>
@@ -30233,7 +30360,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44259</v>
       </c>
@@ -30256,7 +30383,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44260</v>
       </c>
@@ -30276,7 +30403,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44261</v>
       </c>
@@ -30296,7 +30423,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44262</v>
       </c>
@@ -30319,7 +30446,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44263</v>
       </c>
@@ -30339,7 +30466,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44264</v>
       </c>
@@ -30359,7 +30486,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44265</v>
       </c>
@@ -30379,7 +30506,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44266</v>
       </c>
@@ -30399,7 +30526,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44267</v>
       </c>
@@ -30419,7 +30546,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44268</v>
       </c>
@@ -30442,7 +30569,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44269</v>
       </c>
@@ -30465,7 +30592,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44270</v>
       </c>
@@ -30482,7 +30609,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44271</v>
       </c>
@@ -30499,7 +30626,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44272</v>
       </c>
@@ -30519,7 +30646,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44273</v>
       </c>
@@ -30539,7 +30666,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44274</v>
       </c>
@@ -30556,7 +30683,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44275</v>
       </c>
@@ -30576,7 +30703,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44276</v>
       </c>
@@ -30593,7 +30720,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44277</v>
       </c>
@@ -30613,7 +30740,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44278</v>
       </c>
@@ -30633,7 +30760,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44279</v>
       </c>
@@ -30653,7 +30780,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44280</v>
       </c>
@@ -30673,7 +30800,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44281</v>
       </c>
@@ -30693,7 +30820,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44282</v>
       </c>
@@ -30713,7 +30840,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44283</v>
       </c>
@@ -30733,7 +30860,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>44284</v>
       </c>
@@ -30756,7 +30883,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>44285</v>
       </c>
@@ -30779,7 +30906,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>44286</v>
       </c>
@@ -30799,10 +30926,10 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
@@ -30818,7 +30945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>11</v>
       </c>
@@ -30834,7 +30961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>28</v>
       </c>
@@ -30850,7 +30977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>26</v>
       </c>
@@ -30859,113 +30986,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
     </row>
   </sheetData>
@@ -30996,18 +31123,18 @@
       <selection activeCell="D34" sqref="D34:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -31033,7 +31160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>44287</v>
       </c>
@@ -31053,7 +31180,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>44288</v>
       </c>
@@ -31073,7 +31200,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>44289</v>
       </c>
@@ -31093,7 +31220,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>44290</v>
       </c>
@@ -31113,7 +31240,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>44291</v>
       </c>
@@ -31133,7 +31260,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>44292</v>
       </c>
@@ -31153,7 +31280,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>44293</v>
       </c>
@@ -31176,7 +31303,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>44294</v>
       </c>
@@ -31196,7 +31323,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>44295</v>
       </c>
@@ -31216,7 +31343,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>44296</v>
       </c>
@@ -31233,7 +31360,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>44297</v>
       </c>
@@ -31256,7 +31383,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>44298</v>
       </c>
@@ -31279,7 +31406,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>44299</v>
       </c>
@@ -31299,7 +31426,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>44300</v>
       </c>
@@ -31319,7 +31446,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>44301</v>
       </c>
@@ -31339,7 +31466,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>44302</v>
       </c>
@@ -31362,7 +31489,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>44303</v>
       </c>
@@ -31388,7 +31515,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>44304</v>
       </c>
@@ -31408,7 +31535,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>44305</v>
       </c>
@@ -31431,7 +31558,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>44306</v>
       </c>
@@ -31454,7 +31581,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>44307</v>
       </c>
@@ -31477,7 +31604,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>44308</v>
       </c>
@@ -31503,7 +31630,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>44309</v>
       </c>
@@ -31523,7 +31650,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>44310</v>
       </c>
@@ -31543,7 +31670,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>44311</v>
       </c>
@@ -31563,7 +31690,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>44312</v>
       </c>
@@ -31583,7 +31710,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>44313</v>
       </c>
@@ -31603,7 +31730,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>44314</v>
       </c>
@@ -31626,7 +31753,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>44315</v>
       </c>
@@ -31646,7 +31773,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>44316</v>
       </c>
@@ -31669,13 +31796,13 @@
         <v>315</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>5</v>
       </c>
@@ -31691,7 +31818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>11</v>
       </c>
@@ -31707,7 +31834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>28</v>
       </c>
@@ -31723,7 +31850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>26</v>
       </c>
@@ -31732,113 +31859,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
     </row>
   </sheetData>
@@ -31869,17 +31996,17 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -31905,7 +32032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>44317</v>
       </c>
@@ -31925,7 +32052,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>44318</v>
       </c>
@@ -31945,7 +32072,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>44319</v>
       </c>
@@ -31965,7 +32092,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44320</v>
       </c>
@@ -31988,7 +32115,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44321</v>
       </c>
@@ -32008,7 +32135,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44322</v>
       </c>
@@ -32028,7 +32155,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>44323</v>
       </c>
@@ -32051,7 +32178,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>44324</v>
       </c>
@@ -32071,7 +32198,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44325</v>
       </c>
@@ -32091,7 +32218,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>44326</v>
       </c>
@@ -32111,7 +32238,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>44327</v>
       </c>
@@ -32134,7 +32261,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44328</v>
       </c>
@@ -32154,7 +32281,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>44329</v>
       </c>
@@ -32174,7 +32301,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44330</v>
       </c>
@@ -32194,7 +32321,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>44331</v>
       </c>
@@ -32211,7 +32338,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>44332</v>
       </c>
@@ -32237,7 +32364,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>44333</v>
       </c>
@@ -32257,7 +32384,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>44334</v>
       </c>
@@ -32280,7 +32407,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>44335</v>
       </c>
@@ -32303,7 +32430,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>44336</v>
       </c>
@@ -32326,7 +32453,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>44337</v>
       </c>
@@ -32346,7 +32473,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>44338</v>
       </c>
@@ -32366,7 +32493,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>44339</v>
       </c>
@@ -32386,7 +32513,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>44340</v>
       </c>
@@ -32406,7 +32533,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>44341</v>
       </c>
@@ -32426,7 +32553,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>44342</v>
       </c>
@@ -32449,7 +32576,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>44343</v>
       </c>
@@ -32469,7 +32596,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>44344</v>
       </c>
@@ -32486,7 +32613,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>44345</v>
       </c>
@@ -32506,7 +32633,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>44346</v>
       </c>
@@ -32529,7 +32656,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>44347</v>
       </c>
@@ -32552,10 +32679,10 @@
         <v>439</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>5</v>
       </c>
@@ -32571,7 +32698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>11</v>
       </c>
@@ -32587,7 +32714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>28</v>
       </c>
@@ -32603,7 +32730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>26</v>
       </c>
@@ -32612,21 +32739,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>395</v>
       </c>
@@ -32635,99 +32762,99 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
     </row>
   </sheetData>
@@ -32761,18 +32888,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -32798,7 +32925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44348</v>
       </c>
@@ -32818,7 +32945,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>44349</v>
       </c>
@@ -32841,7 +32968,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>44350</v>
       </c>
@@ -32861,7 +32988,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>44351</v>
       </c>
@@ -32881,7 +33008,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>44352</v>
       </c>
@@ -32904,7 +33031,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>44353</v>
       </c>
@@ -32924,7 +33051,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>44354</v>
       </c>
@@ -32947,7 +33074,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>44355</v>
       </c>
@@ -32967,7 +33094,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>44356</v>
       </c>
@@ -32987,7 +33114,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>44357</v>
       </c>
@@ -33010,7 +33137,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>44358</v>
       </c>
@@ -33033,7 +33160,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>44359</v>
       </c>
@@ -33053,7 +33180,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>44360</v>
       </c>
@@ -33073,7 +33200,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>44361</v>
       </c>
@@ -33096,7 +33223,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>44362</v>
       </c>
@@ -33116,7 +33243,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>44363</v>
       </c>
@@ -33139,7 +33266,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>44364</v>
       </c>
@@ -33162,7 +33289,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>44365</v>
       </c>
@@ -33182,7 +33309,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>44366</v>
       </c>
@@ -33205,7 +33332,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>44367</v>
       </c>
@@ -33225,7 +33352,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>44368</v>
       </c>
@@ -33248,7 +33375,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>44369</v>
       </c>
@@ -33268,7 +33395,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>44370</v>
       </c>
@@ -33291,7 +33418,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>44371</v>
       </c>
@@ -33314,7 +33441,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>44372</v>
       </c>
@@ -33337,7 +33464,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>44373</v>
       </c>
@@ -33360,7 +33487,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>44374</v>
       </c>
@@ -33380,7 +33507,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>44375</v>
       </c>
@@ -33400,7 +33527,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>44376</v>
       </c>
@@ -33420,7 +33547,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>44377</v>
       </c>
@@ -33443,13 +33570,13 @@
         <v>574</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
@@ -33465,7 +33592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
@@ -33481,7 +33608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
@@ -33497,7 +33624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -33506,27 +33633,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>573</v>
       </c>
@@ -33535,96 +33662,96 @@
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -33658,18 +33785,18 @@
       <selection activeCell="D34" sqref="D34:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -33695,7 +33822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>44378</v>
       </c>
@@ -33718,7 +33845,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>44379</v>
       </c>
@@ -33738,7 +33865,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>44380</v>
       </c>
@@ -33758,7 +33885,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>44381</v>
       </c>
@@ -33778,7 +33905,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>44382</v>
       </c>
@@ -33798,7 +33925,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>44383</v>
       </c>
@@ -33818,7 +33945,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>44384</v>
       </c>
@@ -33838,7 +33965,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>44385</v>
       </c>
@@ -33858,7 +33985,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>44386</v>
       </c>
@@ -33878,7 +34005,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>44387</v>
       </c>
@@ -33901,7 +34028,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>44388</v>
       </c>
@@ -33921,7 +34048,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>44389</v>
       </c>
@@ -33941,7 +34068,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>44390</v>
       </c>
@@ -33964,7 +34091,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>44391</v>
       </c>
@@ -33987,7 +34114,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>44392</v>
       </c>
@@ -34007,7 +34134,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>44393</v>
       </c>
@@ -34030,7 +34157,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>44394</v>
       </c>
@@ -34050,7 +34177,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>44395</v>
       </c>
@@ -34070,7 +34197,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>44396</v>
       </c>
@@ -34090,7 +34217,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>44397</v>
       </c>
@@ -34110,7 +34237,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>44398</v>
       </c>
@@ -34130,7 +34257,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>44399</v>
       </c>
@@ -34150,7 +34277,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>44400</v>
       </c>
@@ -34170,7 +34297,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>44401</v>
       </c>
@@ -34190,7 +34317,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>44402</v>
       </c>
@@ -34210,7 +34337,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>44403</v>
       </c>
@@ -34230,7 +34357,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>44404</v>
       </c>
@@ -34247,7 +34374,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>44405</v>
       </c>
@@ -34267,7 +34394,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>44406</v>
       </c>
@@ -34287,7 +34414,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>44407</v>
       </c>
@@ -34304,7 +34431,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>44408</v>
       </c>
@@ -34324,10 +34451,10 @@
         <v>697</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>5</v>
       </c>
@@ -34343,7 +34470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>11</v>
       </c>
@@ -34359,7 +34486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>28</v>
       </c>
@@ -34375,7 +34502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>26</v>
       </c>
@@ -34384,24 +34511,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>724</v>
       </c>
@@ -34410,107 +34537,107 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
     </row>
   </sheetData>
@@ -34544,17 +34671,17 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -34580,7 +34707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>44409</v>
       </c>
@@ -34600,7 +34727,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>44410</v>
       </c>
@@ -34623,7 +34750,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>44411</v>
       </c>
@@ -34646,7 +34773,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>44412</v>
       </c>
@@ -34666,7 +34793,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>44413</v>
       </c>
@@ -34689,7 +34816,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>44414</v>
       </c>
@@ -34709,7 +34836,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>44415</v>
       </c>
@@ -34732,7 +34859,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>44416</v>
       </c>
@@ -34755,7 +34882,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>44417</v>
       </c>
@@ -34775,7 +34902,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>44418</v>
       </c>
@@ -34795,7 +34922,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>44419</v>
       </c>
@@ -34815,7 +34942,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>44420</v>
       </c>
@@ -34835,7 +34962,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>44421</v>
       </c>
@@ -34855,7 +34982,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>44422</v>
       </c>
@@ -34875,7 +35002,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>44423</v>
       </c>
@@ -34895,7 +35022,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>44424</v>
       </c>
@@ -34918,7 +35045,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>44425</v>
       </c>
@@ -34935,7 +35062,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>44426</v>
       </c>
@@ -34955,7 +35082,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>44427</v>
       </c>
@@ -34975,7 +35102,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>44428</v>
       </c>
@@ -34995,7 +35122,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>44429</v>
       </c>
@@ -35018,7 +35145,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>44430</v>
       </c>
@@ -35038,7 +35165,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>44431</v>
       </c>
@@ -35058,7 +35185,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>44432</v>
       </c>
@@ -35078,7 +35205,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>44433</v>
       </c>
@@ -35098,7 +35225,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>44434</v>
       </c>
@@ -35118,7 +35245,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>44435</v>
       </c>
@@ -35138,7 +35265,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>44436</v>
       </c>
@@ -35161,7 +35288,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>44437</v>
       </c>
@@ -35181,7 +35308,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>44438</v>
       </c>
@@ -35204,7 +35331,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>44439</v>
       </c>
@@ -35227,10 +35354,10 @@
         <v>850</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>5</v>
       </c>
@@ -35246,7 +35373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>11</v>
       </c>
@@ -35262,7 +35389,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>28</v>
       </c>
@@ -35278,7 +35405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>26</v>
       </c>
@@ -35287,24 +35414,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>763</v>
       </c>
@@ -35313,103 +35440,103 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="18"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="18"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="18"/>
     </row>
   </sheetData>
@@ -35442,18 +35569,18 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -35479,7 +35606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>44440</v>
       </c>
@@ -35499,7 +35626,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>44441</v>
       </c>
@@ -35519,7 +35646,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>44442</v>
       </c>
@@ -35539,7 +35666,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>44443</v>
       </c>
@@ -35559,7 +35686,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>44444</v>
       </c>
@@ -35582,7 +35709,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>44445</v>
       </c>
@@ -35602,7 +35729,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>44446</v>
       </c>
@@ -35622,7 +35749,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>44447</v>
       </c>
@@ -35642,7 +35769,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>44448</v>
       </c>
@@ -35662,7 +35789,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44449</v>
       </c>
@@ -35682,7 +35809,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>44450</v>
       </c>
@@ -35702,7 +35829,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>44451</v>
       </c>
@@ -35725,7 +35852,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>44452</v>
       </c>
@@ -35745,7 +35872,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>44453</v>
       </c>
@@ -35768,7 +35895,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>44454</v>
       </c>
@@ -35788,7 +35915,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>44455</v>
       </c>
@@ -35811,7 +35938,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>44456</v>
       </c>
@@ -35831,7 +35958,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>44457</v>
       </c>
@@ -35851,7 +35978,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>44458</v>
       </c>
@@ -35871,7 +35998,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>44459</v>
       </c>
@@ -35891,7 +36018,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>44460</v>
       </c>
@@ -35908,7 +36035,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>44461</v>
       </c>
@@ -35928,7 +36055,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>44462</v>
       </c>
@@ -35945,7 +36072,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>44463</v>
       </c>
@@ -35965,7 +36092,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>44464</v>
       </c>
@@ -35988,7 +36115,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>44465</v>
       </c>
@@ -36008,7 +36135,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>44466</v>
       </c>
@@ -36028,7 +36155,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>44467</v>
       </c>
@@ -36048,7 +36175,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>44468</v>
       </c>
@@ -36068,7 +36195,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>44469</v>
       </c>
@@ -36088,13 +36215,13 @@
         <v>982</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>5</v>
       </c>
@@ -36110,7 +36237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>11</v>
       </c>
@@ -36126,7 +36253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>28</v>
       </c>
@@ -36142,7 +36269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>26</v>
       </c>
@@ -36151,24 +36278,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>983</v>
       </c>
@@ -36177,103 +36304,103 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="22"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="22"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="22"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="22"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="22"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="22"/>
     </row>
   </sheetData>

--- a/22年力扣每日一题做题情况.xlsx
+++ b/22年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDCFB02-4C8A-4986-8F89-5E9A5330575D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DD85B4-4264-4D80-8D7F-31027133D2A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="1538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="1551">
   <si>
     <t>贪心</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6174,6 +6174,58 @@
   </si>
   <si>
     <t>记忆化搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找出星型图的中心节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煎饼排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒泡排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1比特与2比特字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推多米诺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟/bfs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10222,13 +10274,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -27068,7 +27120,7 @@
       </c>
       <c r="D2" s="29">
         <f>'22年2月'!E34</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="29">
         <f>'[1]21年3月'!E34</f>
@@ -27112,11 +27164,11 @@
       </c>
       <c r="P2">
         <f>SUM(C2:N2)</f>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q2">
         <f>P2/12</f>
-        <v>10</v>
+        <v>10.166666666666666</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
@@ -27129,7 +27181,7 @@
       </c>
       <c r="D3" s="29">
         <f>'22年2月'!E35</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="29">
         <f>'[1]21年3月'!E35</f>
@@ -27173,11 +27225,11 @@
       </c>
       <c r="P3">
         <f>SUM(C3:N3)</f>
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q4" si="0">P3/12</f>
-        <v>14.25</v>
+        <v>14.416666666666666</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
@@ -28743,8 +28795,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -29127,21 +29179,78 @@
       <c r="A19" s="27">
         <v>44610</v>
       </c>
+      <c r="B19">
+        <v>1791</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1541</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>44611</v>
       </c>
+      <c r="B20">
+        <v>969</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1545</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>44612</v>
       </c>
+      <c r="B21">
+        <v>717</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1544</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>44613</v>
       </c>
+      <c r="B22">
+        <v>838</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1550</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
@@ -29206,14 +29315,14 @@
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -29229,7 +29338,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -29238,7 +29347,7 @@
       </c>
       <c r="B36">
         <f>COUNTIF(E2:E32,"CV后看懂")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>

--- a/22年力扣每日一题做题情况.xlsx
+++ b/22年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DD85B4-4264-4D80-8D7F-31027133D2A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF3D6CF-18DF-4CBC-90FC-8E3088C2AEE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="1551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="1555">
   <si>
     <t>贪心</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6226,6 +6226,22 @@
   </si>
   <si>
     <t>模拟/bfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好子集的数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后没看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态压缩动态规划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10283,7 +10299,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27242,7 +27258,7 @@
       </c>
       <c r="D4" s="29">
         <f>'22年2月'!E36</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="29">
         <f>'[1]21年3月'!E36</f>
@@ -27286,11 +27302,11 @@
       </c>
       <c r="P4">
         <f>SUM(C4:N4)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>5.25</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -28796,7 +28812,7 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -29256,6 +29272,21 @@
       <c r="A23" s="27">
         <v>44614</v>
       </c>
+      <c r="B23">
+        <v>1994</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1554</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
@@ -29354,7 +29385,7 @@
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -29363,7 +29394,7 @@
       </c>
       <c r="B37">
         <f>COUNTIF(E2:E32,"CV后没看懂")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">

--- a/22年力扣每日一题做题情况.xlsx
+++ b/22年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C28E3C-92D7-4785-A329-9B0A2C0369F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EADF81A-CD18-4CD5-9AA1-8437C8AFD12D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="1575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="1579">
   <si>
     <t>贪心</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6322,6 +6322,22 @@
   </si>
   <si>
     <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多可达成的换楼请求数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯+枚举 / 二进制枚举</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10364,7 +10380,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -27326,7 +27342,7 @@
       </c>
       <c r="D4" s="28">
         <f>'22年2月'!E36</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="28">
         <f>'[1]21年3月'!E36</f>
@@ -27370,11 +27386,11 @@
       </c>
       <c r="P4">
         <f>SUM(C4:N4)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>5.333333333333333</v>
+        <v>5.416666666666667</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.15">
@@ -28879,8 +28895,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -29463,7 +29479,21 @@
       <c r="A29" s="26">
         <v>44620</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="B29">
+        <v>1601</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>1578</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
@@ -29515,14 +29545,14 @@
       </c>
       <c r="B36">
         <f>COUNTIF(E2:E32,"CV后看懂")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">

--- a/22年力扣每日一题做题情况.xlsx
+++ b/22年力扣每日一题做题情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FD3EE2-D799-47EB-943C-0613E556501B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B993FA4-2567-4996-8E4B-65FAA4496B95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="22年1月" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="1467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="1470">
   <si>
     <t>贪心</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5890,6 +5890,18 @@
   </si>
   <si>
     <t>模拟/找规律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找最近的回文数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后没看懂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10204,7 +10216,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23179,17 +23191,17 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -23215,7 +23227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
@@ -23232,7 +23244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="26">
         <v>44563</v>
       </c>
@@ -23252,7 +23264,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="26">
         <v>44564</v>
       </c>
@@ -23272,7 +23284,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="26">
         <v>44565</v>
       </c>
@@ -23292,7 +23304,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="26">
         <v>44566</v>
       </c>
@@ -23309,7 +23321,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="26">
         <v>44567</v>
       </c>
@@ -23329,7 +23341,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="26">
         <v>44568</v>
       </c>
@@ -23349,7 +23361,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="26">
         <v>44569</v>
       </c>
@@ -23372,7 +23384,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="26">
         <v>44570</v>
       </c>
@@ -23389,7 +23401,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="26">
         <v>44571</v>
       </c>
@@ -23409,7 +23421,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="26">
         <v>44572</v>
       </c>
@@ -23429,7 +23441,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="26">
         <v>44573</v>
       </c>
@@ -23452,7 +23464,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="26">
         <v>44574</v>
       </c>
@@ -23469,7 +23481,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="26">
         <v>44575</v>
       </c>
@@ -23489,7 +23501,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="26">
         <v>44576</v>
       </c>
@@ -23509,7 +23521,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="26">
         <v>44577</v>
       </c>
@@ -23532,7 +23544,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="26">
         <v>44578</v>
       </c>
@@ -23552,7 +23564,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="26">
         <v>44579</v>
       </c>
@@ -23572,7 +23584,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="26">
         <v>44580</v>
       </c>
@@ -23592,7 +23604,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="26">
         <v>44581</v>
       </c>
@@ -23612,7 +23624,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="26">
         <v>44582</v>
       </c>
@@ -23632,7 +23644,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="26">
         <v>44583</v>
       </c>
@@ -23649,7 +23661,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="26">
         <v>44584</v>
       </c>
@@ -23669,7 +23681,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="26">
         <v>44585</v>
       </c>
@@ -23689,7 +23701,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="26">
         <v>44586</v>
       </c>
@@ -23709,7 +23721,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="26">
         <v>44587</v>
       </c>
@@ -23729,7 +23741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="26">
         <v>44588</v>
       </c>
@@ -23749,7 +23761,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="26">
         <v>44589</v>
       </c>
@@ -23769,7 +23781,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="26">
         <v>44590</v>
       </c>
@@ -23792,7 +23804,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="26">
         <v>44591</v>
       </c>
@@ -23815,7 +23827,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="26">
         <v>44592</v>
       </c>
@@ -23835,10 +23847,10 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -23854,7 +23866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -23870,7 +23882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -23886,7 +23898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
@@ -23895,18 +23907,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="30" t="s">
         <v>1252</v>
       </c>
@@ -23915,127 +23927,127 @@
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="E42" s="30"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="30"/>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="31"/>
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
       <c r="D48" s="31"/>
       <c r="E48" s="31"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="31"/>
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="31"/>
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -24069,18 +24081,18 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -24106,7 +24118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="23">
         <v>44470</v>
       </c>
@@ -24126,7 +24138,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="23">
         <v>44471</v>
       </c>
@@ -24146,7 +24158,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="23">
         <v>44472</v>
       </c>
@@ -24169,7 +24181,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="23">
         <v>44473</v>
       </c>
@@ -24189,7 +24201,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="23">
         <v>44474</v>
       </c>
@@ -24206,7 +24218,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="23">
         <v>44475</v>
       </c>
@@ -24223,7 +24235,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="23">
         <v>44476</v>
       </c>
@@ -24240,7 +24252,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="23">
         <v>44477</v>
       </c>
@@ -24263,7 +24275,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="23">
         <v>44478</v>
       </c>
@@ -24286,7 +24298,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="23">
         <v>44479</v>
       </c>
@@ -24306,7 +24318,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="23">
         <v>44480</v>
       </c>
@@ -24326,7 +24338,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="23">
         <v>44481</v>
       </c>
@@ -24349,7 +24361,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="23">
         <v>44482</v>
       </c>
@@ -24369,7 +24381,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="23">
         <v>44483</v>
       </c>
@@ -24389,7 +24401,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="23">
         <v>44484</v>
       </c>
@@ -24409,7 +24421,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="23">
         <v>44485</v>
       </c>
@@ -24432,7 +24444,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="23">
         <v>44486</v>
       </c>
@@ -24455,7 +24467,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="23">
         <v>44487</v>
       </c>
@@ -24478,7 +24490,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="23">
         <v>44488</v>
       </c>
@@ -24501,7 +24513,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="23">
         <v>44489</v>
       </c>
@@ -24521,7 +24533,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="23">
         <v>44490</v>
       </c>
@@ -24541,7 +24553,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="23">
         <v>44491</v>
       </c>
@@ -24564,7 +24576,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="23">
         <v>44492</v>
       </c>
@@ -24584,7 +24596,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="23">
         <v>44493</v>
       </c>
@@ -24607,7 +24619,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="23">
         <v>44494</v>
       </c>
@@ -24627,7 +24639,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="23">
         <v>44495</v>
       </c>
@@ -24644,7 +24656,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="23">
         <v>44496</v>
       </c>
@@ -24664,7 +24676,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="23">
         <v>44497</v>
       </c>
@@ -24684,7 +24696,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="23">
         <v>44498</v>
       </c>
@@ -24704,7 +24716,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="23">
         <v>44499</v>
       </c>
@@ -24727,7 +24739,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="23">
         <v>44500</v>
       </c>
@@ -24747,10 +24759,10 @@
         <v>997</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="23"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="23" t="s">
         <v>5</v>
       </c>
@@ -24766,7 +24778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="23" t="s">
         <v>11</v>
       </c>
@@ -24782,7 +24794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="23" t="s">
         <v>28</v>
       </c>
@@ -24798,7 +24810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="23" t="s">
         <v>26</v>
       </c>
@@ -24807,24 +24819,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="23"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="23"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="23"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="23"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="30" t="s">
         <v>982</v>
       </c>
@@ -24833,103 +24845,103 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="23"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="23"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="23"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="23"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="23"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="23"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="23"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="23"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="23"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="23"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="23"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="23"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="23"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="23"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="23"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="23"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="23"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="23"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="23"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="23"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="23"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="23"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="23"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="23"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="23"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="23"/>
     </row>
   </sheetData>
@@ -24962,17 +24974,17 @@
       <selection activeCell="A43" sqref="A43:D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -24998,7 +25010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="24">
         <v>44501</v>
       </c>
@@ -25018,7 +25030,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
         <v>44502</v>
       </c>
@@ -25041,7 +25053,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>44503</v>
       </c>
@@ -25064,7 +25076,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
         <v>44504</v>
       </c>
@@ -25087,7 +25099,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
         <v>44505</v>
       </c>
@@ -25110,7 +25122,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
         <v>44506</v>
       </c>
@@ -25130,7 +25142,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>44507</v>
       </c>
@@ -25150,7 +25162,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
         <v>44508</v>
       </c>
@@ -25170,7 +25182,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>44509</v>
       </c>
@@ -25190,7 +25202,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="24">
         <v>44510</v>
       </c>
@@ -25210,7 +25222,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
         <v>44511</v>
       </c>
@@ -25230,7 +25242,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
         <v>44512</v>
       </c>
@@ -25250,7 +25262,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="24">
         <v>44513</v>
       </c>
@@ -25270,7 +25282,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="24">
         <v>44514</v>
       </c>
@@ -25290,7 +25302,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="24">
         <v>44515</v>
       </c>
@@ -25310,7 +25322,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="24">
         <v>44516</v>
       </c>
@@ -25330,7 +25342,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="24">
         <v>44517</v>
       </c>
@@ -25350,7 +25362,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="24">
         <v>44518</v>
       </c>
@@ -25370,7 +25382,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="24">
         <v>44519</v>
       </c>
@@ -25390,7 +25402,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="24">
         <v>44520</v>
       </c>
@@ -25410,7 +25422,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="24">
         <v>44521</v>
       </c>
@@ -25430,7 +25442,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="24">
         <v>44522</v>
       </c>
@@ -25456,7 +25468,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="24">
         <v>44523</v>
       </c>
@@ -25476,7 +25488,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="24">
         <v>44524</v>
       </c>
@@ -25496,7 +25508,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="24">
         <v>44525</v>
       </c>
@@ -25519,7 +25531,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="24">
         <v>44526</v>
       </c>
@@ -25539,7 +25551,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="24">
         <v>44527</v>
       </c>
@@ -25562,7 +25574,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="24">
         <v>44528</v>
       </c>
@@ -25582,7 +25594,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="24">
         <v>44529</v>
       </c>
@@ -25602,7 +25614,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="24">
         <v>44530</v>
       </c>
@@ -25622,13 +25634,13 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="24"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="24"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="24" t="s">
         <v>5</v>
       </c>
@@ -25644,7 +25656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
         <v>11</v>
       </c>
@@ -25660,7 +25672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="24" t="s">
         <v>28</v>
       </c>
@@ -25676,7 +25688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="24" t="s">
         <v>26</v>
       </c>
@@ -25685,24 +25697,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="24"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="24"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="24"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="24"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="30" t="s">
         <v>1120</v>
       </c>
@@ -25710,103 +25722,103 @@
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="24"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="24"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="24"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="24"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="24"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="24"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="24"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="24"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="24"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="24"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="24"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="24"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="24"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="24"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="24"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="24"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="24"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="24"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="24"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="24"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="24"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="24"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="24"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="24"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="24"/>
     </row>
   </sheetData>
@@ -25839,17 +25851,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -25875,7 +25887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="25">
         <v>44531</v>
       </c>
@@ -25892,7 +25904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="25">
         <v>44532</v>
       </c>
@@ -25912,7 +25924,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="25">
         <v>44533</v>
       </c>
@@ -25932,7 +25944,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="25">
         <v>44534</v>
       </c>
@@ -25949,7 +25961,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="25">
         <v>44535</v>
       </c>
@@ -25969,7 +25981,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="25">
         <v>44536</v>
       </c>
@@ -25986,7 +25998,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="25">
         <v>44537</v>
       </c>
@@ -26006,7 +26018,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="25">
         <v>44538</v>
       </c>
@@ -26026,7 +26038,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="25">
         <v>44539</v>
       </c>
@@ -26046,7 +26058,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="25">
         <v>44540</v>
       </c>
@@ -26063,7 +26075,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="25">
         <v>44541</v>
       </c>
@@ -26083,7 +26095,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="25">
         <v>44542</v>
       </c>
@@ -26100,7 +26112,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="25">
         <v>44543</v>
       </c>
@@ -26120,7 +26132,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="25">
         <v>44544</v>
       </c>
@@ -26140,7 +26152,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="25">
         <v>44545</v>
       </c>
@@ -26160,7 +26172,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="25">
         <v>44546</v>
       </c>
@@ -26183,7 +26195,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="25">
         <v>44547</v>
       </c>
@@ -26203,7 +26215,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="25">
         <v>44548</v>
       </c>
@@ -26220,7 +26232,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="25">
         <v>44549</v>
       </c>
@@ -26240,7 +26252,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="25">
         <v>44550</v>
       </c>
@@ -26263,7 +26275,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="25">
         <v>44551</v>
       </c>
@@ -26283,7 +26295,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="25">
         <v>44552</v>
       </c>
@@ -26306,7 +26318,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="25">
         <v>44553</v>
       </c>
@@ -26326,7 +26338,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="25">
         <v>44554</v>
       </c>
@@ -26346,7 +26358,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="25">
         <v>44555</v>
       </c>
@@ -26366,7 +26378,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="25">
         <v>44556</v>
       </c>
@@ -26383,7 +26395,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="25">
         <v>44557</v>
       </c>
@@ -26403,7 +26415,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="25">
         <v>44558</v>
       </c>
@@ -26423,7 +26435,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="25">
         <v>44559</v>
       </c>
@@ -26446,7 +26458,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="25">
         <v>44560</v>
       </c>
@@ -26466,7 +26478,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="25">
         <v>44561</v>
       </c>
@@ -26483,10 +26495,10 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="25"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="25" t="s">
         <v>5</v>
       </c>
@@ -26502,7 +26514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="25" t="s">
         <v>11</v>
       </c>
@@ -26518,7 +26530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="25" t="s">
         <v>28</v>
       </c>
@@ -26534,7 +26546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="25" t="s">
         <v>26</v>
       </c>
@@ -26543,111 +26555,111 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="25"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="25"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="25"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="25"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="25"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="25"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="25"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="25"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="25"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="25"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="25"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="25"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="25"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="25"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="25"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="25"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="25"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="25"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="25"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="25"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="25"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="25"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="25"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="25"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="25"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="25"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="25"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="25"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="25"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="25"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="25"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="25"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="25"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="25"/>
     </row>
   </sheetData>
@@ -26674,18 +26686,18 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="B1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>1340</v>
       </c>
@@ -26729,7 +26741,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B2" s="27" t="s">
         <v>17</v>
       </c>
@@ -26790,7 +26802,7 @@
         <v>2.0833333333333335</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B3" s="27" t="s">
         <v>16</v>
       </c>
@@ -26851,7 +26863,7 @@
         <v>13.25</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B4" s="27" t="s">
         <v>18</v>
       </c>
@@ -26865,7 +26877,7 @@
       </c>
       <c r="E4" s="28">
         <f>'22年3月'!E36</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="28">
         <f>'[1]21年4月'!E36</f>
@@ -26905,14 +26917,14 @@
       </c>
       <c r="P4">
         <f>SUM(C4:N4)</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>5.083333333333333</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+        <v>5.166666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>1340</v>
       </c>
@@ -26956,7 +26968,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B27" s="27" t="s">
         <v>5</v>
       </c>
@@ -27017,7 +27029,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B28" s="27" t="s">
         <v>11</v>
       </c>
@@ -27078,7 +27090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B29" s="27" t="s">
         <v>28</v>
       </c>
@@ -27139,7 +27151,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B30" s="27" t="s">
         <v>26</v>
       </c>
@@ -27217,16 +27229,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -27240,7 +27252,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -27263,7 +27275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -27277,7 +27289,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1801</v>
       </c>
@@ -27294,7 +27306,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -27314,7 +27326,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1803</v>
       </c>
@@ -27331,7 +27343,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -27345,7 +27357,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -27357,28 +27369,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -27415,16 +27427,16 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -27438,7 +27450,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -27461,7 +27473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5713</v>
       </c>
@@ -27481,7 +27493,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5715</v>
       </c>
@@ -27498,7 +27510,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5714</v>
       </c>
@@ -27515,7 +27527,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5716</v>
       </c>
@@ -27532,7 +27544,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -27546,7 +27558,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -27558,28 +27570,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -27616,16 +27628,16 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -27639,7 +27651,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -27662,7 +27674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -27679,7 +27691,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -27696,7 +27708,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -27713,7 +27725,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -27730,7 +27742,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -27747,7 +27759,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -27761,7 +27773,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -27773,28 +27785,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -27830,16 +27842,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -27853,7 +27865,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -27876,7 +27888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>786</v>
       </c>
@@ -27893,7 +27905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>779</v>
       </c>
@@ -27910,7 +27922,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>782</v>
       </c>
@@ -27927,7 +27939,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>783</v>
       </c>
@@ -27941,7 +27953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>784</v>
       </c>
@@ -27952,7 +27964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -27966,7 +27978,7 @@
         <v>8176</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -27978,28 +27990,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -28036,16 +28048,16 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -28059,7 +28071,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -28082,7 +28094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5161</v>
       </c>
@@ -28099,7 +28111,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5814</v>
       </c>
@@ -28116,7 +28128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5815</v>
       </c>
@@ -28133,7 +28145,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5816</v>
       </c>
@@ -28150,7 +28162,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -28164,7 +28176,7 @@
         <v>4314</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -28176,28 +28188,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -28234,16 +28246,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -28257,7 +28269,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -28280,7 +28292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5830</v>
       </c>
@@ -28294,7 +28306,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5831</v>
       </c>
@@ -28311,7 +28323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5187</v>
       </c>
@@ -28325,7 +28337,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5833</v>
       </c>
@@ -28336,7 +28348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -28350,7 +28362,7 @@
         <v>4646</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -28360,28 +28372,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -28418,17 +28430,17 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -28454,7 +28466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44593</v>
       </c>
@@ -28477,7 +28489,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="26">
         <v>44594</v>
       </c>
@@ -28494,7 +28506,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="26">
         <v>44595</v>
       </c>
@@ -28514,7 +28526,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="26">
         <v>44596</v>
       </c>
@@ -28531,7 +28543,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="26">
         <v>44597</v>
       </c>
@@ -28551,7 +28563,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="26">
         <v>44598</v>
       </c>
@@ -28568,7 +28580,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="26">
         <v>44599</v>
       </c>
@@ -28591,7 +28603,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="26">
         <v>44600</v>
       </c>
@@ -28611,7 +28623,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="26">
         <v>44601</v>
       </c>
@@ -28631,7 +28643,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="26">
         <v>44602</v>
       </c>
@@ -28654,7 +28666,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="26">
         <v>44603</v>
       </c>
@@ -28674,7 +28686,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="26">
         <v>44604</v>
       </c>
@@ -28694,7 +28706,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="26">
         <v>44605</v>
       </c>
@@ -28711,7 +28723,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="26">
         <v>44606</v>
       </c>
@@ -28734,7 +28746,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="26">
         <v>44607</v>
       </c>
@@ -28751,7 +28763,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="26">
         <v>44608</v>
       </c>
@@ -28771,7 +28783,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="26">
         <v>44609</v>
       </c>
@@ -28794,7 +28806,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="26">
         <v>44610</v>
       </c>
@@ -28814,7 +28826,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="26">
         <v>44611</v>
       </c>
@@ -28834,7 +28846,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="26">
         <v>44612</v>
       </c>
@@ -28851,7 +28863,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="26">
         <v>44613</v>
       </c>
@@ -28871,7 +28883,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="26">
         <v>44614</v>
       </c>
@@ -28891,7 +28903,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="26">
         <v>44615</v>
       </c>
@@ -28911,7 +28923,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="26">
         <v>44616</v>
       </c>
@@ -28931,7 +28943,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="26">
         <v>44617</v>
       </c>
@@ -28951,7 +28963,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="26">
         <v>44618</v>
       </c>
@@ -28971,7 +28983,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="26">
         <v>44619</v>
       </c>
@@ -28994,7 +29006,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="26">
         <v>44620</v>
       </c>
@@ -29014,19 +29026,19 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
@@ -29042,7 +29054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
@@ -29058,7 +29070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
@@ -29074,7 +29086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -29083,121 +29095,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="32"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
     </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="32"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -29234,16 +29246,16 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -29257,7 +29269,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -29280,7 +29292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5193</v>
       </c>
@@ -29297,7 +29309,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5827</v>
       </c>
@@ -29314,7 +29326,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5828</v>
       </c>
@@ -29334,7 +29346,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5220</v>
       </c>
@@ -29354,7 +29366,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -29368,7 +29380,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -29380,28 +29392,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -29437,16 +29449,16 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="42.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -29460,7 +29472,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -29483,7 +29495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5838</v>
       </c>
@@ -29497,7 +29509,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5839</v>
       </c>
@@ -29517,7 +29529,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5840</v>
       </c>
@@ -29534,7 +29546,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5841</v>
       </c>
@@ -29551,7 +29563,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -29565,7 +29577,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -29577,28 +29589,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -29635,17 +29647,17 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -29671,103 +29683,103 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="13"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="13"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="13"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="13"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="13"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="13"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="13"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="13" t="s">
         <v>5</v>
       </c>
@@ -29783,7 +29795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="13" t="s">
         <v>11</v>
       </c>
@@ -29799,7 +29811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="13" t="s">
         <v>28</v>
       </c>
@@ -29815,7 +29827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="13" t="s">
         <v>26</v>
       </c>
@@ -29824,111 +29836,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="13"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="13"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="13"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="13"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="13"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="13"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="13"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="13"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="13"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="13"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="13"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="13"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="13"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="13"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="13"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="13"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="13"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="13"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="13"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="13"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="13"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="13"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="13"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="13"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="13"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="13"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="13"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="13"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="13"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="13"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="13"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="13"/>
     </row>
   </sheetData>
@@ -29958,16 +29970,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -29979,7 +29991,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -30002,7 +30014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -30010,7 +30022,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -30020,28 +30032,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -30074,21 +30086,21 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -30114,7 +30126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>44621</v>
       </c>
@@ -30134,185 +30146,200 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="29">
         <v>44622</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>564</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="29">
         <v>44623</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="29">
         <v>44624</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="29">
         <v>44625</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="29">
         <v>44626</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>44627</v>
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="29">
         <v>44628</v>
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="29">
         <v>44629</v>
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="29">
         <v>44630</v>
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="29">
         <v>44631</v>
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="29">
         <v>44632</v>
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="29">
         <v>44633</v>
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="29">
         <v>44634</v>
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="29">
         <v>44635</v>
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="29">
         <v>44636</v>
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="29">
         <v>44637</v>
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="29">
         <v>44638</v>
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="29">
         <v>44639</v>
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="29">
         <v>44640</v>
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="29">
         <v>44641</v>
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="29">
         <v>44642</v>
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="29">
         <v>44643</v>
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="29">
         <v>44644</v>
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="29">
         <v>44645</v>
       </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="29">
         <v>44646</v>
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="29">
         <v>44647</v>
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="29">
         <v>44648</v>
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="29">
         <v>44649</v>
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="29">
         <v>44650</v>
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="29">
         <v>44651</v>
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -30328,7 +30355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>11</v>
       </c>
@@ -30344,7 +30371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -30357,123 +30384,123 @@
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B37">
         <f>COUNTIF(E2:E32,"CV后没看懂")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="5"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="5"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="5"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="5"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="5"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="5"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="5"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="5"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="5"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="5"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="5"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="5"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="5"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="5"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="5"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="5"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="5"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="5"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="5"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="5"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
     </row>
   </sheetData>
@@ -30504,18 +30531,18 @@
       <selection activeCell="D34" sqref="D34:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -30541,7 +30568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>44287</v>
       </c>
@@ -30561,7 +30588,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>44288</v>
       </c>
@@ -30581,7 +30608,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>44289</v>
       </c>
@@ -30601,7 +30628,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>44290</v>
       </c>
@@ -30621,7 +30648,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>44291</v>
       </c>
@@ -30641,7 +30668,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>44292</v>
       </c>
@@ -30661,7 +30688,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>44293</v>
       </c>
@@ -30684,7 +30711,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>44294</v>
       </c>
@@ -30704,7 +30731,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>44295</v>
       </c>
@@ -30724,7 +30751,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>44296</v>
       </c>
@@ -30741,7 +30768,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>44297</v>
       </c>
@@ -30764,7 +30791,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>44298</v>
       </c>
@@ -30787,7 +30814,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>44299</v>
       </c>
@@ -30807,7 +30834,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>44300</v>
       </c>
@@ -30827,7 +30854,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>44301</v>
       </c>
@@ -30847,7 +30874,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>44302</v>
       </c>
@@ -30870,7 +30897,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>44303</v>
       </c>
@@ -30896,7 +30923,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>44304</v>
       </c>
@@ -30916,7 +30943,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>44305</v>
       </c>
@@ -30939,7 +30966,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>44306</v>
       </c>
@@ -30962,7 +30989,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>44307</v>
       </c>
@@ -30985,7 +31012,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>44308</v>
       </c>
@@ -31011,7 +31038,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>44309</v>
       </c>
@@ -31031,7 +31058,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>44310</v>
       </c>
@@ -31051,7 +31078,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>44311</v>
       </c>
@@ -31071,7 +31098,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>44312</v>
       </c>
@@ -31091,7 +31118,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>44313</v>
       </c>
@@ -31111,7 +31138,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>44314</v>
       </c>
@@ -31134,7 +31161,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>44315</v>
       </c>
@@ -31154,7 +31181,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>44316</v>
       </c>
@@ -31177,13 +31204,13 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="9"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>5</v>
       </c>
@@ -31199,7 +31226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>11</v>
       </c>
@@ -31215,7 +31242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>28</v>
       </c>
@@ -31231,7 +31258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>26</v>
       </c>
@@ -31240,113 +31267,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="9"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="9"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="9"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="9"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="9"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="9"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="9"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="9"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="9"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="9"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="9"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="9"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="9"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="9"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="9"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="9"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="9"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="9"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="9"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="9"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="9"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="9"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="9"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="9"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="9"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="9"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="9"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="9"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="9"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="9"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="9"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="9"/>
     </row>
   </sheetData>
@@ -31377,17 +31404,17 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -31413,7 +31440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <v>44317</v>
       </c>
@@ -31433,7 +31460,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>44318</v>
       </c>
@@ -31453,7 +31480,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>44319</v>
       </c>
@@ -31473,7 +31500,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>44320</v>
       </c>
@@ -31496,7 +31523,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
         <v>44321</v>
       </c>
@@ -31516,7 +31543,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>44322</v>
       </c>
@@ -31536,7 +31563,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <v>44323</v>
       </c>
@@ -31559,7 +31586,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>44324</v>
       </c>
@@ -31579,7 +31606,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
         <v>44325</v>
       </c>
@@ -31599,7 +31626,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>44326</v>
       </c>
@@ -31619,7 +31646,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
         <v>44327</v>
       </c>
@@ -31642,7 +31669,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>44328</v>
       </c>
@@ -31662,7 +31689,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
         <v>44329</v>
       </c>
@@ -31682,7 +31709,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>44330</v>
       </c>
@@ -31702,7 +31729,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="11">
         <v>44331</v>
       </c>
@@ -31719,7 +31746,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>44332</v>
       </c>
@@ -31745,7 +31772,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="11">
         <v>44333</v>
       </c>
@@ -31765,7 +31792,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>44334</v>
       </c>
@@ -31788,7 +31815,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="11">
         <v>44335</v>
       </c>
@@ -31811,7 +31838,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>44336</v>
       </c>
@@ -31834,7 +31861,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="11">
         <v>44337</v>
       </c>
@@ -31854,7 +31881,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>44338</v>
       </c>
@@ -31874,7 +31901,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
         <v>44339</v>
       </c>
@@ -31894,7 +31921,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
         <v>44340</v>
       </c>
@@ -31914,7 +31941,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="11">
         <v>44341</v>
       </c>
@@ -31934,7 +31961,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="11">
         <v>44342</v>
       </c>
@@ -31957,7 +31984,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="11">
         <v>44343</v>
       </c>
@@ -31977,7 +32004,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="11">
         <v>44344</v>
       </c>
@@ -31994,7 +32021,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="11">
         <v>44345</v>
       </c>
@@ -32014,7 +32041,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="11">
         <v>44346</v>
       </c>
@@ -32037,7 +32064,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="11">
         <v>44347</v>
       </c>
@@ -32060,10 +32087,10 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="s">
         <v>5</v>
       </c>
@@ -32079,7 +32106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
         <v>11</v>
       </c>
@@ -32095,7 +32122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
         <v>28</v>
       </c>
@@ -32111,7 +32138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
         <v>26</v>
       </c>
@@ -32120,21 +32147,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="30" t="s">
         <v>281</v>
       </c>
@@ -32143,99 +32170,99 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="11"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="11"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="11"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="11"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="11"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="11"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="11"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="11"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="11"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="11"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="11"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="11"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="11"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="11"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="11"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="11"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="11"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="11"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="11"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="11"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
     </row>
   </sheetData>
@@ -32269,18 +32296,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -32306,7 +32333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44348</v>
       </c>
@@ -32326,7 +32353,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>44349</v>
       </c>
@@ -32349,7 +32376,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>44350</v>
       </c>
@@ -32369,7 +32396,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>44351</v>
       </c>
@@ -32389,7 +32416,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>44352</v>
       </c>
@@ -32412,7 +32439,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>44353</v>
       </c>
@@ -32432,7 +32459,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>44354</v>
       </c>
@@ -32455,7 +32482,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>44355</v>
       </c>
@@ -32475,7 +32502,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>44356</v>
       </c>
@@ -32495,7 +32522,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>44357</v>
       </c>
@@ -32518,7 +32545,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>44358</v>
       </c>
@@ -32541,7 +32568,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="12">
         <v>44359</v>
       </c>
@@ -32561,7 +32588,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="12">
         <v>44360</v>
       </c>
@@ -32581,7 +32608,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="12">
         <v>44361</v>
       </c>
@@ -32604,7 +32631,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="12">
         <v>44362</v>
       </c>
@@ -32624,7 +32651,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="12">
         <v>44363</v>
       </c>
@@ -32647,7 +32674,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="12">
         <v>44364</v>
       </c>
@@ -32670,7 +32697,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="12">
         <v>44365</v>
       </c>
@@ -32690,7 +32717,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="12">
         <v>44366</v>
       </c>
@@ -32713,7 +32740,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="12">
         <v>44367</v>
       </c>
@@ -32733,7 +32760,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="12">
         <v>44368</v>
       </c>
@@ -32756,7 +32783,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="12">
         <v>44369</v>
       </c>
@@ -32776,7 +32803,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="12">
         <v>44370</v>
       </c>
@@ -32799,7 +32826,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="12">
         <v>44371</v>
       </c>
@@ -32822,7 +32849,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="12">
         <v>44372</v>
       </c>
@@ -32845,7 +32872,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="12">
         <v>44373</v>
       </c>
@@ -32868,7 +32895,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="12">
         <v>44374</v>
       </c>
@@ -32888,7 +32915,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="12">
         <v>44375</v>
       </c>
@@ -32908,7 +32935,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="12">
         <v>44376</v>
       </c>
@@ -32928,7 +32955,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="12">
         <v>44377</v>
       </c>
@@ -32951,13 +32978,13 @@
         <v>460</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
@@ -32973,7 +33000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
@@ -32989,7 +33016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
@@ -33005,7 +33032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -33014,27 +33041,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="30" t="s">
         <v>459</v>
       </c>
@@ -33043,96 +33070,96 @@
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -33166,18 +33193,18 @@
       <selection activeCell="D34" sqref="D34:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -33203,7 +33230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="14">
         <v>44378</v>
       </c>
@@ -33226,7 +33253,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="14">
         <v>44379</v>
       </c>
@@ -33246,7 +33273,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="14">
         <v>44380</v>
       </c>
@@ -33266,7 +33293,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
         <v>44381</v>
       </c>
@@ -33286,7 +33313,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
         <v>44382</v>
       </c>
@@ -33306,7 +33333,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
         <v>44383</v>
       </c>
@@ -33326,7 +33353,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
         <v>44384</v>
       </c>
@@ -33346,7 +33373,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
         <v>44385</v>
       </c>
@@ -33366,7 +33393,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
         <v>44386</v>
       </c>
@@ -33386,7 +33413,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
         <v>44387</v>
       </c>
@@ -33409,7 +33436,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>44388</v>
       </c>
@@ -33429,7 +33456,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>44389</v>
       </c>
@@ -33449,7 +33476,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>44390</v>
       </c>
@@ -33472,7 +33499,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>44391</v>
       </c>
@@ -33495,7 +33522,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>44392</v>
       </c>
@@ -33515,7 +33542,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>44393</v>
       </c>
@@ -33538,7 +33565,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>44394</v>
       </c>
@@ -33558,7 +33585,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>44395</v>
       </c>
@@ -33578,7 +33605,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>44396</v>
       </c>
@@ -33598,7 +33625,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>44397</v>
       </c>
@@ -33618,7 +33645,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>44398</v>
       </c>
@@ -33638,7 +33665,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>44399</v>
       </c>
@@ -33658,7 +33685,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>44400</v>
       </c>
@@ -33678,7 +33705,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>44401</v>
       </c>
@@ -33698,7 +33725,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>44402</v>
       </c>
@@ -33718,7 +33745,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>44403</v>
       </c>
@@ -33738,7 +33765,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>44404</v>
       </c>
@@ -33755,7 +33782,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>44405</v>
       </c>
@@ -33775,7 +33802,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>44406</v>
       </c>
@@ -33795,7 +33822,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>44407</v>
       </c>
@@ -33812,7 +33839,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <v>44408</v>
       </c>
@@ -33832,10 +33859,10 @@
         <v>583</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="14" t="s">
         <v>5</v>
       </c>
@@ -33851,7 +33878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="14" t="s">
         <v>11</v>
       </c>
@@ -33867,7 +33894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="14" t="s">
         <v>28</v>
       </c>
@@ -33883,7 +33910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="14" t="s">
         <v>26</v>
       </c>
@@ -33892,24 +33919,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="14"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="14"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="14"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="14"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="30" t="s">
         <v>610</v>
       </c>
@@ -33918,107 +33945,107 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="14"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="14"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="14"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="14"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="14"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="14"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="14"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="14"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="14"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="14"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="14"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="14"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="14"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="14"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="14"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="14"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="14"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="14"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="14"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="14"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="14"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="14"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="14"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="14"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="14"/>
     </row>
   </sheetData>
@@ -34052,17 +34079,17 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -34088,7 +34115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="17">
         <v>44409</v>
       </c>
@@ -34108,7 +34135,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="17">
         <v>44410</v>
       </c>
@@ -34131,7 +34158,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="17">
         <v>44411</v>
       </c>
@@ -34154,7 +34181,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="17">
         <v>44412</v>
       </c>
@@ -34174,7 +34201,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="17">
         <v>44413</v>
       </c>
@@ -34197,7 +34224,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="17">
         <v>44414</v>
       </c>
@@ -34217,7 +34244,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="17">
         <v>44415</v>
       </c>
@@ -34240,7 +34267,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="17">
         <v>44416</v>
       </c>
@@ -34263,7 +34290,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="17">
         <v>44417</v>
       </c>
@@ -34283,7 +34310,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="17">
         <v>44418</v>
       </c>
@@ -34303,7 +34330,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="17">
         <v>44419</v>
       </c>
@@ -34323,7 +34350,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="17">
         <v>44420</v>
       </c>
@@ -34343,7 +34370,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="17">
         <v>44421</v>
       </c>
@@ -34363,7 +34390,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="17">
         <v>44422</v>
       </c>
@@ -34383,7 +34410,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="17">
         <v>44423</v>
       </c>
@@ -34403,7 +34430,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="17">
         <v>44424</v>
       </c>
@@ -34426,7 +34453,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="17">
         <v>44425</v>
       </c>
@@ -34443,7 +34470,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="17">
         <v>44426</v>
       </c>
@@ -34463,7 +34490,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="17">
         <v>44427</v>
       </c>
@@ -34483,7 +34510,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="17">
         <v>44428</v>
       </c>
@@ -34503,7 +34530,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="17">
         <v>44429</v>
       </c>
@@ -34526,7 +34553,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="17">
         <v>44430</v>
       </c>
@@ -34546,7 +34573,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="17">
         <v>44431</v>
       </c>
@@ -34566,7 +34593,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="17">
         <v>44432</v>
       </c>
@@ -34586,7 +34613,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="17">
         <v>44433</v>
       </c>
@@ -34606,7 +34633,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="17">
         <v>44434</v>
       </c>
@@ -34626,7 +34653,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="17">
         <v>44435</v>
       </c>
@@ -34646,7 +34673,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="17">
         <v>44436</v>
       </c>
@@ -34669,7 +34696,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="17">
         <v>44437</v>
       </c>
@@ -34689,7 +34716,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="17">
         <v>44438</v>
       </c>
@@ -34712,7 +34739,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="17">
         <v>44439</v>
       </c>
@@ -34735,10 +34762,10 @@
         <v>736</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="17"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="17" t="s">
         <v>5</v>
       </c>
@@ -34754,7 +34781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="17" t="s">
         <v>11</v>
       </c>
@@ -34770,7 +34797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="17" t="s">
         <v>28</v>
       </c>
@@ -34786,7 +34813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="17" t="s">
         <v>26</v>
       </c>
@@ -34795,24 +34822,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="17"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="17"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="17"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="30" t="s">
         <v>649</v>
       </c>
@@ -34821,103 +34848,103 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="17"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="17"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="17"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="17"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="17"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="17"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="17"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="17"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="17"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="17"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="17"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="17"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="17"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="17"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="17"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="17"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="17"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="17"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="17"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="17"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="17"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="17"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="17"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="17"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="17"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="17"/>
     </row>
   </sheetData>
@@ -34950,18 +34977,18 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -34987,7 +35014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="21">
         <v>44440</v>
       </c>
@@ -35007,7 +35034,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>44441</v>
       </c>
@@ -35027,7 +35054,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
         <v>44442</v>
       </c>
@@ -35047,7 +35074,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>44443</v>
       </c>
@@ -35067,7 +35094,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>44444</v>
       </c>
@@ -35090,7 +35117,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>44445</v>
       </c>
@@ -35110,7 +35137,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>44446</v>
       </c>
@@ -35130,7 +35157,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
         <v>44447</v>
       </c>
@@ -35150,7 +35177,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="21">
         <v>44448</v>
       </c>
@@ -35170,7 +35197,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="21">
         <v>44449</v>
       </c>
@@ -35190,7 +35217,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="21">
         <v>44450</v>
       </c>
@@ -35210,7 +35237,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="21">
         <v>44451</v>
       </c>
@@ -35233,7 +35260,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="21">
         <v>44452</v>
       </c>
@@ -35253,7 +35280,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="21">
         <v>44453</v>
       </c>
@@ -35276,7 +35303,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="21">
         <v>44454</v>
       </c>
@@ -35296,7 +35323,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="21">
         <v>44455</v>
       </c>
@@ -35319,7 +35346,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="21">
         <v>44456</v>
       </c>
@@ -35339,7 +35366,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="21">
         <v>44457</v>
       </c>
@@ -35359,7 +35386,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="21">
         <v>44458</v>
       </c>
@@ -35379,7 +35406,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="21">
         <v>44459</v>
       </c>
@@ -35399,7 +35426,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="21">
         <v>44460</v>
       </c>
@@ -35416,7 +35443,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="21">
         <v>44461</v>
       </c>
@@ -35436,7 +35463,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="21">
         <v>44462</v>
       </c>
@@ -35453,7 +35480,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="21">
         <v>44463</v>
       </c>
@@ -35473,7 +35500,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="21">
         <v>44464</v>
       </c>
@@ -35496,7 +35523,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="21">
         <v>44465</v>
       </c>
@@ -35516,7 +35543,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="21">
         <v>44466</v>
       </c>
@@ -35536,7 +35563,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="21">
         <v>44467</v>
       </c>
@@ -35556,7 +35583,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="21">
         <v>44468</v>
       </c>
@@ -35576,7 +35603,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="21">
         <v>44469</v>
       </c>
@@ -35596,13 +35623,13 @@
         <v>868</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="21"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="21"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="21" t="s">
         <v>5</v>
       </c>
@@ -35618,7 +35645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="21" t="s">
         <v>11</v>
       </c>
@@ -35634,7 +35661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="21" t="s">
         <v>28</v>
       </c>
@@ -35650,7 +35677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="21" t="s">
         <v>26</v>
       </c>
@@ -35659,24 +35686,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="21"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="21"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="30" t="s">
         <v>869</v>
       </c>
@@ -35685,103 +35712,103 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="21"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="21"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="21"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="21"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="21"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="21"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="21"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="21"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="21"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="21"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="21"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="21"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="21"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="21"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="21"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="21"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="21"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="21"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="21"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="21"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="21"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="21"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="21"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="21"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="21"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="21"/>
     </row>
   </sheetData>

--- a/22年力扣每日一题做题情况.xlsx
+++ b/22年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B993FA4-2567-4996-8E4B-65FAA4496B95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428E8ECB-0A27-4479-8CF4-3927F5BA115B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="1470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="1491">
   <si>
     <t>贪心</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5902,6 +5902,90 @@
   </si>
   <si>
     <t>CV后没看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各位相加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟/数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子数组范围和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟/枚举子数组/单调栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js MIN_VALUE是无限接近0的正数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长特殊序列I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适合打劫银行的日子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀+后缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7进制数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10207,7 +10291,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -22848,16 +22932,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -26755,7 +26839,7 @@
       </c>
       <c r="E2" s="28">
         <f>'22年3月'!E34</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" s="28">
         <f>'22年3月'!F34</f>
@@ -26795,11 +26879,11 @@
       </c>
       <c r="P2">
         <f>SUM(C2:N2)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q2">
         <f>P2/12</f>
-        <v>2.0833333333333335</v>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.15">
@@ -26816,7 +26900,7 @@
       </c>
       <c r="E3" s="28">
         <f>'22年3月'!E35</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="28">
         <f>'[1]21年4月'!E35</f>
@@ -26856,11 +26940,11 @@
       </c>
       <c r="P3">
         <f>SUM(C3:N3)</f>
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q4" si="0">P3/12</f>
-        <v>13.25</v>
+        <v>13.416666666666666</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.15">
@@ -30087,7 +30171,7 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30096,7 +30180,7 @@
     <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -30170,27 +30254,104 @@
       <c r="A4" s="29">
         <v>44623</v>
       </c>
+      <c r="B4">
+        <v>258</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1473</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="29">
         <v>44624</v>
       </c>
+      <c r="B5">
+        <v>2104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1478</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="29">
         <v>44625</v>
       </c>
+      <c r="B6">
+        <v>521</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1482</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="29">
         <v>44626</v>
       </c>
+      <c r="B7">
+        <v>2100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1486</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>44627</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="B8">
+        <v>504</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1490</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="29">
@@ -30345,14 +30506,14 @@
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -30368,7 +30529,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">

--- a/22年力扣每日一题做题情况.xlsx
+++ b/22年力扣每日一题做题情况.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428E8ECB-0A27-4479-8CF4-3927F5BA115B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70786DA-9BB6-4DCB-B6B3-24773661CC15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="1491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="1517">
   <si>
     <t>贪心</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5986,6 +5986,110 @@
   </si>
   <si>
     <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜡烛之间的盒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀+后缀/二分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分最高的最小轮调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后没看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差分思想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N叉树的前序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历/栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计最高分的节点数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N叉树的后序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UTF-8 编码验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全O(1)的数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双向链表+哈希</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10291,16 +10395,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26839,7 +26943,7 @@
       </c>
       <c r="E2" s="28">
         <f>'22年3月'!E34</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2" s="28">
         <f>'22年3月'!F34</f>
@@ -26879,11 +26983,11 @@
       </c>
       <c r="P2">
         <f>SUM(C2:N2)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q2">
         <f>P2/12</f>
-        <v>2.3333333333333335</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.15">
@@ -26900,7 +27004,7 @@
       </c>
       <c r="E3" s="28">
         <f>'22年3月'!E35</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="28">
         <f>'[1]21年4月'!E35</f>
@@ -26940,11 +27044,11 @@
       </c>
       <c r="P3">
         <f>SUM(C3:N3)</f>
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q4" si="0">P3/12</f>
-        <v>13.416666666666666</v>
+        <v>13.666666666666666</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.15">
@@ -26961,7 +27065,7 @@
       </c>
       <c r="E4" s="28">
         <f>'22年3月'!E36</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="28">
         <f>'[1]21年4月'!E36</f>
@@ -27001,11 +27105,11 @@
       </c>
       <c r="P4">
         <f>SUM(C4:N4)</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>5.166666666666667</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.15">
@@ -30170,8 +30274,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30357,43 +30461,144 @@
       <c r="A9" s="29">
         <v>44628</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="B9">
+        <v>2055</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1494</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="29">
         <v>44629</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="B10">
+        <v>798</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1498</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1499</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="29">
         <v>44630</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="B11">
+        <v>589</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1503</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="29">
         <v>44631</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="B12">
+        <v>2049</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1507</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="29">
         <v>44632</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="B13">
+        <v>590</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1503</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="29">
         <v>44633</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="B14">
+        <v>393</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1512</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="29">
         <v>44634</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="B15">
+        <v>432</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1516</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="29">
@@ -30506,14 +30711,14 @@
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -30529,7 +30734,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -30538,14 +30743,14 @@
       </c>
       <c r="B36">
         <f>COUNTIF(E2:E32,"CV后看懂")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -30554,7 +30759,7 @@
       </c>
       <c r="B37">
         <f>COUNTIF(E2:E32,"CV后没看懂")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">

--- a/22年力扣每日一题做题情况.xlsx
+++ b/22年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70786DA-9BB6-4DCB-B6B3-24773661CC15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FF9E8A-6C2C-4E3B-82A6-0F7A3A349FC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="1517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="1533">
   <si>
     <t>贪心</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6090,6 +6090,70 @@
   </si>
   <si>
     <t>双向链表+哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词典中最长的单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希/字典树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LFU算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简易银行系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计按位或能得到的最大值的子集数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算/回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个列表的最小索引总和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希/模拟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10395,7 +10459,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -26943,7 +27007,7 @@
       </c>
       <c r="E2" s="28">
         <f>'22年3月'!E34</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="28">
         <f>'22年3月'!F34</f>
@@ -26983,11 +27047,11 @@
       </c>
       <c r="P2">
         <f>SUM(C2:N2)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q2">
         <f>P2/12</f>
-        <v>2.5</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.15">
@@ -27004,7 +27068,7 @@
       </c>
       <c r="E3" s="28">
         <f>'22年3月'!E35</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" s="28">
         <f>'[1]21年4月'!E35</f>
@@ -27044,11 +27108,11 @@
       </c>
       <c r="P3">
         <f>SUM(C3:N3)</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q4" si="0">P3/12</f>
-        <v>13.666666666666666</v>
+        <v>13.833333333333334</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.15">
@@ -30274,14 +30338,14 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.625" bestFit="1" customWidth="1"/>
@@ -30585,118 +30649,183 @@
         <v>44634</v>
       </c>
       <c r="B15">
-        <v>432</v>
+        <v>599</v>
       </c>
       <c r="C15" t="s">
-        <v>1513</v>
+        <v>1530</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1514</v>
+        <v>1531</v>
       </c>
       <c r="E15" t="s">
-        <v>1515</v>
+        <v>1525</v>
       </c>
       <c r="F15" t="s">
-        <v>1516</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="29">
         <v>44635</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>2044</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1528</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="29">
         <v>44636</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>432</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="29">
         <v>44637</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>720</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="29">
         <v>44638</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>2043</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="29">
         <v>44639</v>
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="29">
         <v>44640</v>
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="29">
         <v>44641</v>
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="29">
         <v>44642</v>
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="29">
         <v>44643</v>
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="29">
         <v>44644</v>
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="29">
         <v>44645</v>
       </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="29">
         <v>44646</v>
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="29">
         <v>44647</v>
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="29">
         <v>44648</v>
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="29">
         <v>44649</v>
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="29">
         <v>44650</v>
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="29">
         <v>44651</v>
       </c>
@@ -30711,14 +30840,14 @@
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -30734,7 +30863,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -30872,13 +31001,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E32" xr:uid="{21076AB3-8737-48C7-9721-A02FD5AAA187}">
-      <formula1>"自己做出,CV后看懂,CV后没看懂,看思路写出"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E33 E37:E1048576" xr:uid="{2D20E112-7424-42F1-8336-58428DCCA77A}">
       <formula1>"自己做出,CV,看思路写出"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{CD672E92-4A03-4BFB-A917-D7C8DF84BF8B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17:E32 E14 E2:E13" xr:uid="{21076AB3-8737-48C7-9721-A02FD5AAA187}">
+      <formula1>"自己做出,CV后看懂,CV后没看懂,看思路写出"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D1048576 D14 D1:D13" xr:uid="{CD672E92-4A03-4BFB-A917-D7C8DF84BF8B}">
       <formula1>"简单,中等,困难"</formula1>
     </dataValidation>
   </dataValidations>

--- a/22年力扣每日一题做题情况.xlsx
+++ b/22年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FF9E8A-6C2C-4E3B-82A6-0F7A3A349FC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC94978-3F65-47F0-9419-1A88F750B7D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="1533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="1542">
   <si>
     <t>贪心</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6154,6 +6154,42 @@
   </si>
   <si>
     <t>哈希/模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据二叉树创建字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归/迭代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络空闲的时刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js的队列操作方式：使用下标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10459,7 +10495,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -27007,7 +27043,7 @@
       </c>
       <c r="E2" s="28">
         <f>'22年3月'!E34</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="28">
         <f>'22年3月'!F34</f>
@@ -27047,11 +27083,11 @@
       </c>
       <c r="P2">
         <f>SUM(C2:N2)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2">
         <f>P2/12</f>
-        <v>2.6666666666666665</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.15">
@@ -27068,7 +27104,7 @@
       </c>
       <c r="E3" s="28">
         <f>'22年3月'!E35</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="28">
         <f>'[1]21年4月'!E35</f>
@@ -27108,11 +27144,11 @@
       </c>
       <c r="P3">
         <f>SUM(C3:N3)</f>
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q4" si="0">P3/12</f>
-        <v>13.833333333333334</v>
+        <v>13.916666666666666</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.15">
@@ -30339,7 +30375,7 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30757,13 +30793,44 @@
       <c r="A20" s="29">
         <v>44639</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="B20">
+        <v>606</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1536</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="29">
         <v>44640</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="B21">
+        <v>2039</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1540</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1541</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="29">
@@ -30840,14 +30907,14 @@
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -30863,7 +30930,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">

--- a/22年力扣每日一题做题情况.xlsx
+++ b/22年力扣每日一题做题情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC94978-3F65-47F0-9419-1A88F750B7D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37877242-8EF9-4CB0-B9C9-9C33ACC45A54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="22年1月" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="1542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="1550">
   <si>
     <t>贪心</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6190,6 +6190,38 @@
   </si>
   <si>
     <t>js的队列操作方式：使用下标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两数之和IV-输入BST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">递归/深度优先搜索+哈希 / 中序遍历+双指针 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果相邻两个颜色均相同则删除当前颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10495,7 +10527,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -23479,17 +23511,17 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -23515,7 +23547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
@@ -23532,7 +23564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>44563</v>
       </c>
@@ -23552,7 +23584,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>44564</v>
       </c>
@@ -23572,7 +23604,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>44565</v>
       </c>
@@ -23592,7 +23624,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>44566</v>
       </c>
@@ -23609,7 +23641,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>44567</v>
       </c>
@@ -23629,7 +23661,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>44568</v>
       </c>
@@ -23649,7 +23681,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>44569</v>
       </c>
@@ -23672,7 +23704,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>44570</v>
       </c>
@@ -23689,7 +23721,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>44571</v>
       </c>
@@ -23709,7 +23741,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>44572</v>
       </c>
@@ -23729,7 +23761,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>44573</v>
       </c>
@@ -23752,7 +23784,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>44574</v>
       </c>
@@ -23769,7 +23801,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>44575</v>
       </c>
@@ -23789,7 +23821,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>44576</v>
       </c>
@@ -23809,7 +23841,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>44577</v>
       </c>
@@ -23832,7 +23864,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>44578</v>
       </c>
@@ -23852,7 +23884,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>44579</v>
       </c>
@@ -23872,7 +23904,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>44580</v>
       </c>
@@ -23892,7 +23924,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>44581</v>
       </c>
@@ -23912,7 +23944,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>44582</v>
       </c>
@@ -23932,7 +23964,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>44583</v>
       </c>
@@ -23949,7 +23981,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>44584</v>
       </c>
@@ -23969,7 +24001,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>44585</v>
       </c>
@@ -23989,7 +24021,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>44586</v>
       </c>
@@ -24009,7 +24041,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>44587</v>
       </c>
@@ -24029,7 +24061,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>44588</v>
       </c>
@@ -24049,7 +24081,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>44589</v>
       </c>
@@ -24069,7 +24101,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>44590</v>
       </c>
@@ -24092,7 +24124,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>44591</v>
       </c>
@@ -24115,7 +24147,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <v>44592</v>
       </c>
@@ -24135,10 +24167,10 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -24154,7 +24186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -24170,7 +24202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -24186,7 +24218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
@@ -24195,18 +24227,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>1252</v>
       </c>
@@ -24215,127 +24247,127 @@
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="E42" s="30"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
       <c r="D48" s="31"/>
       <c r="E48" s="31"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="31"/>
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -24369,18 +24401,18 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -24406,7 +24438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>44470</v>
       </c>
@@ -24426,7 +24458,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>44471</v>
       </c>
@@ -24446,7 +24478,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>44472</v>
       </c>
@@ -24469,7 +24501,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>44473</v>
       </c>
@@ -24489,7 +24521,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>44474</v>
       </c>
@@ -24506,7 +24538,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>44475</v>
       </c>
@@ -24523,7 +24555,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>44476</v>
       </c>
@@ -24540,7 +24572,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>44477</v>
       </c>
@@ -24563,7 +24595,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>44478</v>
       </c>
@@ -24586,7 +24618,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>44479</v>
       </c>
@@ -24606,7 +24638,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>44480</v>
       </c>
@@ -24626,7 +24658,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>44481</v>
       </c>
@@ -24649,7 +24681,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>44482</v>
       </c>
@@ -24669,7 +24701,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>44483</v>
       </c>
@@ -24689,7 +24721,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>44484</v>
       </c>
@@ -24709,7 +24741,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>44485</v>
       </c>
@@ -24732,7 +24764,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>44486</v>
       </c>
@@ -24755,7 +24787,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>44487</v>
       </c>
@@ -24778,7 +24810,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>44488</v>
       </c>
@@ -24801,7 +24833,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>44489</v>
       </c>
@@ -24821,7 +24853,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>44490</v>
       </c>
@@ -24841,7 +24873,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>44491</v>
       </c>
@@ -24864,7 +24896,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>44492</v>
       </c>
@@ -24884,7 +24916,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>44493</v>
       </c>
@@ -24907,7 +24939,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>44494</v>
       </c>
@@ -24927,7 +24959,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>44495</v>
       </c>
@@ -24944,7 +24976,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>44496</v>
       </c>
@@ -24964,7 +24996,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>44497</v>
       </c>
@@ -24984,7 +25016,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>44498</v>
       </c>
@@ -25004,7 +25036,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>44499</v>
       </c>
@@ -25027,7 +25059,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>44500</v>
       </c>
@@ -25047,10 +25079,10 @@
         <v>997</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>5</v>
       </c>
@@ -25066,7 +25098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>11</v>
       </c>
@@ -25082,7 +25114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>28</v>
       </c>
@@ -25098,7 +25130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>26</v>
       </c>
@@ -25107,24 +25139,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>982</v>
       </c>
@@ -25133,103 +25165,103 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
     </row>
   </sheetData>
@@ -25262,17 +25294,17 @@
       <selection activeCell="A43" sqref="A43:D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -25298,7 +25330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>44501</v>
       </c>
@@ -25318,7 +25350,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>44502</v>
       </c>
@@ -25341,7 +25373,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>44503</v>
       </c>
@@ -25364,7 +25396,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>44504</v>
       </c>
@@ -25387,7 +25419,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>44505</v>
       </c>
@@ -25410,7 +25442,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>44506</v>
       </c>
@@ -25430,7 +25462,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>44507</v>
       </c>
@@ -25450,7 +25482,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>44508</v>
       </c>
@@ -25470,7 +25502,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>44509</v>
       </c>
@@ -25490,7 +25522,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>44510</v>
       </c>
@@ -25510,7 +25542,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>44511</v>
       </c>
@@ -25530,7 +25562,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>44512</v>
       </c>
@@ -25550,7 +25582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>44513</v>
       </c>
@@ -25570,7 +25602,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>44514</v>
       </c>
@@ -25590,7 +25622,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>44515</v>
       </c>
@@ -25610,7 +25642,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>44516</v>
       </c>
@@ -25630,7 +25662,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>44517</v>
       </c>
@@ -25650,7 +25682,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>44518</v>
       </c>
@@ -25670,7 +25702,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>44519</v>
       </c>
@@ -25690,7 +25722,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>44520</v>
       </c>
@@ -25710,7 +25742,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>44521</v>
       </c>
@@ -25730,7 +25762,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>44522</v>
       </c>
@@ -25756,7 +25788,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>44523</v>
       </c>
@@ -25776,7 +25808,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>44524</v>
       </c>
@@ -25796,7 +25828,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>44525</v>
       </c>
@@ -25819,7 +25851,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>44526</v>
       </c>
@@ -25839,7 +25871,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>44527</v>
       </c>
@@ -25862,7 +25894,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>44528</v>
       </c>
@@ -25882,7 +25914,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>44529</v>
       </c>
@@ -25902,7 +25934,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>44530</v>
       </c>
@@ -25922,13 +25954,13 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>5</v>
       </c>
@@ -25944,7 +25976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>11</v>
       </c>
@@ -25960,7 +25992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>28</v>
       </c>
@@ -25976,7 +26008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>26</v>
       </c>
@@ -25985,24 +26017,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>1120</v>
       </c>
@@ -26010,103 +26042,103 @@
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="24"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="24"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
     </row>
   </sheetData>
@@ -26139,17 +26171,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -26175,7 +26207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>44531</v>
       </c>
@@ -26192,7 +26224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>44532</v>
       </c>
@@ -26212,7 +26244,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>44533</v>
       </c>
@@ -26232,7 +26264,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>44534</v>
       </c>
@@ -26249,7 +26281,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>44535</v>
       </c>
@@ -26269,7 +26301,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>44536</v>
       </c>
@@ -26286,7 +26318,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>44537</v>
       </c>
@@ -26306,7 +26338,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>44538</v>
       </c>
@@ -26326,7 +26358,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>44539</v>
       </c>
@@ -26346,7 +26378,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>44540</v>
       </c>
@@ -26363,7 +26395,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>44541</v>
       </c>
@@ -26383,7 +26415,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>44542</v>
       </c>
@@ -26400,7 +26432,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>44543</v>
       </c>
@@ -26420,7 +26452,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>44544</v>
       </c>
@@ -26440,7 +26472,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>44545</v>
       </c>
@@ -26460,7 +26492,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>44546</v>
       </c>
@@ -26483,7 +26515,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>44547</v>
       </c>
@@ -26503,7 +26535,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>44548</v>
       </c>
@@ -26520,7 +26552,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>44549</v>
       </c>
@@ -26540,7 +26572,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>44550</v>
       </c>
@@ -26563,7 +26595,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>44551</v>
       </c>
@@ -26583,7 +26615,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>44552</v>
       </c>
@@ -26606,7 +26638,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>44553</v>
       </c>
@@ -26626,7 +26658,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>44554</v>
       </c>
@@ -26646,7 +26678,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>44555</v>
       </c>
@@ -26666,7 +26698,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>44556</v>
       </c>
@@ -26683,7 +26715,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>44557</v>
       </c>
@@ -26703,7 +26735,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>44558</v>
       </c>
@@ -26723,7 +26755,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>44559</v>
       </c>
@@ -26746,7 +26778,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <v>44560</v>
       </c>
@@ -26766,7 +26798,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
         <v>44561</v>
       </c>
@@ -26783,10 +26815,10 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>5</v>
       </c>
@@ -26802,7 +26834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>11</v>
       </c>
@@ -26818,7 +26850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>28</v>
       </c>
@@ -26834,7 +26866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>26</v>
       </c>
@@ -26843,111 +26875,111 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="25"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="25"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="25"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
     </row>
   </sheetData>
@@ -26978,14 +27010,14 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>1340</v>
       </c>
@@ -27029,7 +27061,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="27" t="s">
         <v>17</v>
       </c>
@@ -27043,7 +27075,7 @@
       </c>
       <c r="E2" s="28">
         <f>'22年3月'!E34</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="28">
         <f>'22年3月'!F34</f>
@@ -27083,14 +27115,14 @@
       </c>
       <c r="P2">
         <f>SUM(C2:N2)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q2">
         <f>P2/12</f>
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
         <v>16</v>
       </c>
@@ -27104,7 +27136,7 @@
       </c>
       <c r="E3" s="28">
         <f>'22年3月'!E35</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="28">
         <f>'[1]21年4月'!E35</f>
@@ -27144,14 +27176,14 @@
       </c>
       <c r="P3">
         <f>SUM(C3:N3)</f>
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q4" si="0">P3/12</f>
-        <v>13.916666666666666</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
         <v>18</v>
       </c>
@@ -27212,7 +27244,7 @@
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>1340</v>
       </c>
@@ -27256,7 +27288,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="27" t="s">
         <v>5</v>
       </c>
@@ -27317,7 +27349,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="27" t="s">
         <v>11</v>
       </c>
@@ -27378,7 +27410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="27" t="s">
         <v>28</v>
       </c>
@@ -27439,7 +27471,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="27" t="s">
         <v>26</v>
       </c>
@@ -27517,16 +27549,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -27540,7 +27572,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -27563,7 +27595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -27577,7 +27609,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1801</v>
       </c>
@@ -27594,7 +27626,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -27614,7 +27646,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1803</v>
       </c>
@@ -27631,7 +27663,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -27645,7 +27677,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -27657,28 +27689,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -27715,16 +27747,16 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -27738,7 +27770,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -27761,7 +27793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5713</v>
       </c>
@@ -27781,7 +27813,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5715</v>
       </c>
@@ -27798,7 +27830,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5714</v>
       </c>
@@ -27815,7 +27847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5716</v>
       </c>
@@ -27832,7 +27864,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -27846,7 +27878,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -27858,28 +27890,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -27916,16 +27948,16 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -27939,7 +27971,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -27962,7 +27994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -27979,7 +28011,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -27996,7 +28028,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -28013,7 +28045,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -28030,7 +28062,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -28047,7 +28079,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -28061,7 +28093,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -28073,28 +28105,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -28130,16 +28162,16 @@
       <selection activeCell="B14" sqref="B14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -28153,7 +28185,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -28176,7 +28208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>786</v>
       </c>
@@ -28193,7 +28225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>779</v>
       </c>
@@ -28210,7 +28242,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>782</v>
       </c>
@@ -28227,7 +28259,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>783</v>
       </c>
@@ -28241,7 +28273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>784</v>
       </c>
@@ -28252,7 +28284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -28266,7 +28298,7 @@
         <v>8176</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -28278,28 +28310,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -28336,16 +28368,16 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -28359,7 +28391,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -28382,7 +28414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5161</v>
       </c>
@@ -28399,7 +28431,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5814</v>
       </c>
@@ -28416,7 +28448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5815</v>
       </c>
@@ -28433,7 +28465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5816</v>
       </c>
@@ -28450,7 +28482,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -28464,7 +28496,7 @@
         <v>4314</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -28476,28 +28508,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -28534,16 +28566,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -28557,7 +28589,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -28580,7 +28612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5830</v>
       </c>
@@ -28594,7 +28626,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5831</v>
       </c>
@@ -28611,7 +28643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5187</v>
       </c>
@@ -28625,7 +28657,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5833</v>
       </c>
@@ -28636,7 +28668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -28650,7 +28682,7 @@
         <v>4646</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -28660,28 +28692,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -28718,17 +28750,17 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -28754,7 +28786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44593</v>
       </c>
@@ -28777,7 +28809,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>44594</v>
       </c>
@@ -28794,7 +28826,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>44595</v>
       </c>
@@ -28814,7 +28846,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>44596</v>
       </c>
@@ -28831,7 +28863,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>44597</v>
       </c>
@@ -28851,7 +28883,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>44598</v>
       </c>
@@ -28868,7 +28900,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>44599</v>
       </c>
@@ -28891,7 +28923,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>44600</v>
       </c>
@@ -28911,7 +28943,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>44601</v>
       </c>
@@ -28931,7 +28963,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>44602</v>
       </c>
@@ -28954,7 +28986,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>44603</v>
       </c>
@@ -28974,7 +29006,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>44604</v>
       </c>
@@ -28994,7 +29026,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>44605</v>
       </c>
@@ -29011,7 +29043,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>44606</v>
       </c>
@@ -29034,7 +29066,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>44607</v>
       </c>
@@ -29051,7 +29083,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>44608</v>
       </c>
@@ -29071,7 +29103,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>44609</v>
       </c>
@@ -29094,7 +29126,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>44610</v>
       </c>
@@ -29114,7 +29146,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>44611</v>
       </c>
@@ -29134,7 +29166,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>44612</v>
       </c>
@@ -29151,7 +29183,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>44613</v>
       </c>
@@ -29171,7 +29203,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>44614</v>
       </c>
@@ -29191,7 +29223,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>44615</v>
       </c>
@@ -29211,7 +29243,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>44616</v>
       </c>
@@ -29231,7 +29263,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>44617</v>
       </c>
@@ -29251,7 +29283,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>44618</v>
       </c>
@@ -29271,7 +29303,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>44619</v>
       </c>
@@ -29294,7 +29326,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>44620</v>
       </c>
@@ -29314,19 +29346,19 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
@@ -29342,7 +29374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
@@ -29358,7 +29390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
@@ -29374,7 +29406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -29383,121 +29415,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="32"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
     </row>
-    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="32"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -29534,16 +29566,16 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -29557,7 +29589,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -29580,7 +29612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5193</v>
       </c>
@@ -29597,7 +29629,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5827</v>
       </c>
@@ -29614,7 +29646,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5828</v>
       </c>
@@ -29634,7 +29666,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5220</v>
       </c>
@@ -29654,7 +29686,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -29668,7 +29700,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -29680,28 +29712,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -29737,16 +29769,16 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -29760,7 +29792,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -29783,7 +29815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5838</v>
       </c>
@@ -29797,7 +29829,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5839</v>
       </c>
@@ -29817,7 +29849,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5840</v>
       </c>
@@ -29834,7 +29866,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5841</v>
       </c>
@@ -29851,7 +29883,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -29865,7 +29897,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -29877,28 +29909,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -29935,17 +29967,17 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -29971,103 +30003,103 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>5</v>
       </c>
@@ -30083,7 +30115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>11</v>
       </c>
@@ -30099,7 +30131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>28</v>
       </c>
@@ -30115,7 +30147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>26</v>
       </c>
@@ -30124,111 +30156,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
     </row>
   </sheetData>
@@ -30258,16 +30290,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -30279,7 +30311,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -30302,7 +30334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -30310,7 +30342,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -30320,28 +30352,28 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -30374,21 +30406,21 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -30414,7 +30446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>44621</v>
       </c>
@@ -30434,7 +30466,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>44622</v>
       </c>
@@ -30454,7 +30486,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>44623</v>
       </c>
@@ -30474,7 +30506,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>44624</v>
       </c>
@@ -30497,7 +30529,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>44625</v>
       </c>
@@ -30517,7 +30549,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>44626</v>
       </c>
@@ -30537,7 +30569,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>44627</v>
       </c>
@@ -30557,7 +30589,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>44628</v>
       </c>
@@ -30577,7 +30609,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>44629</v>
       </c>
@@ -30600,7 +30632,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>44630</v>
       </c>
@@ -30620,7 +30652,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>44631</v>
       </c>
@@ -30640,7 +30672,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>44632</v>
       </c>
@@ -30660,7 +30692,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>44633</v>
       </c>
@@ -30680,7 +30712,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>44634</v>
       </c>
@@ -30700,7 +30732,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>44635</v>
       </c>
@@ -30723,7 +30755,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>44636</v>
       </c>
@@ -30746,7 +30778,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>44637</v>
       </c>
@@ -30769,7 +30801,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>44638</v>
       </c>
@@ -30789,7 +30821,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>44639</v>
       </c>
@@ -30809,7 +30841,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>44640</v>
       </c>
@@ -30832,92 +30864,120 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>44641</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>653</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>44642</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <v>2038</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <v>44643</v>
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>44644</v>
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>44645</v>
       </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <v>44646</v>
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
         <v>44647</v>
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>44648</v>
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>44649</v>
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>44650</v>
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>44651</v>
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B34">
         <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>11</v>
       </c>
@@ -30930,10 +30990,10 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -30949,7 +31009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>26</v>
       </c>
@@ -30958,111 +31018,111 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
     </row>
   </sheetData>
@@ -31093,18 +31153,18 @@
       <selection activeCell="D34" sqref="D34:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -31130,7 +31190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44287</v>
       </c>
@@ -31150,7 +31210,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>44288</v>
       </c>
@@ -31170,7 +31230,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>44289</v>
       </c>
@@ -31190,7 +31250,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44290</v>
       </c>
@@ -31210,7 +31270,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>44291</v>
       </c>
@@ -31230,7 +31290,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>44292</v>
       </c>
@@ -31250,7 +31310,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44293</v>
       </c>
@@ -31273,7 +31333,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44294</v>
       </c>
@@ -31293,7 +31353,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44295</v>
       </c>
@@ -31313,7 +31373,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44296</v>
       </c>
@@ -31330,7 +31390,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44297</v>
       </c>
@@ -31353,7 +31413,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>44298</v>
       </c>
@@ -31376,7 +31436,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>44299</v>
       </c>
@@ -31396,7 +31456,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44300</v>
       </c>
@@ -31416,7 +31476,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>44301</v>
       </c>
@@ -31436,7 +31496,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>44302</v>
       </c>
@@ -31459,7 +31519,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>44303</v>
       </c>
@@ -31485,7 +31545,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>44304</v>
       </c>
@@ -31505,7 +31565,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>44305</v>
       </c>
@@ -31528,7 +31588,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>44306</v>
       </c>
@@ -31551,7 +31611,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>44307</v>
       </c>
@@ -31574,7 +31634,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>44308</v>
       </c>
@@ -31600,7 +31660,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>44309</v>
       </c>
@@ -31620,7 +31680,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>44310</v>
       </c>
@@ -31640,7 +31700,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>44311</v>
       </c>
@@ -31660,7 +31720,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>44312</v>
       </c>
@@ -31680,7 +31740,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>44313</v>
       </c>
@@ -31700,7 +31760,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>44314</v>
       </c>
@@ -31723,7 +31783,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>44315</v>
       </c>
@@ -31743,7 +31803,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>44316</v>
       </c>
@@ -31766,13 +31826,13 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>5</v>
       </c>
@@ -31788,7 +31848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>11</v>
       </c>
@@ -31804,7 +31864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>28</v>
       </c>
@@ -31820,7 +31880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>26</v>
       </c>
@@ -31829,113 +31889,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
     </row>
   </sheetData>
@@ -31966,17 +32026,17 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -32002,7 +32062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>44317</v>
       </c>
@@ -32022,7 +32082,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>44318</v>
       </c>
@@ -32042,7 +32102,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>44319</v>
       </c>
@@ -32062,7 +32122,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>44320</v>
       </c>
@@ -32085,7 +32145,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>44321</v>
       </c>
@@ -32105,7 +32165,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>44322</v>
       </c>
@@ -32125,7 +32185,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>44323</v>
       </c>
@@ -32148,7 +32208,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>44324</v>
       </c>
@@ -32168,7 +32228,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>44325</v>
       </c>
@@ -32188,7 +32248,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>44326</v>
       </c>
@@ -32208,7 +32268,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>44327</v>
       </c>
@@ -32231,7 +32291,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>44328</v>
       </c>
@@ -32251,7 +32311,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>44329</v>
       </c>
@@ -32271,7 +32331,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>44330</v>
       </c>
@@ -32291,7 +32351,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>44331</v>
       </c>
@@ -32308,7 +32368,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>44332</v>
       </c>
@@ -32334,7 +32394,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>44333</v>
       </c>
@@ -32354,7 +32414,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>44334</v>
       </c>
@@ -32377,7 +32437,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>44335</v>
       </c>
@@ -32400,7 +32460,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>44336</v>
       </c>
@@ -32423,7 +32483,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>44337</v>
       </c>
@@ -32443,7 +32503,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>44338</v>
       </c>
@@ -32463,7 +32523,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>44339</v>
       </c>
@@ -32483,7 +32543,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>44340</v>
       </c>
@@ -32503,7 +32563,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>44341</v>
       </c>
@@ -32523,7 +32583,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>44342</v>
       </c>
@@ -32546,7 +32606,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>44343</v>
       </c>
@@ -32566,7 +32626,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>44344</v>
       </c>
@@ -32583,7 +32643,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>44345</v>
       </c>
@@ -32603,7 +32663,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>44346</v>
       </c>
@@ -32626,7 +32686,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>44347</v>
       </c>
@@ -32649,10 +32709,10 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>5</v>
       </c>
@@ -32668,7 +32728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>11</v>
       </c>
@@ -32684,7 +32744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>28</v>
       </c>
@@ -32700,7 +32760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>26</v>
       </c>
@@ -32709,21 +32769,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>281</v>
       </c>
@@ -32732,99 +32792,99 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
     </row>
   </sheetData>
@@ -32858,18 +32918,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -32895,7 +32955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44348</v>
       </c>
@@ -32915,7 +32975,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>44349</v>
       </c>
@@ -32938,7 +32998,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>44350</v>
       </c>
@@ -32958,7 +33018,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44351</v>
       </c>
@@ -32978,7 +33038,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44352</v>
       </c>
@@ -33001,7 +33061,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44353</v>
       </c>
@@ -33021,7 +33081,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>44354</v>
       </c>
@@ -33044,7 +33104,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>44355</v>
       </c>
@@ -33064,7 +33124,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44356</v>
       </c>
@@ -33084,7 +33144,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>44357</v>
       </c>
@@ -33107,7 +33167,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>44358</v>
       </c>
@@ -33130,7 +33190,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44359</v>
       </c>
@@ -33150,7 +33210,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>44360</v>
       </c>
@@ -33170,7 +33230,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44361</v>
       </c>
@@ -33193,7 +33253,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>44362</v>
       </c>
@@ -33213,7 +33273,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>44363</v>
       </c>
@@ -33236,7 +33296,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>44364</v>
       </c>
@@ -33259,7 +33319,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>44365</v>
       </c>
@@ -33279,7 +33339,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>44366</v>
       </c>
@@ -33302,7 +33362,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>44367</v>
       </c>
@@ -33322,7 +33382,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>44368</v>
       </c>
@@ -33345,7 +33405,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>44369</v>
       </c>
@@ -33365,7 +33425,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>44370</v>
       </c>
@@ -33388,7 +33448,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>44371</v>
       </c>
@@ -33411,7 +33471,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>44372</v>
       </c>
@@ -33434,7 +33494,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>44373</v>
       </c>
@@ -33457,7 +33517,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>44374</v>
       </c>
@@ -33477,7 +33537,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>44375</v>
       </c>
@@ -33497,7 +33557,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>44376</v>
       </c>
@@ -33517,7 +33577,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>44377</v>
       </c>
@@ -33540,13 +33600,13 @@
         <v>460</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
@@ -33562,7 +33622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
@@ -33578,7 +33638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
@@ -33594,7 +33654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -33603,27 +33663,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>459</v>
       </c>
@@ -33632,96 +33692,96 @@
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -33755,18 +33815,18 @@
       <selection activeCell="D34" sqref="D34:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -33792,7 +33852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44378</v>
       </c>
@@ -33815,7 +33875,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44379</v>
       </c>
@@ -33835,7 +33895,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44380</v>
       </c>
@@ -33855,7 +33915,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44381</v>
       </c>
@@ -33875,7 +33935,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44382</v>
       </c>
@@ -33895,7 +33955,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44383</v>
       </c>
@@ -33915,7 +33975,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44384</v>
       </c>
@@ -33935,7 +33995,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44385</v>
       </c>
@@ -33955,7 +34015,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>44386</v>
       </c>
@@ -33975,7 +34035,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>44387</v>
       </c>
@@ -33998,7 +34058,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44388</v>
       </c>
@@ -34018,7 +34078,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>44389</v>
       </c>
@@ -34038,7 +34098,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>44390</v>
       </c>
@@ -34061,7 +34121,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>44391</v>
       </c>
@@ -34084,7 +34144,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>44392</v>
       </c>
@@ -34104,7 +34164,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>44393</v>
       </c>
@@ -34127,7 +34187,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>44394</v>
       </c>
@@ -34147,7 +34207,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>44395</v>
       </c>
@@ -34167,7 +34227,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>44396</v>
       </c>
@@ -34187,7 +34247,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>44397</v>
       </c>
@@ -34207,7 +34267,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>44398</v>
       </c>
@@ -34227,7 +34287,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>44399</v>
       </c>
@@ -34247,7 +34307,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>44400</v>
       </c>
@@ -34267,7 +34327,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>44401</v>
       </c>
@@ -34287,7 +34347,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>44402</v>
       </c>
@@ -34307,7 +34367,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>44403</v>
       </c>
@@ -34327,7 +34387,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>44404</v>
       </c>
@@ -34344,7 +34404,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>44405</v>
       </c>
@@ -34364,7 +34424,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>44406</v>
       </c>
@@ -34384,7 +34444,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>44407</v>
       </c>
@@ -34401,7 +34461,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>44408</v>
       </c>
@@ -34421,10 +34481,10 @@
         <v>583</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>5</v>
       </c>
@@ -34440,7 +34500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>11</v>
       </c>
@@ -34456,7 +34516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>28</v>
       </c>
@@ -34472,7 +34532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>26</v>
       </c>
@@ -34481,24 +34541,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>610</v>
       </c>
@@ -34507,107 +34567,107 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
     </row>
   </sheetData>
@@ -34641,17 +34701,17 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -34677,7 +34737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>44409</v>
       </c>
@@ -34697,7 +34757,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>44410</v>
       </c>
@@ -34720,7 +34780,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>44411</v>
       </c>
@@ -34743,7 +34803,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>44412</v>
       </c>
@@ -34763,7 +34823,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>44413</v>
       </c>
@@ -34786,7 +34846,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>44414</v>
       </c>
@@ -34806,7 +34866,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>44415</v>
       </c>
@@ -34829,7 +34889,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>44416</v>
       </c>
@@ -34852,7 +34912,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>44417</v>
       </c>
@@ -34872,7 +34932,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>44418</v>
       </c>
@@ -34892,7 +34952,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>44419</v>
       </c>
@@ -34912,7 +34972,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>44420</v>
       </c>
@@ -34932,7 +34992,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>44421</v>
       </c>
@@ -34952,7 +35012,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>44422</v>
       </c>
@@ -34972,7 +35032,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>44423</v>
       </c>
@@ -34992,7 +35052,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>44424</v>
       </c>
@@ -35015,7 +35075,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>44425</v>
       </c>
@@ -35032,7 +35092,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>44426</v>
       </c>
@@ -35052,7 +35112,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>44427</v>
       </c>
@@ -35072,7 +35132,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>44428</v>
       </c>
@@ -35092,7 +35152,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>44429</v>
       </c>
@@ -35115,7 +35175,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>44430</v>
       </c>
@@ -35135,7 +35195,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>44431</v>
       </c>
@@ -35155,7 +35215,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>44432</v>
       </c>
@@ -35175,7 +35235,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>44433</v>
       </c>
@@ -35195,7 +35255,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>44434</v>
       </c>
@@ -35215,7 +35275,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>44435</v>
       </c>
@@ -35235,7 +35295,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>44436</v>
       </c>
@@ -35258,7 +35318,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>44437</v>
       </c>
@@ -35278,7 +35338,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>44438</v>
       </c>
@@ -35301,7 +35361,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>44439</v>
       </c>
@@ -35324,10 +35384,10 @@
         <v>736</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>5</v>
       </c>
@@ -35343,7 +35403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>11</v>
       </c>
@@ -35359,7 +35419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>28</v>
       </c>
@@ -35375,7 +35435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>26</v>
       </c>
@@ -35384,24 +35444,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>649</v>
       </c>
@@ -35410,103 +35470,103 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="17"/>
     </row>
   </sheetData>
@@ -35539,18 +35599,18 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -35576,7 +35636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
         <v>44440</v>
       </c>
@@ -35596,7 +35656,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>44441</v>
       </c>
@@ -35616,7 +35676,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>44442</v>
       </c>
@@ -35636,7 +35696,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>44443</v>
       </c>
@@ -35656,7 +35716,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>44444</v>
       </c>
@@ -35679,7 +35739,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>44445</v>
       </c>
@@ -35699,7 +35759,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>44446</v>
       </c>
@@ -35719,7 +35779,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>44447</v>
       </c>
@@ -35739,7 +35799,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>44448</v>
       </c>
@@ -35759,7 +35819,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>44449</v>
       </c>
@@ -35779,7 +35839,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>44450</v>
       </c>
@@ -35799,7 +35859,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>44451</v>
       </c>
@@ -35822,7 +35882,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>44452</v>
       </c>
@@ -35842,7 +35902,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>44453</v>
       </c>
@@ -35865,7 +35925,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>44454</v>
       </c>
@@ -35885,7 +35945,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>44455</v>
       </c>
@@ -35908,7 +35968,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>44456</v>
       </c>
@@ -35928,7 +35988,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>44457</v>
       </c>
@@ -35948,7 +36008,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>44458</v>
       </c>
@@ -35968,7 +36028,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>44459</v>
       </c>
@@ -35988,7 +36048,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>44460</v>
       </c>
@@ -36005,7 +36065,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>44461</v>
       </c>
@@ -36025,7 +36085,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>44462</v>
       </c>
@@ -36042,7 +36102,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>44463</v>
       </c>
@@ -36062,7 +36122,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>44464</v>
       </c>
@@ -36085,7 +36145,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>44465</v>
       </c>
@@ -36105,7 +36165,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>44466</v>
       </c>
@@ -36125,7 +36185,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>44467</v>
       </c>
@@ -36145,7 +36205,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>44468</v>
       </c>
@@ -36165,7 +36225,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>44469</v>
       </c>
@@ -36185,13 +36245,13 @@
         <v>868</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>5</v>
       </c>
@@ -36207,7 +36267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
         <v>11</v>
       </c>
@@ -36223,7 +36283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>28</v>
       </c>
@@ -36239,7 +36299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
         <v>26</v>
       </c>
@@ -36248,24 +36308,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>869</v>
       </c>
@@ -36274,103 +36334,103 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="21"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="21"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="21"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="21"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="21"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="21"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="21"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="21"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="21"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="21"/>
     </row>
   </sheetData>

--- a/22年力扣每日一题做题情况.xlsx
+++ b/22年力扣每日一题做题情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37877242-8EF9-4CB0-B9C9-9C33ACC45A54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14B7157-4BCE-4C5B-9DA9-698534EEC8F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="22年1月" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="1550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="1570">
   <si>
     <t>贪心</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6210,6 +6210,86 @@
   </si>
   <si>
     <t>如果相邻两个颜色均相同则删除当前颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典序的第K小数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV后看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典序+找规律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片平滑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟/前缀和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶乘后的零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棒球比赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找出缺失的观测数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -10527,13 +10607,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -23511,17 +23591,17 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -23547,7 +23627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
@@ -23564,7 +23644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="26">
         <v>44563</v>
       </c>
@@ -23584,7 +23664,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="26">
         <v>44564</v>
       </c>
@@ -23604,7 +23684,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="26">
         <v>44565</v>
       </c>
@@ -23624,7 +23704,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="26">
         <v>44566</v>
       </c>
@@ -23641,7 +23721,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="26">
         <v>44567</v>
       </c>
@@ -23661,7 +23741,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="26">
         <v>44568</v>
       </c>
@@ -23681,7 +23761,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="26">
         <v>44569</v>
       </c>
@@ -23704,7 +23784,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="26">
         <v>44570</v>
       </c>
@@ -23721,7 +23801,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="26">
         <v>44571</v>
       </c>
@@ -23741,7 +23821,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="26">
         <v>44572</v>
       </c>
@@ -23761,7 +23841,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="26">
         <v>44573</v>
       </c>
@@ -23784,7 +23864,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="26">
         <v>44574</v>
       </c>
@@ -23801,7 +23881,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="26">
         <v>44575</v>
       </c>
@@ -23821,7 +23901,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="26">
         <v>44576</v>
       </c>
@@ -23841,7 +23921,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="26">
         <v>44577</v>
       </c>
@@ -23864,7 +23944,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="26">
         <v>44578</v>
       </c>
@@ -23884,7 +23964,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="26">
         <v>44579</v>
       </c>
@@ -23904,7 +23984,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="26">
         <v>44580</v>
       </c>
@@ -23924,7 +24004,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="26">
         <v>44581</v>
       </c>
@@ -23944,7 +24024,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="26">
         <v>44582</v>
       </c>
@@ -23964,7 +24044,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="26">
         <v>44583</v>
       </c>
@@ -23981,7 +24061,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="26">
         <v>44584</v>
       </c>
@@ -24001,7 +24081,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="26">
         <v>44585</v>
       </c>
@@ -24021,7 +24101,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="26">
         <v>44586</v>
       </c>
@@ -24041,7 +24121,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="26">
         <v>44587</v>
       </c>
@@ -24061,7 +24141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="26">
         <v>44588</v>
       </c>
@@ -24081,7 +24161,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="26">
         <v>44589</v>
       </c>
@@ -24101,7 +24181,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="26">
         <v>44590</v>
       </c>
@@ -24124,7 +24204,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="26">
         <v>44591</v>
       </c>
@@ -24147,7 +24227,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="26">
         <v>44592</v>
       </c>
@@ -24167,10 +24247,10 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -24186,7 +24266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -24202,7 +24282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -24218,7 +24298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
@@ -24227,18 +24307,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="30" t="s">
         <v>1252</v>
       </c>
@@ -24247,127 +24327,127 @@
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="E42" s="30"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="30"/>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="31"/>
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
       <c r="D48" s="31"/>
       <c r="E48" s="31"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="31"/>
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="31"/>
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -24401,18 +24481,18 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -24438,7 +24518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="23">
         <v>44470</v>
       </c>
@@ -24458,7 +24538,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="23">
         <v>44471</v>
       </c>
@@ -24478,7 +24558,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="23">
         <v>44472</v>
       </c>
@@ -24501,7 +24581,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="23">
         <v>44473</v>
       </c>
@@ -24521,7 +24601,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="23">
         <v>44474</v>
       </c>
@@ -24538,7 +24618,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="23">
         <v>44475</v>
       </c>
@@ -24555,7 +24635,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="23">
         <v>44476</v>
       </c>
@@ -24572,7 +24652,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="23">
         <v>44477</v>
       </c>
@@ -24595,7 +24675,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="23">
         <v>44478</v>
       </c>
@@ -24618,7 +24698,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="23">
         <v>44479</v>
       </c>
@@ -24638,7 +24718,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="23">
         <v>44480</v>
       </c>
@@ -24658,7 +24738,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="23">
         <v>44481</v>
       </c>
@@ -24681,7 +24761,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="23">
         <v>44482</v>
       </c>
@@ -24701,7 +24781,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="23">
         <v>44483</v>
       </c>
@@ -24721,7 +24801,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="23">
         <v>44484</v>
       </c>
@@ -24741,7 +24821,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="23">
         <v>44485</v>
       </c>
@@ -24764,7 +24844,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="23">
         <v>44486</v>
       </c>
@@ -24787,7 +24867,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="23">
         <v>44487</v>
       </c>
@@ -24810,7 +24890,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="23">
         <v>44488</v>
       </c>
@@ -24833,7 +24913,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="23">
         <v>44489</v>
       </c>
@@ -24853,7 +24933,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="23">
         <v>44490</v>
       </c>
@@ -24873,7 +24953,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="23">
         <v>44491</v>
       </c>
@@ -24896,7 +24976,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="23">
         <v>44492</v>
       </c>
@@ -24916,7 +24996,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="23">
         <v>44493</v>
       </c>
@@ -24939,7 +25019,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="23">
         <v>44494</v>
       </c>
@@ -24959,7 +25039,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="23">
         <v>44495</v>
       </c>
@@ -24976,7 +25056,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="23">
         <v>44496</v>
       </c>
@@ -24996,7 +25076,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="23">
         <v>44497</v>
       </c>
@@ -25016,7 +25096,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="23">
         <v>44498</v>
       </c>
@@ -25036,7 +25116,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="23">
         <v>44499</v>
       </c>
@@ -25059,7 +25139,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="23">
         <v>44500</v>
       </c>
@@ -25079,10 +25159,10 @@
         <v>997</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="23"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="23" t="s">
         <v>5</v>
       </c>
@@ -25098,7 +25178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="23" t="s">
         <v>11</v>
       </c>
@@ -25114,7 +25194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="23" t="s">
         <v>28</v>
       </c>
@@ -25130,7 +25210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="23" t="s">
         <v>26</v>
       </c>
@@ -25139,24 +25219,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="23"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="23"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="23"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="23"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="30" t="s">
         <v>982</v>
       </c>
@@ -25165,103 +25245,103 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="23"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="23"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="23"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="23"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="23"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="23"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="23"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="23"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="23"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="23"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="23"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="23"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="23"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="23"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="23"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="23"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="23"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="23"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="23"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="23"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="23"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="23"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="23"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="23"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="23"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="23"/>
     </row>
   </sheetData>
@@ -25294,17 +25374,17 @@
       <selection activeCell="A43" sqref="A43:D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -25330,7 +25410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="24">
         <v>44501</v>
       </c>
@@ -25350,7 +25430,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
         <v>44502</v>
       </c>
@@ -25373,7 +25453,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>44503</v>
       </c>
@@ -25396,7 +25476,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
         <v>44504</v>
       </c>
@@ -25419,7 +25499,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
         <v>44505</v>
       </c>
@@ -25442,7 +25522,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
         <v>44506</v>
       </c>
@@ -25462,7 +25542,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>44507</v>
       </c>
@@ -25482,7 +25562,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
         <v>44508</v>
       </c>
@@ -25502,7 +25582,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>44509</v>
       </c>
@@ -25522,7 +25602,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="24">
         <v>44510</v>
       </c>
@@ -25542,7 +25622,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
         <v>44511</v>
       </c>
@@ -25562,7 +25642,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
         <v>44512</v>
       </c>
@@ -25582,7 +25662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="24">
         <v>44513</v>
       </c>
@@ -25602,7 +25682,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="24">
         <v>44514</v>
       </c>
@@ -25622,7 +25702,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="24">
         <v>44515</v>
       </c>
@@ -25642,7 +25722,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="24">
         <v>44516</v>
       </c>
@@ -25662,7 +25742,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="24">
         <v>44517</v>
       </c>
@@ -25682,7 +25762,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14